--- a/Config/Excel/Shop.xlsx
+++ b/Config/Excel/Shop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C4999F-6E7D-47B3-83D5-D697DEBD36EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E17943-41DA-45DE-9B85-C6B7A20140F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DE9042F4-05E2-4CBA-95A7-AC962596AF59}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -180,8 +180,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{29F90596-6A52-4109-AC94-927F28D661EC}" name="テーブル1" displayName="テーブル1" ref="A1:J4" totalsRowShown="0">
-  <autoFilter ref="A1:J4" xr:uid="{29F90596-6A52-4109-AC94-927F28D661EC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{29F90596-6A52-4109-AC94-927F28D661EC}" name="テーブル1" displayName="テーブル1" ref="A1:J5" totalsRowShown="0">
+  <autoFilter ref="A1:J5" xr:uid="{29F90596-6A52-4109-AC94-927F28D661EC}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{17391177-AF30-4E29-B56C-190AC8FE0C31}" name="ID"/>
     <tableColumn id="2" xr3:uid="{52EECCBF-AA36-46A3-B886-A57E84318451}" name="IconResources"/>
@@ -495,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D9729C7-5752-4B0D-AE5D-92253C36B7FD}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -634,6 +634,38 @@
         <v>8001</v>
       </c>
     </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5">
+        <v>20</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>9000</v>
+      </c>
+      <c r="I5">
+        <v>20</v>
+      </c>
+      <c r="J5">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Config/Excel/Shop.xlsx
+++ b/Config/Excel/Shop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E17943-41DA-45DE-9B85-C6B7A20140F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80DC8300-9F4C-4D50-B59F-0D24727DB4FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DE9042F4-05E2-4CBA-95A7-AC962596AF59}"/>
+    <workbookView xWindow="3165" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{DE9042F4-05E2-4CBA-95A7-AC962596AF59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -68,8 +68,99 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Textures/currency_2d_001</t>
-    <phoneticPr fontId="1"/>
+    <t>Textures/blueprint</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Name2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Coin2 add 10000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CostCount</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CostItemID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Name3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Coin3 add 6666</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>craftstory_120</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラフトシード100個</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>craftstory_980</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラフトシード900個</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>craftstory_1960</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラフトシード2000個</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>craftstory_3060</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラフトシード3500個</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>craftstory_4900</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラフトシード6000個</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>craftstory_limit_490</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>craftstory_limit_1480</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>craftstory_limit_4400</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラフトシード7000個</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラフトシード2200個</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラフトシード700個</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/blueprint</t>
   </si>
   <si>
     <t>120円</t>
@@ -79,39 +170,52 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>仮想通貨　120　ポイント追加</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>仮想通貨120</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Textures/blueprint</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Name2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Coin2 add 10000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CostCount</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CostItemID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Name3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Coin3 add 6666</t>
+    <t>900円</t>
+    <rPh sb="3" eb="4">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2000円</t>
+    <rPh sb="4" eb="5">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3500円</t>
+    <rPh sb="4" eb="5">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6000円</t>
+    <rPh sb="4" eb="5">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>700円</t>
+    <rPh sb="3" eb="4">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2200円</t>
+    <rPh sb="4" eb="5">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7000円</t>
+    <rPh sb="4" eb="5">
+      <t>エン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -119,7 +223,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +238,12 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -158,8 +268,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -180,8 +293,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{29F90596-6A52-4109-AC94-927F28D661EC}" name="テーブル1" displayName="テーブル1" ref="A1:J5" totalsRowShown="0">
-  <autoFilter ref="A1:J5" xr:uid="{29F90596-6A52-4109-AC94-927F28D661EC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{29F90596-6A52-4109-AC94-927F28D661EC}" name="テーブル1" displayName="テーブル1" ref="A1:J12" totalsRowShown="0">
+  <autoFilter ref="A1:J12" xr:uid="{29F90596-6A52-4109-AC94-927F28D661EC}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{17391177-AF30-4E29-B56C-190AC8FE0C31}" name="ID"/>
     <tableColumn id="2" xr3:uid="{52EECCBF-AA36-46A3-B886-A57E84318451}" name="IconResources"/>
@@ -495,17 +608,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D9729C7-5752-4B0D-AE5D-92253C36B7FD}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="25.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.625" customWidth="1"/>
-    <col min="4" max="4" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
@@ -535,10 +648,10 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J1" t="s">
         <v>6</v>
@@ -549,25 +662,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>11</v>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="J2">
-        <v>9001</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
@@ -575,31 +685,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3">
-        <v>10</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>9000</v>
-      </c>
-      <c r="I3">
-        <v>10</v>
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
       </c>
       <c r="J3">
-        <v>8000</v>
+        <v>9001</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
@@ -607,31 +708,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4">
         <v>20</v>
       </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4">
-        <v>9000</v>
-      </c>
-      <c r="I4">
-        <v>20</v>
+      <c r="F4" t="s">
+        <v>34</v>
       </c>
       <c r="J4">
-        <v>8001</v>
+        <v>9002</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
@@ -639,32 +731,241 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5">
+        <v>9003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6">
+        <v>9004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>9005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>9006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>9007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5">
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>9000</v>
+      </c>
+      <c r="I10">
+        <v>10</v>
+      </c>
+      <c r="J10">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11">
         <v>20</v>
       </c>
-      <c r="G5">
+      <c r="G11">
         <v>2</v>
       </c>
-      <c r="H5">
+      <c r="H11">
         <v>9000</v>
       </c>
-      <c r="I5">
+      <c r="I11">
         <v>20</v>
       </c>
-      <c r="J5">
+      <c r="J11">
+        <v>8001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12">
+        <v>20</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>9000</v>
+      </c>
+      <c r="I12">
+        <v>20</v>
+      </c>
+      <c r="J12">
         <v>9</v>
       </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B21" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Config/Excel/Shop.xlsx
+++ b/Config/Excel/Shop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80DC8300-9F4C-4D50-B59F-0D24727DB4FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90132054-4042-4B97-83BF-D2C84A94578C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3165" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{DE9042F4-05E2-4CBA-95A7-AC962596AF59}"/>
+    <workbookView xWindow="4560" yWindow="2535" windowWidth="21600" windowHeight="11385" xr2:uid="{DE9042F4-05E2-4CBA-95A7-AC962596AF59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -610,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D9729C7-5752-4B0D-AE5D-92253C36B7FD}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -676,6 +676,9 @@
       <c r="F2" t="s">
         <v>32</v>
       </c>
+      <c r="I2">
+        <v>120</v>
+      </c>
       <c r="J2">
         <v>9000</v>
       </c>
@@ -699,6 +702,9 @@
       <c r="F3" t="s">
         <v>33</v>
       </c>
+      <c r="I3">
+        <v>980</v>
+      </c>
       <c r="J3">
         <v>9001</v>
       </c>
@@ -722,6 +728,9 @@
       <c r="F4" t="s">
         <v>34</v>
       </c>
+      <c r="I4">
+        <v>1960</v>
+      </c>
       <c r="J4">
         <v>9002</v>
       </c>
@@ -745,6 +754,9 @@
       <c r="F5" t="s">
         <v>35</v>
       </c>
+      <c r="I5">
+        <v>3060</v>
+      </c>
       <c r="J5">
         <v>9003</v>
       </c>
@@ -768,6 +780,9 @@
       <c r="F6" t="s">
         <v>36</v>
       </c>
+      <c r="I6">
+        <v>4900</v>
+      </c>
       <c r="J6">
         <v>9004</v>
       </c>
@@ -794,6 +809,9 @@
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="I7">
+        <v>490</v>
+      </c>
       <c r="J7">
         <v>9005</v>
       </c>
@@ -820,6 +838,9 @@
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="I8">
+        <v>1480</v>
+      </c>
       <c r="J8">
         <v>9006</v>
       </c>
@@ -845,6 +866,9 @@
       </c>
       <c r="G9">
         <v>1</v>
+      </c>
+      <c r="I9">
+        <v>4400</v>
       </c>
       <c r="J9">
         <v>9007</v>

--- a/Config/Excel/Shop.xlsx
+++ b/Config/Excel/Shop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90132054-4042-4B97-83BF-D2C84A94578C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E15A459-1C94-46B2-97C1-D002903EDA93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4560" yWindow="2535" windowWidth="21600" windowHeight="11385" xr2:uid="{DE9042F4-05E2-4CBA-95A7-AC962596AF59}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -100,42 +100,22 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>クラフトシード100個</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>craftstory_980</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>クラフトシード900個</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>craftstory_1960</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>クラフトシード2000個</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>craftstory_3060</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>クラフトシード3500個</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>craftstory_4900</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>クラフトシード6000個</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>craftstory_limit_490</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -145,18 +125,6 @@
   </si>
   <si>
     <t>craftstory_limit_4400</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クラフトシード7000個</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クラフトシード2200個</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クラフトシード700個</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -216,6 +184,52 @@
     <rPh sb="4" eb="5">
       <t>エン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Des2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こちは商品の説明です</t>
+    <rPh sb="3" eb="5">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100個</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>900個</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2000個</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3500個</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6000個</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>700個</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2200個</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7000個</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -293,14 +307,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{29F90596-6A52-4109-AC94-927F28D661EC}" name="テーブル1" displayName="テーブル1" ref="A1:J12" totalsRowShown="0">
-  <autoFilter ref="A1:J12" xr:uid="{29F90596-6A52-4109-AC94-927F28D661EC}"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{29F90596-6A52-4109-AC94-927F28D661EC}" name="テーブル1" displayName="テーブル1" ref="A1:K12" totalsRowShown="0">
+  <autoFilter ref="A1:K12" xr:uid="{29F90596-6A52-4109-AC94-927F28D661EC}"/>
+  <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{17391177-AF30-4E29-B56C-190AC8FE0C31}" name="ID"/>
     <tableColumn id="2" xr3:uid="{52EECCBF-AA36-46A3-B886-A57E84318451}" name="IconResources"/>
     <tableColumn id="8" xr3:uid="{323AE642-3D80-492B-AA08-D506E05C34FB}" name="Type"/>
     <tableColumn id="3" xr3:uid="{51AB9198-488B-4FDA-829C-6436F3F890E2}" name="Name"/>
     <tableColumn id="4" xr3:uid="{0D86F6AE-88CF-4414-8C48-005814F75D00}" name="Des"/>
+    <tableColumn id="11" xr3:uid="{26F9C7CD-3E4E-43A4-9ED1-B9163FA92C3E}" name="Des2"/>
     <tableColumn id="5" xr3:uid="{E48D8EAA-0799-4894-BE04-A8597B26B54C}" name="BtnText"/>
     <tableColumn id="6" xr3:uid="{5594A749-E253-4D88-9B0D-8B8B8A5A38D3}" name="LimitedCount"/>
     <tableColumn id="9" xr3:uid="{541CE27E-EB9D-4ACB-81E0-17F708798465}" name="CostItemID"/>
@@ -608,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D9729C7-5752-4B0D-AE5D-92253C36B7FD}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -620,12 +635,13 @@
     <col min="3" max="3" width="17.625" customWidth="1"/>
     <col min="4" max="4" width="19.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="16.5" customWidth="1"/>
+    <col min="6" max="6" width="28.875" customWidth="1"/>
+    <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -642,27 +658,30 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -671,210 +690,234 @@
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2">
         <v>120</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>9000</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
         <v>33</v>
       </c>
-      <c r="I3">
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3">
         <v>980</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>9001</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4">
+        <v>33</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4">
         <v>1960</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>9002</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5">
         <v>3060</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>9003</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6">
         <v>4900</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>9004</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="I7">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="J7">
         <v>490</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>9005</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="I8">
+        <v>33</v>
+      </c>
+      <c r="G8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="J8">
         <v>1480</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>9006</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" t="s">
         <v>31</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="I9">
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="J9">
         <v>4400</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>9007</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -890,23 +933,26 @@
       <c r="E10" t="s">
         <v>10</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10">
         <v>10</v>
       </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
       <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
         <v>9000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>10</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>8000</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -922,23 +968,26 @@
       <c r="E11" t="s">
         <v>14</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11">
         <v>20</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>2</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>9000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>20</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>8001</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -954,26 +1003,29 @@
       <c r="E12" t="s">
         <v>14</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12">
         <v>20</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>2</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>9000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>20</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B16" s="1"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.4">

--- a/Config/Excel/Shop.xlsx
+++ b/Config/Excel/Shop.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E15A459-1C94-46B2-97C1-D002903EDA93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8F5323-374A-41D2-90A4-75602A9A389E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="2535" windowWidth="21600" windowHeight="11385" xr2:uid="{DE9042F4-05E2-4CBA-95A7-AC962596AF59}"/>
+    <workbookView xWindow="1524" yWindow="648" windowWidth="20796" windowHeight="11196" xr2:uid="{DE9042F4-05E2-4CBA-95A7-AC962596AF59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -72,14 +63,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Name2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Coin2 add 10000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>CostCount</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -88,14 +71,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Name3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Coin3 add 6666</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>craftstory_120</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -113,18 +88,6 @@
   </si>
   <si>
     <t>craftstory_4900</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>craftstory_limit_490</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>craftstory_limit_1480</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>craftstory_limit_4400</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -138,98 +101,259 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>900円</t>
+    <t>Des2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100個</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>900個</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2000個</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3500個</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6000個</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラフトシードを100個獲得することができます。</t>
+    <rPh sb="11" eb="12">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カクトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラフトシードを900個獲得することができます。</t>
+    <rPh sb="11" eb="12">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カクトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラフトシードを2000個獲得することができます。</t>
+    <rPh sb="12" eb="13">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カクトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラフトシードを3500個獲得することができます。</t>
+    <rPh sb="12" eb="13">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カクトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラフトシードを6000個獲得することができます。</t>
+    <rPh sb="12" eb="13">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カクトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>980円</t>
     <rPh sb="3" eb="4">
       <t>エン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2000円</t>
-    <rPh sb="4" eb="5">
+    <t>1,960円</t>
+    <rPh sb="5" eb="6">
       <t>エン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>3500円</t>
-    <rPh sb="4" eb="5">
+    <t>3,060円</t>
+    <rPh sb="5" eb="6">
       <t>エン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>6000円</t>
-    <rPh sb="4" eb="5">
+    <t>4,900円</t>
+    <rPh sb="5" eb="6">
       <t>エン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>700円</t>
+    <t>初心者応援パック</t>
+    <rPh sb="0" eb="3">
+      <t>ショシンシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>オウエン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「家のベース」設計図×1,木のブロックA×100,木のブロックB×100,木のブロックC×100,葉のブロック×50 を獲得することができます。</t>
+    <rPh sb="1" eb="2">
+      <t>イエ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>セッケイズ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>カクトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100個</t>
     <rPh sb="3" eb="4">
-      <t>エン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2200円</t>
-    <rPh sb="4" eb="5">
-      <t>エン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>7000円</t>
-    <rPh sb="4" eb="5">
-      <t>エン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Des2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>こちは商品の説明です</t>
-    <rPh sb="3" eb="5">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>100個</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>900個</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2000個</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3500個</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>6000個</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>700個</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2200個</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>7000個</t>
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空の設計図</t>
+    <rPh sb="0" eb="1">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>セッケイズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空の設計図を1つ獲得することができます。</t>
+    <rPh sb="0" eb="1">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>セッケイズ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カクトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金属パック</t>
+    <rPh sb="0" eb="2">
+      <t>キンゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空の設計図×3,銅鉱石×100,鉄鉱石×100,銀鉱石×100,金鉱石×100 を獲得することができます。</t>
+    <rPh sb="0" eb="1">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>セッケイズ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ドウコウセキ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>テッコウセキ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ギン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>コウセキ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>キンコウセキ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>カクトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>300個</t>
+    <rPh sb="3" eb="4">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>建築パック</t>
+    <rPh sb="0" eb="2">
+      <t>ケンチク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空の設計図×3,作業台×2,かまど×2 を獲得することができます。</t>
+    <rPh sb="0" eb="1">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>セッケイズ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>サギョウダイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カクトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空の設計図パック</t>
+    <rPh sb="0" eb="1">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>セッケイズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空の設計図を6つ獲得することができます。</t>
+    <rPh sb="0" eb="1">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>セッケイズ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カクトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>500個</t>
+    <rPh sb="3" eb="4">
+      <t>コ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -307,8 +431,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{29F90596-6A52-4109-AC94-927F28D661EC}" name="テーブル1" displayName="テーブル1" ref="A1:K12" totalsRowShown="0">
-  <autoFilter ref="A1:K12" xr:uid="{29F90596-6A52-4109-AC94-927F28D661EC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{29F90596-6A52-4109-AC94-927F28D661EC}" name="テーブル1" displayName="テーブル1" ref="A1:K11" totalsRowShown="0">
+  <autoFilter ref="A1:K11" xr:uid="{29F90596-6A52-4109-AC94-927F28D661EC}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{17391177-AF30-4E29-B56C-190AC8FE0C31}" name="ID"/>
     <tableColumn id="2" xr3:uid="{52EECCBF-AA36-46A3-B886-A57E84318451}" name="IconResources"/>
@@ -623,25 +747,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D9729C7-5752-4B0D-AE5D-92253C36B7FD}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="25.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.625" customWidth="1"/>
-    <col min="4" max="4" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.875" customWidth="1"/>
-    <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.59765625" customWidth="1"/>
+    <col min="4" max="4" width="19.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.8984375" customWidth="1"/>
+    <col min="7" max="7" width="11.09765625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.5" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -658,7 +782,7 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -667,259 +791,259 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="J2">
         <v>120</v>
       </c>
       <c r="K2">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J3">
         <v>980</v>
       </c>
       <c r="K3">
-        <v>9001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+        <v>10002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J4">
         <v>1960</v>
       </c>
       <c r="K4">
-        <v>9002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+        <v>10003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J5">
         <v>3060</v>
       </c>
       <c r="K5">
-        <v>9003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+        <v>10004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J6">
         <v>4900</v>
       </c>
       <c r="K6">
-        <v>9004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+        <v>10005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>20</v>
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
       </c>
       <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7">
+        <v>9000</v>
+      </c>
+      <c r="J7">
+        <v>100</v>
+      </c>
+      <c r="K7">
+        <v>11001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8">
+        <v>9000</v>
+      </c>
+      <c r="J8">
+        <v>100</v>
+      </c>
+      <c r="K8">
+        <v>11002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" t="s">
         <v>39</v>
       </c>
-      <c r="F7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>490</v>
-      </c>
-      <c r="K7">
-        <v>9005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="G9" t="s">
         <v>40</v>
       </c>
-      <c r="F8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>1480</v>
-      </c>
-      <c r="K8">
-        <v>9006</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
+      <c r="I9">
+        <v>9000</v>
       </c>
       <c r="J9">
-        <v>4400</v>
+        <v>300</v>
       </c>
       <c r="K9">
-        <v>9007</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+        <v>11003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -928,33 +1052,30 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10">
-        <v>10</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
+        <v>42</v>
+      </c>
+      <c r="G10" t="s">
+        <v>40</v>
       </c>
       <c r="I10">
         <v>9000</v>
       </c>
       <c r="J10">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="K10">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+        <v>11004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -963,85 +1084,47 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11">
-        <v>20</v>
-      </c>
-      <c r="H11">
-        <v>2</v>
+        <v>44</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
       </c>
       <c r="I11">
         <v>9000</v>
       </c>
       <c r="J11">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="K11">
-        <v>8001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12">
-        <v>20</v>
-      </c>
-      <c r="H12">
-        <v>2</v>
-      </c>
-      <c r="I12">
-        <v>9000</v>
-      </c>
-      <c r="J12">
-        <v>20</v>
-      </c>
-      <c r="K12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+        <v>11005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B21" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Config/Excel/Shop.xlsx
+++ b/Config/Excel/Shop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8F5323-374A-41D2-90A4-75602A9A389E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2900E509-3AE3-4C78-88C8-C717D6AEC8A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1524" yWindow="648" windowWidth="20796" windowHeight="11196" xr2:uid="{DE9042F4-05E2-4CBA-95A7-AC962596AF59}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="18252" windowHeight="9780" xr2:uid="{DE9042F4-05E2-4CBA-95A7-AC962596AF59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="97">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -213,25 +213,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「家のベース」設計図×1,木のブロックA×100,木のブロックB×100,木のブロックC×100,葉のブロック×50 を獲得することができます。</t>
-    <rPh sb="1" eb="2">
-      <t>イエ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>セッケイズ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>ハ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>カクトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>100個</t>
     <rPh sb="3" eb="4">
       <t>コ</t>
@@ -353,6 +334,454 @@
     <t>500個</t>
     <rPh sb="3" eb="4">
       <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラフトパック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/matter_2d_001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木材</t>
+    <rPh sb="0" eb="2">
+      <t>モクザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木材を60個獲得することができます。</t>
+    <rPh sb="0" eb="2">
+      <t>モクザイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カクトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木のブロックA×100,木のブロックB×100,木のブロックC×100,葉のブロック×50,石レンガのブロック×50 を獲得することができます。</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>イシ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>カクトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>180個</t>
+    <rPh sb="3" eb="4">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/icon_2D_blueprint_01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/matter_2d_002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>葉</t>
+    <rPh sb="0" eb="1">
+      <t>ハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>葉を60個獲得することができます。</t>
+    <rPh sb="0" eb="1">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カクトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/matter_2d_003</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>石材</t>
+    <rPh sb="0" eb="2">
+      <t>セキザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>石材を60個獲得することができます。</t>
+    <rPh sb="0" eb="2">
+      <t>セキザイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カクトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/matter_2d_004</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>銅鉱石</t>
+    <rPh sb="0" eb="3">
+      <t>ドウコウセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>600個</t>
+    <rPh sb="3" eb="4">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/matter_2d_005</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鉄鉱石</t>
+    <rPh sb="0" eb="3">
+      <t>テッコウセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>銅鉱石を60個獲得することができます。</t>
+    <rPh sb="0" eb="3">
+      <t>ドウコウセキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鉄鉱石を60個獲得することができます。</t>
+    <rPh sb="0" eb="3">
+      <t>テッコウセキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>900個</t>
+    <rPh sb="3" eb="4">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/matter_2d_006</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>銀鉱石</t>
+    <rPh sb="0" eb="2">
+      <t>ギンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>セキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>銀鉱石を60個獲得することができます。</t>
+    <rPh sb="0" eb="2">
+      <t>ギンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>セキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1200個</t>
+    <rPh sb="4" eb="5">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/matter_2d_007</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金鉱石</t>
+    <rPh sb="0" eb="1">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>コウセキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>セキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金鉱石を60個獲得することができます。</t>
+    <rPh sb="0" eb="1">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>コウセキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>セキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1800個</t>
+    <rPh sb="4" eb="5">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/matter_2d_008</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>銅の延棒</t>
+    <rPh sb="0" eb="1">
+      <t>ドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ノベボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>銅の延棒を60個獲得することができます。</t>
+    <rPh sb="0" eb="1">
+      <t>ドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ノベボウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カクトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6000個</t>
+    <rPh sb="4" eb="5">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/matter_2d_009</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鉄の延棒</t>
+    <rPh sb="0" eb="1">
+      <t>テツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ノベボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鉄の延棒を60個獲得することができます。</t>
+    <rPh sb="0" eb="1">
+      <t>テツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ノベボウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カクトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9000個</t>
+    <rPh sb="4" eb="5">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/matter_2d_010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>銀の延棒</t>
+    <rPh sb="0" eb="1">
+      <t>ギン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ノベボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>銀の延棒を60個獲得することができます。</t>
+    <rPh sb="0" eb="1">
+      <t>ギン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ノベボウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カクトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12000個</t>
+    <rPh sb="5" eb="6">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/matter_2d_011</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金の延棒</t>
+    <rPh sb="0" eb="1">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ノベボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金の延棒を60個獲得することができます。</t>
+    <rPh sb="0" eb="1">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ノベボウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カクトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>18000個</t>
+    <rPh sb="5" eb="6">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20000個</t>
+    <rPh sb="5" eb="6">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/matter_2d_012</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>土</t>
+    <rPh sb="0" eb="1">
+      <t>ツチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>土を60個獲得することができます。</t>
+    <rPh sb="0" eb="1">
+      <t>ツチ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カクトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/matter_2d_013</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>砂</t>
+    <rPh sb="0" eb="1">
+      <t>スナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>砂を60個獲得することができます。</t>
+    <rPh sb="0" eb="1">
+      <t>スナ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カクトク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -431,8 +860,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{29F90596-6A52-4109-AC94-927F28D661EC}" name="テーブル1" displayName="テーブル1" ref="A1:K11" totalsRowShown="0">
-  <autoFilter ref="A1:K11" xr:uid="{29F90596-6A52-4109-AC94-927F28D661EC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{29F90596-6A52-4109-AC94-927F28D661EC}" name="テーブル1" displayName="テーブル1" ref="A1:K25" totalsRowShown="0">
+  <autoFilter ref="A1:K25" xr:uid="{29F90596-6A52-4109-AC94-927F28D661EC}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{17391177-AF30-4E29-B56C-190AC8FE0C31}" name="ID"/>
     <tableColumn id="2" xr3:uid="{52EECCBF-AA36-46A3-B886-A57E84318451}" name="IconResources"/>
@@ -747,10 +1176,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D9729C7-5752-4B0D-AE5D-92253C36B7FD}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -959,13 +1388,13 @@
         <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" t="s">
         <v>34</v>
-      </c>
-      <c r="G7" t="s">
-        <v>35</v>
       </c>
       <c r="I7">
         <v>9000</v>
@@ -988,16 +1417,16 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
         <v>36</v>
       </c>
-      <c r="E8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" t="s">
-        <v>37</v>
-      </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I8">
         <v>9000</v>
@@ -1020,16 +1449,16 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
         <v>38</v>
       </c>
-      <c r="E9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>39</v>
-      </c>
-      <c r="G9" t="s">
-        <v>40</v>
       </c>
       <c r="I9">
         <v>9000</v>
@@ -1052,16 +1481,16 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" t="s">
         <v>41</v>
       </c>
-      <c r="E10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" t="s">
-        <v>42</v>
-      </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I10">
         <v>9000</v>
@@ -1084,16 +1513,16 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" t="s">
         <v>43</v>
       </c>
-      <c r="E11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>44</v>
-      </c>
-      <c r="G11" t="s">
-        <v>45</v>
       </c>
       <c r="I11">
         <v>9000</v>
@@ -1106,25 +1535,452 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B12" s="1"/>
+      <c r="A12">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I12">
+        <v>9001</v>
+      </c>
+      <c r="J12">
+        <v>20000</v>
+      </c>
+      <c r="K12">
+        <v>12001</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B13" s="1"/>
+      <c r="A13">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13">
+        <v>9001</v>
+      </c>
+      <c r="J13">
+        <v>180</v>
+      </c>
+      <c r="K13">
+        <v>12002</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B14" s="1"/>
+      <c r="A14">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14">
+        <v>9001</v>
+      </c>
+      <c r="J14">
+        <v>180</v>
+      </c>
+      <c r="K14">
+        <v>12003</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B15" s="1"/>
+      <c r="A15">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15">
+        <v>9001</v>
+      </c>
+      <c r="J15">
+        <v>180</v>
+      </c>
+      <c r="K15">
+        <v>12004</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B18" s="1"/>
+      <c r="A16">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16">
+        <v>9001</v>
+      </c>
+      <c r="J16">
+        <v>600</v>
+      </c>
+      <c r="K16">
+        <v>12005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" t="s">
+        <v>65</v>
+      </c>
+      <c r="I17">
+        <v>9001</v>
+      </c>
+      <c r="J17">
+        <v>900</v>
+      </c>
+      <c r="K17">
+        <v>12006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" t="s">
+        <v>69</v>
+      </c>
+      <c r="I18">
+        <v>9001</v>
+      </c>
+      <c r="J18">
+        <v>1200</v>
+      </c>
+      <c r="K18">
+        <v>12007</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" t="s">
+        <v>73</v>
+      </c>
+      <c r="I19">
+        <v>9001</v>
+      </c>
+      <c r="J19">
+        <v>1800</v>
+      </c>
+      <c r="K19">
+        <v>12008</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" t="s">
+        <v>77</v>
+      </c>
+      <c r="I20">
+        <v>9001</v>
+      </c>
+      <c r="J20">
+        <v>6000</v>
+      </c>
+      <c r="K20">
+        <v>12009</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G21" t="s">
+        <v>81</v>
+      </c>
+      <c r="I21">
+        <v>9001</v>
+      </c>
+      <c r="J21">
+        <v>9000</v>
+      </c>
+      <c r="K21">
+        <v>12010</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" t="s">
+        <v>84</v>
+      </c>
+      <c r="G22" t="s">
+        <v>85</v>
+      </c>
+      <c r="I22">
+        <v>9001</v>
+      </c>
+      <c r="J22">
+        <v>12000</v>
+      </c>
+      <c r="K22">
+        <v>12011</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" t="s">
+        <v>87</v>
+      </c>
+      <c r="F23" t="s">
+        <v>88</v>
+      </c>
+      <c r="G23" t="s">
+        <v>89</v>
+      </c>
+      <c r="I23">
+        <v>9001</v>
+      </c>
+      <c r="J23">
+        <v>18000</v>
+      </c>
+      <c r="K23">
+        <v>12012</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" t="s">
+        <v>92</v>
+      </c>
+      <c r="F24" t="s">
+        <v>93</v>
+      </c>
+      <c r="G24" t="s">
+        <v>50</v>
+      </c>
+      <c r="I24">
+        <v>9001</v>
+      </c>
+      <c r="J24">
+        <v>180</v>
+      </c>
+      <c r="K24">
+        <v>12013</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>95</v>
+      </c>
+      <c r="E25" t="s">
+        <v>95</v>
+      </c>
+      <c r="F25" t="s">
+        <v>96</v>
+      </c>
+      <c r="G25" t="s">
+        <v>50</v>
+      </c>
+      <c r="I25">
+        <v>9001</v>
+      </c>
+      <c r="J25">
+        <v>180</v>
+      </c>
+      <c r="K25">
+        <v>12014</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Config/Excel/Shop.xlsx
+++ b/Config/Excel/Shop.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8F5323-374A-41D2-90A4-75602A9A389E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5678B5-1499-45EB-9AAA-D5D54CBB79D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1524" yWindow="648" windowWidth="20796" windowHeight="11196" xr2:uid="{DE9042F4-05E2-4CBA-95A7-AC962596AF59}"/>
+    <workbookView xWindow="4425" yWindow="4050" windowWidth="21600" windowHeight="11385" xr2:uid="{DE9042F4-05E2-4CBA-95A7-AC962596AF59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -354,6 +354,21 @@
     <rPh sb="3" eb="4">
       <t>コ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>aaa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>99個</t>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Relation</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -431,9 +446,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{29F90596-6A52-4109-AC94-927F28D661EC}" name="テーブル1" displayName="テーブル1" ref="A1:K11" totalsRowShown="0">
-  <autoFilter ref="A1:K11" xr:uid="{29F90596-6A52-4109-AC94-927F28D661EC}"/>
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{29F90596-6A52-4109-AC94-927F28D661EC}" name="テーブル1" displayName="テーブル1" ref="A1:L12" totalsRowShown="0">
+  <autoFilter ref="A1:L12" xr:uid="{29F90596-6A52-4109-AC94-927F28D661EC}"/>
+  <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{17391177-AF30-4E29-B56C-190AC8FE0C31}" name="ID"/>
     <tableColumn id="2" xr3:uid="{52EECCBF-AA36-46A3-B886-A57E84318451}" name="IconResources"/>
     <tableColumn id="8" xr3:uid="{323AE642-3D80-492B-AA08-D506E05C34FB}" name="Type"/>
@@ -445,6 +460,7 @@
     <tableColumn id="9" xr3:uid="{541CE27E-EB9D-4ACB-81E0-17F708798465}" name="CostItemID"/>
     <tableColumn id="10" xr3:uid="{51666F81-E668-4B6F-AC26-3907A221CBF3}" name="CostCount"/>
     <tableColumn id="7" xr3:uid="{45640858-558E-46BF-A874-4D480B545757}" name="Bonus"/>
+    <tableColumn id="12" xr3:uid="{DBCB5CEE-6579-4F0E-B2EA-F4B45328CF53}" name="Relation"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -747,25 +763,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D9729C7-5752-4B0D-AE5D-92253C36B7FD}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="25.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.59765625" customWidth="1"/>
-    <col min="4" max="4" width="19.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.8984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.8984375" customWidth="1"/>
-    <col min="7" max="7" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
+    <col min="4" max="4" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.875" customWidth="1"/>
+    <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.5" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -799,8 +815,11 @@
       <c r="K1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -829,7 +848,7 @@
         <v>10001</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -858,7 +877,7 @@
         <v>10002</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -887,7 +906,7 @@
         <v>10003</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -916,7 +935,7 @@
         <v>10004</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -945,7 +964,7 @@
         <v>10005</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>9</v>
       </c>
@@ -977,7 +996,7 @@
         <v>11001</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>10</v>
       </c>
@@ -1009,7 +1028,7 @@
         <v>11002</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>11</v>
       </c>
@@ -1041,7 +1060,7 @@
         <v>11003</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>12</v>
       </c>
@@ -1073,7 +1092,7 @@
         <v>11004</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>13</v>
       </c>
@@ -1105,25 +1124,54 @@
         <v>11005</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12">
+        <v>9000</v>
+      </c>
+      <c r="J12">
+        <v>99</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B18" s="1"/>
     </row>
   </sheetData>

--- a/Config/Excel/Shop.xlsx
+++ b/Config/Excel/Shop.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2900E509-3AE3-4C78-88C8-C717D6AEC8A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5393FE18-5D72-438E-81CC-DFD4E30C689F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="18252" windowHeight="9780" xr2:uid="{DE9042F4-05E2-4CBA-95A7-AC962596AF59}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DE9042F4-05E2-4CBA-95A7-AC962596AF59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="100">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -782,6 +782,20 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>カクトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Relation</t>
+  </si>
+  <si>
+    <t>aa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>99個</t>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -790,7 +804,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -811,6 +825,12 @@
       <color rgb="FF1D1C1D"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9CDCFE"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -835,11 +855,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -860,9 +883,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{29F90596-6A52-4109-AC94-927F28D661EC}" name="テーブル1" displayName="テーブル1" ref="A1:K25" totalsRowShown="0">
-  <autoFilter ref="A1:K25" xr:uid="{29F90596-6A52-4109-AC94-927F28D661EC}"/>
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{29F90596-6A52-4109-AC94-927F28D661EC}" name="テーブル1" displayName="テーブル1" ref="A1:L26" totalsRowShown="0">
+  <autoFilter ref="A1:L26" xr:uid="{29F90596-6A52-4109-AC94-927F28D661EC}"/>
+  <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{17391177-AF30-4E29-B56C-190AC8FE0C31}" name="ID"/>
     <tableColumn id="2" xr3:uid="{52EECCBF-AA36-46A3-B886-A57E84318451}" name="IconResources"/>
     <tableColumn id="8" xr3:uid="{323AE642-3D80-492B-AA08-D506E05C34FB}" name="Type"/>
@@ -874,6 +897,7 @@
     <tableColumn id="9" xr3:uid="{541CE27E-EB9D-4ACB-81E0-17F708798465}" name="CostItemID"/>
     <tableColumn id="10" xr3:uid="{51666F81-E668-4B6F-AC26-3907A221CBF3}" name="CostCount"/>
     <tableColumn id="7" xr3:uid="{45640858-558E-46BF-A874-4D480B545757}" name="Bonus"/>
+    <tableColumn id="12" xr3:uid="{FFEED293-85D7-4A99-939F-2EB18C5A8E79}" name="Relation"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1176,25 +1200,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D9729C7-5752-4B0D-AE5D-92253C36B7FD}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="25.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.59765625" customWidth="1"/>
-    <col min="4" max="4" width="19.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.8984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.8984375" customWidth="1"/>
-    <col min="7" max="7" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
+    <col min="4" max="4" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.875" customWidth="1"/>
+    <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.5" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1228,8 +1252,11 @@
       <c r="K1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L1" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1258,7 +1285,7 @@
         <v>10001</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1287,7 +1314,7 @@
         <v>10002</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1316,7 +1343,7 @@
         <v>10003</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1345,7 +1372,7 @@
         <v>10004</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1374,7 +1401,7 @@
         <v>10005</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>9</v>
       </c>
@@ -1406,7 +1433,7 @@
         <v>11001</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>10</v>
       </c>
@@ -1438,7 +1465,7 @@
         <v>11002</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>11</v>
       </c>
@@ -1470,7 +1497,7 @@
         <v>11003</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>12</v>
       </c>
@@ -1502,7 +1529,7 @@
         <v>11004</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>13</v>
       </c>
@@ -1534,7 +1561,7 @@
         <v>11005</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>14</v>
       </c>
@@ -1566,7 +1593,7 @@
         <v>12001</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>15</v>
       </c>
@@ -1598,7 +1625,7 @@
         <v>12002</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>16</v>
       </c>
@@ -1630,7 +1657,7 @@
         <v>12003</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>17</v>
       </c>
@@ -1662,7 +1689,7 @@
         <v>12004</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>18</v>
       </c>
@@ -1694,7 +1721,7 @@
         <v>12005</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>19</v>
       </c>
@@ -1726,7 +1753,7 @@
         <v>12006</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>20</v>
       </c>
@@ -1758,7 +1785,7 @@
         <v>12007</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>21</v>
       </c>
@@ -1790,7 +1817,7 @@
         <v>12008</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>22</v>
       </c>
@@ -1822,7 +1849,7 @@
         <v>12009</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>23</v>
       </c>
@@ -1854,7 +1881,7 @@
         <v>12010</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>24</v>
       </c>
@@ -1886,7 +1913,7 @@
         <v>12011</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>25</v>
       </c>
@@ -1918,7 +1945,7 @@
         <v>12012</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>26</v>
       </c>
@@ -1950,7 +1977,7 @@
         <v>12013</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>27</v>
       </c>
@@ -1980,6 +2007,38 @@
       </c>
       <c r="K25">
         <v>12014</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>1000</v>
+      </c>
+      <c r="B26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>98</v>
+      </c>
+      <c r="E26" t="s">
+        <v>98</v>
+      </c>
+      <c r="F26" t="s">
+        <v>98</v>
+      </c>
+      <c r="G26" t="s">
+        <v>99</v>
+      </c>
+      <c r="I26">
+        <v>9000</v>
+      </c>
+      <c r="J26">
+        <v>99</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Shop.xlsx
+++ b/Config/Excel/Shop.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5393FE18-5D72-438E-81CC-DFD4E30C689F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CA44C8-49F0-40B1-ADAB-056545A8B514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DE9042F4-05E2-4CBA-95A7-AC962596AF59}"/>
+    <workbookView xWindow="828" yWindow="288" windowWidth="21000" windowHeight="10548" xr2:uid="{DE9042F4-05E2-4CBA-95A7-AC962596AF59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="101">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -789,13 +789,23 @@
     <t>Relation</t>
   </si>
   <si>
-    <t>aa</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>99個</t>
-    <rPh sb="2" eb="3">
-      <t>コ</t>
+    <t>Textures/icon_2D_blueprint_02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログハウス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログハウスを建てられる設計図を獲得することができます。</t>
+    <rPh sb="6" eb="7">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>セッケイズ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カクトク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1202,23 +1212,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D9729C7-5752-4B0D-AE5D-92253C36B7FD}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="25.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.625" customWidth="1"/>
-    <col min="4" max="4" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.875" customWidth="1"/>
-    <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.59765625" customWidth="1"/>
+    <col min="4" max="4" width="19.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.8984375" customWidth="1"/>
+    <col min="7" max="7" width="11.09765625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.5" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1256,7 +1266,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1285,7 +1295,7 @@
         <v>10001</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1314,7 +1324,7 @@
         <v>10002</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1343,7 +1353,7 @@
         <v>10003</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1372,7 +1382,7 @@
         <v>10004</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1401,7 +1411,7 @@
         <v>10005</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>9</v>
       </c>
@@ -1433,7 +1443,7 @@
         <v>11001</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>10</v>
       </c>
@@ -1465,7 +1475,7 @@
         <v>11002</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>11</v>
       </c>
@@ -1497,7 +1507,7 @@
         <v>11003</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>12</v>
       </c>
@@ -1529,7 +1539,7 @@
         <v>11004</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>13</v>
       </c>
@@ -1561,7 +1571,7 @@
         <v>11005</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>14</v>
       </c>
@@ -1593,7 +1603,7 @@
         <v>12001</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>15</v>
       </c>
@@ -1625,7 +1635,7 @@
         <v>12002</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>16</v>
       </c>
@@ -1657,7 +1667,7 @@
         <v>12003</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>17</v>
       </c>
@@ -1689,7 +1699,7 @@
         <v>12004</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>18</v>
       </c>
@@ -1721,7 +1731,7 @@
         <v>12005</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>19</v>
       </c>
@@ -1753,7 +1763,7 @@
         <v>12006</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>20</v>
       </c>
@@ -1785,7 +1795,7 @@
         <v>12007</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>21</v>
       </c>
@@ -1817,7 +1827,7 @@
         <v>12008</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>22</v>
       </c>
@@ -1849,7 +1859,7 @@
         <v>12009</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>23</v>
       </c>
@@ -1881,7 +1891,7 @@
         <v>12010</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>24</v>
       </c>
@@ -1913,7 +1923,7 @@
         <v>12011</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>25</v>
       </c>
@@ -1945,7 +1955,7 @@
         <v>12012</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>26</v>
       </c>
@@ -1977,7 +1987,7 @@
         <v>12013</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>27</v>
       </c>
@@ -2009,36 +2019,36 @@
         <v>12014</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>1000</v>
       </c>
       <c r="B26" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C26">
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E26" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F26" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G26" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="I26">
         <v>9000</v>
       </c>
       <c r="J26">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Shop.xlsx
+++ b/Config/Excel/Shop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CA44C8-49F0-40B1-ADAB-056545A8B514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A505A0EC-90F4-4DE2-B031-CB728652B93D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="288" windowWidth="21000" windowHeight="10548" xr2:uid="{DE9042F4-05E2-4CBA-95A7-AC962596AF59}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{DE9042F4-05E2-4CBA-95A7-AC962596AF59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="108">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -59,10 +59,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Textures/blueprint</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>CostCount</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -89,9 +85,6 @@
   <si>
     <t>craftstory_4900</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Textures/blueprint</t>
   </si>
   <si>
     <t>120円</t>
@@ -366,22 +359,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>木のブロックA×100,木のブロックB×100,木のブロックC×100,葉のブロック×50,石レンガのブロック×50 を獲得することができます。</t>
-    <rPh sb="0" eb="1">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>ハ</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>イシ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>カクトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>180個</t>
     <rPh sb="3" eb="4">
       <t>コ</t>
@@ -807,6 +784,55 @@
     <rPh sb="15" eb="17">
       <t>カクトク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空の設計図×3,木のブロックA×100,木のブロックB×100,木のブロックC×100,葉のブロック×50,石レンガのブロック×50 を獲得することができます。</t>
+    <rPh sb="8" eb="9">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>イシ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>カクトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/shop_stone_001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/shop_stone_002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/shop_stone_003</t>
+  </si>
+  <si>
+    <t>Textures/shop_stone_004</t>
+  </si>
+  <si>
+    <t>Textures/shop_stone_005</t>
+  </si>
+  <si>
+    <t>Textures/shop_2d_005</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/shop_2d_006</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/shop_2d_007</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/shop_2d_008</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1212,8 +1238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D9729C7-5752-4B0D-AE5D-92253C36B7FD}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1245,7 +1271,7 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1254,16 +1280,16 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K1" t="s">
         <v>6</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
@@ -1271,22 +1297,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J2">
         <v>120</v>
@@ -1300,22 +1326,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J3">
         <v>980</v>
@@ -1329,22 +1355,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J4">
         <v>1960</v>
@@ -1358,22 +1384,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J5">
         <v>3060</v>
@@ -1387,22 +1413,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J6">
         <v>4900</v>
@@ -1416,28 +1442,28 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>104</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I7">
         <v>9000</v>
       </c>
       <c r="J7">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K7">
         <v>11001</v>
@@ -1448,22 +1474,22 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I8">
         <v>9000</v>
@@ -1480,22 +1506,22 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" t="s">
         <v>37</v>
-      </c>
-      <c r="E9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" t="s">
-        <v>39</v>
       </c>
       <c r="I9">
         <v>9000</v>
@@ -1512,22 +1538,22 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I10">
         <v>9000</v>
@@ -1544,22 +1570,22 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>107</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" t="s">
         <v>42</v>
-      </c>
-      <c r="E11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" t="s">
-        <v>44</v>
       </c>
       <c r="I11">
         <v>9000</v>
@@ -1576,22 +1602,22 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I12">
         <v>9001</v>
@@ -1608,22 +1634,22 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" t="s">
         <v>46</v>
       </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="G13" t="s">
         <v>47</v>
-      </c>
-      <c r="E13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" t="s">
-        <v>50</v>
       </c>
       <c r="I13">
         <v>9001</v>
@@ -1640,22 +1666,22 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I14">
         <v>9001</v>
@@ -1672,22 +1698,22 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F15" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I15">
         <v>9001</v>
@@ -1704,22 +1730,22 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I16">
         <v>9001</v>
@@ -1736,22 +1762,22 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" t="s">
         <v>61</v>
       </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="G17" t="s">
         <v>62</v>
-      </c>
-      <c r="E17" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" t="s">
-        <v>64</v>
-      </c>
-      <c r="G17" t="s">
-        <v>65</v>
       </c>
       <c r="I17">
         <v>9001</v>
@@ -1768,22 +1794,22 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" t="s">
         <v>66</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" t="s">
-        <v>68</v>
-      </c>
-      <c r="G18" t="s">
-        <v>69</v>
       </c>
       <c r="I18">
         <v>9001</v>
@@ -1800,22 +1826,22 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" t="s">
         <v>70</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" t="s">
-        <v>71</v>
-      </c>
-      <c r="F19" t="s">
-        <v>72</v>
-      </c>
-      <c r="G19" t="s">
-        <v>73</v>
       </c>
       <c r="I19">
         <v>9001</v>
@@ -1832,22 +1858,22 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" t="s">
         <v>74</v>
-      </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" t="s">
-        <v>75</v>
-      </c>
-      <c r="F20" t="s">
-        <v>76</v>
-      </c>
-      <c r="G20" t="s">
-        <v>77</v>
       </c>
       <c r="I20">
         <v>9001</v>
@@ -1864,22 +1890,22 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" t="s">
         <v>78</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21" t="s">
-        <v>79</v>
-      </c>
-      <c r="E21" t="s">
-        <v>79</v>
-      </c>
-      <c r="F21" t="s">
-        <v>80</v>
-      </c>
-      <c r="G21" t="s">
-        <v>81</v>
       </c>
       <c r="I21">
         <v>9001</v>
@@ -1896,22 +1922,22 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" t="s">
+        <v>81</v>
+      </c>
+      <c r="G22" t="s">
         <v>82</v>
-      </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22" t="s">
-        <v>83</v>
-      </c>
-      <c r="E22" t="s">
-        <v>83</v>
-      </c>
-      <c r="F22" t="s">
-        <v>84</v>
-      </c>
-      <c r="G22" t="s">
-        <v>85</v>
       </c>
       <c r="I22">
         <v>9001</v>
@@ -1928,22 +1954,22 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23" t="s">
+        <v>85</v>
+      </c>
+      <c r="G23" t="s">
         <v>86</v>
-      </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-      <c r="D23" t="s">
-        <v>87</v>
-      </c>
-      <c r="E23" t="s">
-        <v>87</v>
-      </c>
-      <c r="F23" t="s">
-        <v>88</v>
-      </c>
-      <c r="G23" t="s">
-        <v>89</v>
       </c>
       <c r="I23">
         <v>9001</v>
@@ -1960,22 +1986,22 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C24">
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E24" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F24" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G24" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I24">
         <v>9001</v>
@@ -1992,22 +2018,22 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E25" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F25" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G25" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I25">
         <v>9001</v>
@@ -2024,22 +2050,22 @@
         <v>1000</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C26">
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E26" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F26" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I26">
         <v>9000</v>

--- a/Config/Excel/Shop.xlsx
+++ b/Config/Excel/Shop.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A505A0EC-90F4-4DE2-B031-CB728652B93D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F52A85-361F-484D-9055-6F3622EFACD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{DE9042F4-05E2-4CBA-95A7-AC962596AF59}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DE9042F4-05E2-4CBA-95A7-AC962596AF59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="説明" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="115">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -833,6 +834,61 @@
   </si>
   <si>
     <t>Textures/shop_2d_008</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>課金商品</t>
+    <rPh sb="0" eb="2">
+      <t>カキン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショウヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラフトシードを消耗して交換</t>
+    <rPh sb="8" eb="10">
+      <t>ショウモウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラフトシードを消耗して設計図商品交換</t>
+    <rPh sb="12" eb="15">
+      <t>セッケイズ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コウカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラフトシードを消耗してポイントを交換</t>
+    <rPh sb="17" eb="19">
+      <t>コウカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/icon_2D_point</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100ポイントケット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50個</t>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -919,8 +975,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{29F90596-6A52-4109-AC94-927F28D661EC}" name="テーブル1" displayName="テーブル1" ref="A1:L26" totalsRowShown="0">
-  <autoFilter ref="A1:L26" xr:uid="{29F90596-6A52-4109-AC94-927F28D661EC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{29F90596-6A52-4109-AC94-927F28D661EC}" name="テーブル1" displayName="テーブル1" ref="A1:L27" totalsRowShown="0">
+  <autoFilter ref="A1:L27" xr:uid="{29F90596-6A52-4109-AC94-927F28D661EC}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{17391177-AF30-4E29-B56C-190AC8FE0C31}" name="ID"/>
     <tableColumn id="2" xr3:uid="{52EECCBF-AA36-46A3-B886-A57E84318451}" name="IconResources"/>
@@ -1236,25 +1292,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D9729C7-5752-4B0D-AE5D-92253C36B7FD}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="25.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.59765625" customWidth="1"/>
-    <col min="4" max="4" width="19.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.8984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.8984375" customWidth="1"/>
-    <col min="7" max="7" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
+    <col min="4" max="4" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.875" customWidth="1"/>
+    <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.5" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1292,7 +1348,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1321,7 +1377,7 @@
         <v>10001</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1350,7 +1406,7 @@
         <v>10002</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1379,7 +1435,7 @@
         <v>10003</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1408,7 +1464,7 @@
         <v>10004</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1437,7 +1493,7 @@
         <v>10005</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>9</v>
       </c>
@@ -1469,7 +1525,7 @@
         <v>11001</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>10</v>
       </c>
@@ -1501,7 +1557,7 @@
         <v>11002</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>11</v>
       </c>
@@ -1533,7 +1589,7 @@
         <v>11003</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>12</v>
       </c>
@@ -1565,7 +1621,7 @@
         <v>11004</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>13</v>
       </c>
@@ -1597,7 +1653,7 @@
         <v>11005</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>14</v>
       </c>
@@ -1629,7 +1685,7 @@
         <v>12001</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>15</v>
       </c>
@@ -1661,7 +1717,7 @@
         <v>12002</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>16</v>
       </c>
@@ -1693,7 +1749,7 @@
         <v>12003</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>17</v>
       </c>
@@ -1725,7 +1781,7 @@
         <v>12004</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>18</v>
       </c>
@@ -1757,7 +1813,7 @@
         <v>12005</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>19</v>
       </c>
@@ -1789,7 +1845,7 @@
         <v>12006</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>20</v>
       </c>
@@ -1821,7 +1877,7 @@
         <v>12007</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>21</v>
       </c>
@@ -1853,7 +1909,7 @@
         <v>12008</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>22</v>
       </c>
@@ -1885,7 +1941,7 @@
         <v>12009</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>23</v>
       </c>
@@ -1917,7 +1973,7 @@
         <v>12010</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>24</v>
       </c>
@@ -1949,7 +2005,7 @@
         <v>12011</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>25</v>
       </c>
@@ -1981,7 +2037,7 @@
         <v>12012</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>26</v>
       </c>
@@ -2013,7 +2069,7 @@
         <v>12013</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>27</v>
       </c>
@@ -2045,7 +2101,7 @@
         <v>12014</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>1000</v>
       </c>
@@ -2075,6 +2131,35 @@
       </c>
       <c r="L26">
         <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>2000</v>
+      </c>
+      <c r="B27" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="E27" t="s">
+        <v>113</v>
+      </c>
+      <c r="F27" t="s">
+        <v>113</v>
+      </c>
+      <c r="G27" t="s">
+        <v>114</v>
+      </c>
+      <c r="I27">
+        <v>9000</v>
+      </c>
+      <c r="J27">
+        <v>50</v>
+      </c>
+      <c r="K27">
+        <v>14001</v>
       </c>
     </row>
   </sheetData>
@@ -2085,4 +2170,57 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F6448A0-E1BF-4EA2-8191-A0E9BE856F36}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Config/Excel/Shop.xlsx
+++ b/Config/Excel/Shop.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F52A85-361F-484D-9055-6F3622EFACD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC7F62C-4BEB-4892-B2AA-8B7D8E3FBDCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DE9042F4-05E2-4CBA-95A7-AC962596AF59}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{DE9042F4-05E2-4CBA-95A7-AC962596AF59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="131">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -881,12 +881,106 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>100ポイントケット</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>50個</t>
-    <rPh sb="2" eb="3">
+    <t>200ポイント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>200ポイントを獲得することができます。</t>
+    <rPh sb="8" eb="10">
+      <t>カクトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>600ポイント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>600ポイントを獲得することができます。</t>
+    <rPh sb="8" eb="10">
+      <t>カクトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1000ポイント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1000ポイントを獲得することができます。</t>
+    <rPh sb="9" eb="11">
+      <t>カクトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2000ポイント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2000ポイントを獲得することができます。</t>
+    <rPh sb="9" eb="11">
+      <t>カクトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1000個</t>
+    <rPh sb="4" eb="5">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4000ポイント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4000ポイントを獲得することができます。</t>
+    <rPh sb="9" eb="11">
+      <t>カクトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2000個</t>
+    <rPh sb="4" eb="5">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7000ポイント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7000ポイントを獲得することができます。</t>
+    <rPh sb="9" eb="11">
+      <t>カクトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3500個</t>
+    <rPh sb="4" eb="5">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11000ポイント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11000ポイントを獲得することができます。</t>
+    <rPh sb="10" eb="12">
+      <t>カクトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5500個</t>
+    <rPh sb="4" eb="5">
       <t>コ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -975,8 +1069,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{29F90596-6A52-4109-AC94-927F28D661EC}" name="テーブル1" displayName="テーブル1" ref="A1:L27" totalsRowShown="0">
-  <autoFilter ref="A1:L27" xr:uid="{29F90596-6A52-4109-AC94-927F28D661EC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{29F90596-6A52-4109-AC94-927F28D661EC}" name="テーブル1" displayName="テーブル1" ref="A1:L33" totalsRowShown="0">
+  <autoFilter ref="A1:L33" xr:uid="{29F90596-6A52-4109-AC94-927F28D661EC}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{17391177-AF30-4E29-B56C-190AC8FE0C31}" name="ID"/>
     <tableColumn id="2" xr3:uid="{52EECCBF-AA36-46A3-B886-A57E84318451}" name="IconResources"/>
@@ -1292,25 +1386,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D9729C7-5752-4B0D-AE5D-92253C36B7FD}">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="25.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.625" customWidth="1"/>
-    <col min="4" max="4" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.875" customWidth="1"/>
-    <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.59765625" customWidth="1"/>
+    <col min="4" max="4" width="19.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.8984375" customWidth="1"/>
+    <col min="7" max="7" width="11.09765625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.5" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1348,7 +1442,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1377,7 +1471,7 @@
         <v>10001</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1406,7 +1500,7 @@
         <v>10002</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1435,7 +1529,7 @@
         <v>10003</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1464,7 +1558,7 @@
         <v>10004</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1493,7 +1587,7 @@
         <v>10005</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>9</v>
       </c>
@@ -1525,7 +1619,7 @@
         <v>11001</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>10</v>
       </c>
@@ -1557,7 +1651,7 @@
         <v>11002</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>11</v>
       </c>
@@ -1589,7 +1683,7 @@
         <v>11003</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>12</v>
       </c>
@@ -1621,7 +1715,7 @@
         <v>11004</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>13</v>
       </c>
@@ -1653,7 +1747,7 @@
         <v>11005</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>14</v>
       </c>
@@ -1685,7 +1779,7 @@
         <v>12001</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>15</v>
       </c>
@@ -1717,7 +1811,7 @@
         <v>12002</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>16</v>
       </c>
@@ -1749,7 +1843,7 @@
         <v>12003</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>17</v>
       </c>
@@ -1781,7 +1875,7 @@
         <v>12004</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>18</v>
       </c>
@@ -1813,7 +1907,7 @@
         <v>12005</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>19</v>
       </c>
@@ -1845,7 +1939,7 @@
         <v>12006</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>20</v>
       </c>
@@ -1877,7 +1971,7 @@
         <v>12007</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>21</v>
       </c>
@@ -1909,7 +2003,7 @@
         <v>12008</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>22</v>
       </c>
@@ -1941,7 +2035,7 @@
         <v>12009</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>23</v>
       </c>
@@ -1973,7 +2067,7 @@
         <v>12010</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>24</v>
       </c>
@@ -2005,7 +2099,7 @@
         <v>12011</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>25</v>
       </c>
@@ -2037,7 +2131,7 @@
         <v>12012</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>26</v>
       </c>
@@ -2069,7 +2163,7 @@
         <v>12013</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>27</v>
       </c>
@@ -2101,7 +2195,7 @@
         <v>12014</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>1000</v>
       </c>
@@ -2133,7 +2227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>2000</v>
       </c>
@@ -2147,19 +2241,193 @@
         <v>113</v>
       </c>
       <c r="F27" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G27" t="s">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="I27">
         <v>9000</v>
       </c>
       <c r="J27">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K27">
         <v>14001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>2001</v>
+      </c>
+      <c r="B28" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="E28" t="s">
+        <v>115</v>
+      </c>
+      <c r="F28" t="s">
+        <v>116</v>
+      </c>
+      <c r="G28" t="s">
+        <v>37</v>
+      </c>
+      <c r="I28">
+        <v>9000</v>
+      </c>
+      <c r="J28">
+        <v>300</v>
+      </c>
+      <c r="K28">
+        <v>14002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>2002</v>
+      </c>
+      <c r="B29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="E29" t="s">
+        <v>117</v>
+      </c>
+      <c r="F29" t="s">
+        <v>118</v>
+      </c>
+      <c r="G29" t="s">
+        <v>42</v>
+      </c>
+      <c r="I29">
+        <v>9000</v>
+      </c>
+      <c r="J29">
+        <v>500</v>
+      </c>
+      <c r="K29">
+        <v>14003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>2003</v>
+      </c>
+      <c r="B30" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="E30" t="s">
+        <v>119</v>
+      </c>
+      <c r="F30" t="s">
+        <v>120</v>
+      </c>
+      <c r="G30" t="s">
+        <v>121</v>
+      </c>
+      <c r="I30">
+        <v>9000</v>
+      </c>
+      <c r="J30">
+        <v>1000</v>
+      </c>
+      <c r="K30">
+        <v>14004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>2004</v>
+      </c>
+      <c r="B31" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="E31" t="s">
+        <v>122</v>
+      </c>
+      <c r="F31" t="s">
+        <v>123</v>
+      </c>
+      <c r="G31" t="s">
+        <v>124</v>
+      </c>
+      <c r="I31">
+        <v>9000</v>
+      </c>
+      <c r="J31">
+        <v>2000</v>
+      </c>
+      <c r="K31">
+        <v>14005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>2005</v>
+      </c>
+      <c r="B32" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="E32" t="s">
+        <v>125</v>
+      </c>
+      <c r="F32" t="s">
+        <v>126</v>
+      </c>
+      <c r="G32" t="s">
+        <v>127</v>
+      </c>
+      <c r="I32">
+        <v>9000</v>
+      </c>
+      <c r="J32">
+        <v>3500</v>
+      </c>
+      <c r="K32">
+        <v>14006</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>2006</v>
+      </c>
+      <c r="B33" t="s">
+        <v>112</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="E33" t="s">
+        <v>128</v>
+      </c>
+      <c r="F33" t="s">
+        <v>129</v>
+      </c>
+      <c r="G33" t="s">
+        <v>130</v>
+      </c>
+      <c r="I33">
+        <v>9000</v>
+      </c>
+      <c r="J33">
+        <v>5500</v>
+      </c>
+      <c r="K33">
+        <v>14007</v>
       </c>
     </row>
   </sheetData>
@@ -2180,14 +2448,14 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2195,7 +2463,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2203,7 +2471,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2211,7 +2479,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>

--- a/Config/Excel/Shop.xlsx
+++ b/Config/Excel/Shop.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC7F62C-4BEB-4892-B2AA-8B7D8E3FBDCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2BBFEDC-4F42-45F9-9104-4AC562FF2510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{DE9042F4-05E2-4CBA-95A7-AC962596AF59}"/>
+    <workbookView xWindow="4500" yWindow="2505" windowWidth="21600" windowHeight="11385" xr2:uid="{DE9042F4-05E2-4CBA-95A7-AC962596AF59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="説明" sheetId="2" r:id="rId2"/>
+    <sheet name="Type" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="144">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -982,6 +983,148 @@
     <t>5500個</t>
     <rPh sb="4" eb="5">
       <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ショップの商品設定ファイル</t>
+    <rPh sb="5" eb="7">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>唯一のID</t>
+    <rPh sb="0" eb="2">
+      <t>ユイイツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品アイコンのパス</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品のタイプ</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品の名前</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>簡単説明</t>
+    <rPh sb="0" eb="2">
+      <t>カンタン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳しい説明</t>
+    <rPh sb="0" eb="1">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>買うボタンのテキスト</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>買う数の制限（実装はまだ）</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>買う場合、消耗するアイテム</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショウモウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>消耗する数</t>
+    <rPh sb="0" eb="2">
+      <t>ショウモウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>買うともらうボーナス</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他のデータが必要場合の関連（固定設計図の場合Blueprint設定ファイルのID）</t>
+    <rPh sb="0" eb="1">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>セッケイズ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>セッテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -990,7 +1133,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1018,21 +1161,80 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9CDCFE"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1041,7 +1243,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1049,6 +1251,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1388,23 +1599,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D9729C7-5752-4B0D-AE5D-92253C36B7FD}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="25.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.59765625" customWidth="1"/>
-    <col min="4" max="4" width="19.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.8984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.8984375" customWidth="1"/>
-    <col min="7" max="7" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
+    <col min="4" max="4" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.875" customWidth="1"/>
+    <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.5" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1442,7 +1656,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1471,7 +1685,7 @@
         <v>10001</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1500,7 +1714,7 @@
         <v>10002</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1529,7 +1743,7 @@
         <v>10003</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1558,7 +1772,7 @@
         <v>10004</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1587,7 +1801,7 @@
         <v>10005</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>9</v>
       </c>
@@ -1619,7 +1833,7 @@
         <v>11001</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>10</v>
       </c>
@@ -1651,7 +1865,7 @@
         <v>11002</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>11</v>
       </c>
@@ -1683,7 +1897,7 @@
         <v>11003</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>12</v>
       </c>
@@ -1715,7 +1929,7 @@
         <v>11004</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>13</v>
       </c>
@@ -1747,7 +1961,7 @@
         <v>11005</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>14</v>
       </c>
@@ -1779,7 +1993,7 @@
         <v>12001</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>15</v>
       </c>
@@ -1811,7 +2025,7 @@
         <v>12002</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>16</v>
       </c>
@@ -1843,7 +2057,7 @@
         <v>12003</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>17</v>
       </c>
@@ -1875,7 +2089,7 @@
         <v>12004</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>18</v>
       </c>
@@ -1907,7 +2121,7 @@
         <v>12005</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>19</v>
       </c>
@@ -1939,7 +2153,7 @@
         <v>12006</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>20</v>
       </c>
@@ -1971,7 +2185,7 @@
         <v>12007</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>21</v>
       </c>
@@ -2003,7 +2217,7 @@
         <v>12008</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>22</v>
       </c>
@@ -2035,7 +2249,7 @@
         <v>12009</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>23</v>
       </c>
@@ -2067,7 +2281,7 @@
         <v>12010</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>24</v>
       </c>
@@ -2099,7 +2313,7 @@
         <v>12011</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>25</v>
       </c>
@@ -2131,7 +2345,7 @@
         <v>12012</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>26</v>
       </c>
@@ -2163,7 +2377,7 @@
         <v>12013</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>27</v>
       </c>
@@ -2195,7 +2409,7 @@
         <v>12014</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>1000</v>
       </c>
@@ -2227,7 +2441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>2000</v>
       </c>
@@ -2256,7 +2470,7 @@
         <v>14001</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>2001</v>
       </c>
@@ -2285,7 +2499,7 @@
         <v>14002</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>2002</v>
       </c>
@@ -2314,7 +2528,7 @@
         <v>14003</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>2003</v>
       </c>
@@ -2343,7 +2557,7 @@
         <v>14004</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>2004</v>
       </c>
@@ -2372,7 +2586,7 @@
         <v>14005</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>2005</v>
       </c>
@@ -2401,7 +2615,7 @@
         <v>14006</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>2006</v>
       </c>
@@ -2442,20 +2656,165 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F6448A0-E1BF-4EA2-8191-A0E9BE856F36}">
+  <dimension ref="A1:A26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="15.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A9" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A11" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A13" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A15" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A21" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A23" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A25" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC2DF1F8-1852-4E6C-BEBB-8DF7E83C72E9}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2463,7 +2822,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2471,7 +2830,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2479,7 +2838,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>

--- a/Config/Excel/Shop.xlsx
+++ b/Config/Excel/Shop.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2BBFEDC-4F42-45F9-9104-4AC562FF2510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C882A6-DACE-45CD-A446-FC00F719B278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="2505" windowWidth="21600" windowHeight="11385" xr2:uid="{DE9042F4-05E2-4CBA-95A7-AC962596AF59}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DE9042F4-05E2-4CBA-95A7-AC962596AF59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="156">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1126,6 +1126,58 @@
     <rPh sb="31" eb="33">
       <t>セッテイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/shop_stone_001</t>
+  </si>
+  <si>
+    <t>craftstory_subscription_980</t>
+  </si>
+  <si>
+    <t>1950円</t>
+    <rPh sb="4" eb="5">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3800円</t>
+    <rPh sb="4" eb="5">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>craftstory_subscription_1950</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>craftstory_subscription_3800</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sub02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sub03</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sub02 des</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sub03 des</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sub01 des</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30日間毎日もらえる!!</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1280,8 +1332,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{29F90596-6A52-4109-AC94-927F28D661EC}" name="テーブル1" displayName="テーブル1" ref="A1:L33" totalsRowShown="0">
-  <autoFilter ref="A1:L33" xr:uid="{29F90596-6A52-4109-AC94-927F28D661EC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{29F90596-6A52-4109-AC94-927F28D661EC}" name="テーブル1" displayName="テーブル1" ref="A1:L36" totalsRowShown="0">
+  <autoFilter ref="A1:L36" xr:uid="{29F90596-6A52-4109-AC94-927F28D661EC}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{17391177-AF30-4E29-B56C-190AC8FE0C31}" name="ID"/>
     <tableColumn id="2" xr3:uid="{52EECCBF-AA36-46A3-B886-A57E84318451}" name="IconResources"/>
@@ -1597,13 +1649,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D9729C7-5752-4B0D-AE5D-92253C36B7FD}">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomRight" activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1803,118 +1855,109 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s">
-        <v>104</v>
+        <v>144</v>
       </c>
       <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>155</v>
       </c>
       <c r="F7" t="s">
-        <v>98</v>
+        <v>154</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7">
-        <v>9000</v>
+        <v>27</v>
       </c>
       <c r="J7">
-        <v>300</v>
+        <v>980</v>
       </c>
       <c r="K7">
-        <v>11001</v>
+        <v>10080</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>144</v>
       </c>
       <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>33</v>
+        <v>5</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>150</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>152</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8">
-        <v>9000</v>
+        <v>146</v>
       </c>
       <c r="J8">
-        <v>100</v>
+        <v>1950</v>
       </c>
       <c r="K8">
-        <v>11002</v>
+        <v>10081</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>35</v>
+        <v>5</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>151</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>153</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9">
-        <v>9000</v>
+        <v>147</v>
       </c>
       <c r="J9">
-        <v>300</v>
+        <v>3800</v>
       </c>
       <c r="K9">
-        <v>11003</v>
+        <v>10082</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
         <v>38</v>
       </c>
-      <c r="E10" t="s">
-        <v>43</v>
-      </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="G10" t="s">
         <v>37</v>
@@ -1926,611 +1969,620 @@
         <v>300</v>
       </c>
       <c r="K10">
-        <v>11004</v>
+        <v>11001</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="B11" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="I11">
         <v>9000</v>
       </c>
       <c r="J11">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="K11">
-        <v>11005</v>
+        <v>11002</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G12" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="I12">
-        <v>9001</v>
+        <v>9000</v>
       </c>
       <c r="J12">
-        <v>20000</v>
+        <v>300</v>
       </c>
       <c r="K12">
-        <v>12001</v>
+        <v>11003</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I13">
-        <v>9001</v>
+        <v>9000</v>
       </c>
       <c r="J13">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="K13">
-        <v>12002</v>
+        <v>11004</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F14" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I14">
-        <v>9001</v>
+        <v>9000</v>
       </c>
       <c r="J14">
-        <v>180</v>
+        <v>500</v>
       </c>
       <c r="K14">
-        <v>12003</v>
+        <v>11005</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="I15">
         <v>9001</v>
       </c>
       <c r="J15">
-        <v>180</v>
+        <v>20000</v>
       </c>
       <c r="K15">
-        <v>12004</v>
+        <v>12001</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16">
-        <v>18</v>
+        <v>200</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E16" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="G16" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="I16">
         <v>9001</v>
       </c>
       <c r="J16">
-        <v>600</v>
+        <v>180</v>
       </c>
       <c r="K16">
-        <v>12005</v>
+        <v>12002</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17">
-        <v>19</v>
+        <v>201</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E17" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F17" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G17" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="I17">
         <v>9001</v>
       </c>
       <c r="J17">
-        <v>900</v>
+        <v>180</v>
       </c>
       <c r="K17">
-        <v>12006</v>
+        <v>12003</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18">
-        <v>20</v>
+        <v>202</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E18" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="F18" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G18" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="I18">
         <v>9001</v>
       </c>
       <c r="J18">
-        <v>1200</v>
+        <v>180</v>
       </c>
       <c r="K18">
-        <v>12007</v>
+        <v>12004</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19">
-        <v>21</v>
+        <v>203</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E19" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="F19" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="G19" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="I19">
         <v>9001</v>
       </c>
       <c r="J19">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="K19">
-        <v>12008</v>
+        <v>12005</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20">
-        <v>22</v>
+        <v>204</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E20" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="F20" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G20" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="I20">
         <v>9001</v>
       </c>
       <c r="J20">
-        <v>6000</v>
+        <v>900</v>
       </c>
       <c r="K20">
-        <v>12009</v>
+        <v>12006</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21">
-        <v>23</v>
+        <v>205</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="E21" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="F21" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="G21" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="I21">
         <v>9001</v>
       </c>
       <c r="J21">
-        <v>9000</v>
+        <v>1200</v>
       </c>
       <c r="K21">
-        <v>12010</v>
+        <v>12007</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22">
-        <v>24</v>
+        <v>206</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C22">
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E22" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="F22" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="G22" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="I22">
         <v>9001</v>
       </c>
       <c r="J22">
-        <v>12000</v>
+        <v>1800</v>
       </c>
       <c r="K22">
-        <v>12011</v>
+        <v>12008</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23">
-        <v>25</v>
+        <v>207</v>
       </c>
       <c r="B23" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="E23" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F23" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="G23" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="I23">
         <v>9001</v>
       </c>
       <c r="J23">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="K23">
-        <v>12012</v>
+        <v>12009</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24">
-        <v>26</v>
+        <v>208</v>
       </c>
       <c r="B24" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C24">
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="E24" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="F24" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="I24">
         <v>9001</v>
       </c>
       <c r="J24">
-        <v>180</v>
+        <v>9000</v>
       </c>
       <c r="K24">
-        <v>12013</v>
+        <v>12010</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25">
-        <v>27</v>
+        <v>209</v>
       </c>
       <c r="B25" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E25" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F25" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="I25">
         <v>9001</v>
       </c>
       <c r="J25">
-        <v>180</v>
+        <v>12000</v>
       </c>
       <c r="K25">
-        <v>12014</v>
+        <v>12011</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="B26" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="E26" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="F26" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="G26" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="I26">
-        <v>9000</v>
+        <v>9001</v>
       </c>
       <c r="J26">
-        <v>100</v>
-      </c>
-      <c r="L26">
-        <v>2</v>
+        <v>18000</v>
+      </c>
+      <c r="K26">
+        <v>12012</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27">
-        <v>2000</v>
+        <v>211</v>
       </c>
       <c r="B27" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="C27">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>89</v>
       </c>
       <c r="E27" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="F27" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="G27" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="I27">
-        <v>9000</v>
+        <v>9001</v>
       </c>
       <c r="J27">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="K27">
-        <v>14001</v>
+        <v>12013</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28">
-        <v>2001</v>
+        <v>212</v>
       </c>
       <c r="B28" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>92</v>
       </c>
       <c r="E28" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="F28" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="G28" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I28">
-        <v>9000</v>
+        <v>9001</v>
       </c>
       <c r="J28">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="K28">
-        <v>14002</v>
+        <v>12014</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29">
-        <v>2002</v>
+        <v>1000</v>
       </c>
       <c r="B29" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>96</v>
       </c>
       <c r="E29" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="F29" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="G29" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="I29">
         <v>9000</v>
       </c>
       <c r="J29">
-        <v>500</v>
-      </c>
-      <c r="K29">
-        <v>14003</v>
+        <v>100</v>
+      </c>
+      <c r="L29">
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A30">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="B30" t="s">
         <v>112</v>
@@ -2539,27 +2591,27 @@
         <v>4</v>
       </c>
       <c r="E30" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F30" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G30" t="s">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="I30">
         <v>9000</v>
       </c>
       <c r="J30">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="K30">
-        <v>14004</v>
+        <v>14001</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A31">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="B31" t="s">
         <v>112</v>
@@ -2568,27 +2620,27 @@
         <v>4</v>
       </c>
       <c r="E31" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F31" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="G31" t="s">
-        <v>124</v>
+        <v>37</v>
       </c>
       <c r="I31">
         <v>9000</v>
       </c>
       <c r="J31">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="K31">
-        <v>14005</v>
+        <v>14002</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A32">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="B32" t="s">
         <v>112</v>
@@ -2597,27 +2649,27 @@
         <v>4</v>
       </c>
       <c r="E32" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F32" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="G32" t="s">
-        <v>127</v>
+        <v>42</v>
       </c>
       <c r="I32">
         <v>9000</v>
       </c>
       <c r="J32">
-        <v>3500</v>
+        <v>500</v>
       </c>
       <c r="K32">
-        <v>14006</v>
+        <v>14003</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A33">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="B33" t="s">
         <v>112</v>
@@ -2626,21 +2678,108 @@
         <v>4</v>
       </c>
       <c r="E33" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="F33" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="G33" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="I33">
         <v>9000</v>
       </c>
       <c r="J33">
+        <v>1000</v>
+      </c>
+      <c r="K33">
+        <v>14004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>2004</v>
+      </c>
+      <c r="B34" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34">
+        <v>4</v>
+      </c>
+      <c r="E34" t="s">
+        <v>122</v>
+      </c>
+      <c r="F34" t="s">
+        <v>123</v>
+      </c>
+      <c r="G34" t="s">
+        <v>124</v>
+      </c>
+      <c r="I34">
+        <v>9000</v>
+      </c>
+      <c r="J34">
+        <v>2000</v>
+      </c>
+      <c r="K34">
+        <v>14005</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>2005</v>
+      </c>
+      <c r="B35" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="E35" t="s">
+        <v>125</v>
+      </c>
+      <c r="F35" t="s">
+        <v>126</v>
+      </c>
+      <c r="G35" t="s">
+        <v>127</v>
+      </c>
+      <c r="I35">
+        <v>9000</v>
+      </c>
+      <c r="J35">
+        <v>3500</v>
+      </c>
+      <c r="K35">
+        <v>14006</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>2006</v>
+      </c>
+      <c r="B36" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="E36" t="s">
+        <v>128</v>
+      </c>
+      <c r="F36" t="s">
+        <v>129</v>
+      </c>
+      <c r="G36" t="s">
+        <v>130</v>
+      </c>
+      <c r="I36">
+        <v>9000</v>
+      </c>
+      <c r="J36">
         <v>5500</v>
       </c>
-      <c r="K33">
+      <c r="K36">
         <v>14007</v>
       </c>
     </row>

--- a/Config/Excel/Shop.xlsx
+++ b/Config/Excel/Shop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C882A6-DACE-45CD-A446-FC00F719B278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9BCE10-B724-47C2-BDDE-CFCF6F3473BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DE9042F4-05E2-4CBA-95A7-AC962596AF59}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="24525" windowHeight="12975" xr2:uid="{DE9042F4-05E2-4CBA-95A7-AC962596AF59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="154">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1132,9 +1132,6 @@
     <t>Textures/shop_stone_001</t>
   </si>
   <si>
-    <t>craftstory_subscription_980</t>
-  </si>
-  <si>
     <t>1950円</t>
     <rPh sb="4" eb="5">
       <t>エン</t>
@@ -1142,42 +1139,38 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>3800円</t>
+    <t>30日間毎日もらえる!!</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>craftstory_subsc_3060</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3060円</t>
     <rPh sb="4" eb="5">
       <t>エン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>craftstory_subscription_1950</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>craftstory_subscription_3800</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sub02</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sub03</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sub02 des</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sub03 des</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sub01 des</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30日間毎日もらえる!!</t>
+    <t>craftstory_subsc_980</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>craftstory_subsc_1960</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>購入時に、330ポイントとクリスタル300個がもらえます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>購入時に、500ポイントとクリスタル500個と空の設計図1個がもらえます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>購入時に、160ポイントがもらえます。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1655,7 +1648,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M13" sqref="M13"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1864,13 +1857,13 @@
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E7" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="F7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G7" t="s">
         <v>27</v>
@@ -1893,16 +1886,16 @@
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J8">
         <v>1950</v>
@@ -1922,19 +1915,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E9" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J9">
-        <v>3800</v>
+        <v>3060</v>
       </c>
       <c r="K9">
         <v>10082</v>

--- a/Config/Excel/Shop.xlsx
+++ b/Config/Excel/Shop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9BCE10-B724-47C2-BDDE-CFCF6F3473BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032DEE67-1B37-44D3-AE81-70427BBA4B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="24525" windowHeight="12975" xr2:uid="{DE9042F4-05E2-4CBA-95A7-AC962596AF59}"/>
+    <workbookView xWindow="1860" yWindow="225" windowWidth="24525" windowHeight="12975" xr2:uid="{DE9042F4-05E2-4CBA-95A7-AC962596AF59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="156">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1129,9 +1129,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Textures/shop_stone_001</t>
-  </si>
-  <si>
     <t>1950円</t>
     <rPh sb="4" eb="5">
       <t>エン</t>
@@ -1171,6 +1168,18 @@
   </si>
   <si>
     <t>購入時に、160ポイントがもらえます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/crapas_2d_001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/crapas_2d_002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/crapas_2d_003</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1648,7 +1657,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1851,19 +1860,19 @@
         <v>80</v>
       </c>
       <c r="B7" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G7" t="s">
         <v>27</v>
@@ -1880,22 +1889,22 @@
         <v>81</v>
       </c>
       <c r="B8" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="C8">
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F8" t="s">
         <v>150</v>
       </c>
-      <c r="E8" t="s">
-        <v>146</v>
-      </c>
-      <c r="F8" t="s">
-        <v>151</v>
-      </c>
       <c r="G8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J8">
         <v>1950</v>
@@ -1909,22 +1918,22 @@
         <v>82</v>
       </c>
       <c r="B9" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C9">
         <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F9" t="s">
+        <v>151</v>
+      </c>
+      <c r="G9" t="s">
         <v>147</v>
-      </c>
-      <c r="E9" t="s">
-        <v>146</v>
-      </c>
-      <c r="F9" t="s">
-        <v>152</v>
-      </c>
-      <c r="G9" t="s">
-        <v>148</v>
       </c>
       <c r="J9">
         <v>3060</v>

--- a/Config/Excel/Shop.xlsx
+++ b/Config/Excel/Shop.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032DEE67-1B37-44D3-AE81-70427BBA4B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943B89AB-1D3A-4216-8944-F9B5EF2A3CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="225" windowWidth="24525" windowHeight="12975" xr2:uid="{DE9042F4-05E2-4CBA-95A7-AC962596AF59}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DE9042F4-05E2-4CBA-95A7-AC962596AF59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="155">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1129,57 +1129,59 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1950円</t>
-    <rPh sb="4" eb="5">
+    <t>30日間毎日もらえる!!</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>craftstory_subsc_3060</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>craftstory_subsc_980</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>craftstory_subsc_1960</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/crapas_2d_001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/crapas_2d_002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/crapas_2d_003</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>購入時に、クラフトシードを65個がもらえます。</t>
+    <rPh sb="15" eb="16">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>購入時に、クラフトシード130個とクリスタル300個がもらえます。</t>
+    <rPh sb="15" eb="16">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>購入時に、クラフトシード215個とクリスタル500個と空の設計図1個がもらえます。</t>
+    <rPh sb="15" eb="16">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1,950円</t>
+    <rPh sb="5" eb="6">
       <t>エン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30日間毎日もらえる!!</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>craftstory_subsc_3060</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3060円</t>
-    <rPh sb="4" eb="5">
-      <t>エン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>craftstory_subsc_980</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>craftstory_subsc_1960</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>購入時に、330ポイントとクリスタル300個がもらえます。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>購入時に、500ポイントとクリスタル500個と空の設計図1個がもらえます。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>購入時に、160ポイントがもらえます。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Textures/crapas_2d_001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Textures/crapas_2d_002</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Textures/crapas_2d_003</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1654,25 +1656,25 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="25.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.625" customWidth="1"/>
-    <col min="4" max="4" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.875" customWidth="1"/>
-    <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.59765625" customWidth="1"/>
+    <col min="4" max="4" width="19.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.8984375" customWidth="1"/>
+    <col min="7" max="7" width="11.09765625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.5" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1710,7 +1712,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1739,7 +1741,7 @@
         <v>10001</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1768,7 +1770,7 @@
         <v>10002</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1797,7 +1799,7 @@
         <v>10003</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1826,7 +1828,7 @@
         <v>10004</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1855,24 +1857,24 @@
         <v>10005</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>80</v>
       </c>
       <c r="B7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G7" t="s">
         <v>27</v>
@@ -1884,27 +1886,27 @@
         <v>10080</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>81</v>
       </c>
       <c r="B8" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C8">
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G8" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="J8">
         <v>1950</v>
@@ -1913,27 +1915,27 @@
         <v>10081</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>82</v>
       </c>
       <c r="B9" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C9">
         <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F9" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G9" t="s">
-        <v>147</v>
+        <v>29</v>
       </c>
       <c r="J9">
         <v>3060</v>
@@ -1942,7 +1944,7 @@
         <v>10082</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>100</v>
       </c>
@@ -1974,7 +1976,7 @@
         <v>11001</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>101</v>
       </c>
@@ -2006,7 +2008,7 @@
         <v>11002</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>102</v>
       </c>
@@ -2038,7 +2040,7 @@
         <v>11003</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>103</v>
       </c>
@@ -2070,7 +2072,7 @@
         <v>11004</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>104</v>
       </c>
@@ -2102,7 +2104,7 @@
         <v>11005</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>105</v>
       </c>
@@ -2134,7 +2136,7 @@
         <v>12001</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>200</v>
       </c>
@@ -2166,7 +2168,7 @@
         <v>12002</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>201</v>
       </c>
@@ -2198,7 +2200,7 @@
         <v>12003</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>202</v>
       </c>
@@ -2230,7 +2232,7 @@
         <v>12004</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>203</v>
       </c>
@@ -2262,7 +2264,7 @@
         <v>12005</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>204</v>
       </c>
@@ -2294,7 +2296,7 @@
         <v>12006</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>205</v>
       </c>
@@ -2326,7 +2328,7 @@
         <v>12007</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>206</v>
       </c>
@@ -2358,7 +2360,7 @@
         <v>12008</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>207</v>
       </c>
@@ -2390,7 +2392,7 @@
         <v>12009</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>208</v>
       </c>
@@ -2422,7 +2424,7 @@
         <v>12010</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>209</v>
       </c>
@@ -2454,7 +2456,7 @@
         <v>12011</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>210</v>
       </c>
@@ -2486,7 +2488,7 @@
         <v>12012</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>211</v>
       </c>
@@ -2518,7 +2520,7 @@
         <v>12013</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>212</v>
       </c>
@@ -2550,7 +2552,7 @@
         <v>12014</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>1000</v>
       </c>
@@ -2582,7 +2584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>2000</v>
       </c>
@@ -2611,7 +2613,7 @@
         <v>14001</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>2001</v>
       </c>
@@ -2640,7 +2642,7 @@
         <v>14002</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>2002</v>
       </c>
@@ -2669,7 +2671,7 @@
         <v>14003</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>2003</v>
       </c>
@@ -2698,7 +2700,7 @@
         <v>14004</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>2004</v>
       </c>
@@ -2727,7 +2729,7 @@
         <v>14005</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>2005</v>
       </c>
@@ -2756,7 +2758,7 @@
         <v>14006</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>2006</v>
       </c>
@@ -2803,132 +2805,132 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.25" customWidth="1"/>
+    <col min="1" max="1" width="15.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>143</v>
       </c>
@@ -2948,14 +2950,14 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2963,7 +2965,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2971,7 +2973,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2979,7 +2981,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>

--- a/Config/Excel/Shop.xlsx
+++ b/Config/Excel/Shop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943B89AB-1D3A-4216-8944-F9B5EF2A3CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{058E97CE-3B8A-4711-9D4A-8E5B70B0D8B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DE9042F4-05E2-4CBA-95A7-AC962596AF59}"/>
   </bookViews>
@@ -1157,13 +1157,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>購入時に、クラフトシードを65個がもらえます。</t>
-    <rPh sb="15" eb="16">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>購入時に、クラフトシード130個とクリスタル300個がもらえます。</t>
     <rPh sb="15" eb="16">
       <t>コ</t>
@@ -1181,6 +1174,13 @@
     <t>1,950円</t>
     <rPh sb="5" eb="6">
       <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>購入時に、クラフトシードを65個もらえます。</t>
+    <rPh sb="15" eb="16">
+      <t>コ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1659,7 +1659,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1874,7 +1874,7 @@
         <v>144</v>
       </c>
       <c r="F7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G7" t="s">
         <v>27</v>
@@ -1903,10 +1903,10 @@
         <v>144</v>
       </c>
       <c r="F8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J8">
         <v>1950</v>
@@ -1932,7 +1932,7 @@
         <v>144</v>
       </c>
       <c r="F9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G9" t="s">
         <v>29</v>

--- a/Config/Excel/Shop.xlsx
+++ b/Config/Excel/Shop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{058E97CE-3B8A-4711-9D4A-8E5B70B0D8B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204478B1-508C-4CD5-87FD-8B6C11DA1540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DE9042F4-05E2-4CBA-95A7-AC962596AF59}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="154">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1167,13 +1167,6 @@
     <t>購入時に、クラフトシード215個とクリスタル500個と空の設計図1個がもらえます。</t>
     <rPh sb="15" eb="16">
       <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1,950円</t>
-    <rPh sb="5" eb="6">
-      <t>エン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1656,10 +1649,10 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1874,7 +1867,7 @@
         <v>144</v>
       </c>
       <c r="F7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G7" t="s">
         <v>27</v>
@@ -1906,10 +1899,10 @@
         <v>151</v>
       </c>
       <c r="G8" t="s">
-        <v>153</v>
+        <v>28</v>
       </c>
       <c r="J8">
-        <v>1950</v>
+        <v>1960</v>
       </c>
       <c r="K8">
         <v>10081</v>

--- a/Config/Excel/Shop.xlsx
+++ b/Config/Excel/Shop.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204478B1-508C-4CD5-87FD-8B6C11DA1540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF02AD83-D40D-4545-808F-7D6541B978F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DE9042F4-05E2-4CBA-95A7-AC962596AF59}"/>
+    <workbookView xWindow="0" yWindow="2625" windowWidth="24525" windowHeight="12975" xr2:uid="{DE9042F4-05E2-4CBA-95A7-AC962596AF59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="157">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1174,6 +1174,21 @@
     <t>購入時に、クラフトシードを65個もらえます。</t>
     <rPh sb="15" eb="16">
       <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サブスクリプション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガチャ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーの設計図</t>
+    <rPh sb="6" eb="9">
+      <t>セッケイズ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1652,22 +1667,22 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="25.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.59765625" customWidth="1"/>
-    <col min="4" max="4" width="19.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.8984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.8984375" customWidth="1"/>
-    <col min="7" max="7" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
+    <col min="4" max="4" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.875" customWidth="1"/>
+    <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.5" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1705,7 +1720,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1713,7 +1728,7 @@
         <v>99</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>
@@ -1734,7 +1749,7 @@
         <v>10001</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1742,7 +1757,7 @@
         <v>100</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
@@ -1763,7 +1778,7 @@
         <v>10002</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1771,7 +1786,7 @@
         <v>101</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>12</v>
@@ -1792,7 +1807,7 @@
         <v>10003</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1800,7 +1815,7 @@
         <v>102</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
@@ -1821,7 +1836,7 @@
         <v>10004</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1829,7 +1844,7 @@
         <v>103</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>14</v>
@@ -1850,7 +1865,7 @@
         <v>10005</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>80</v>
       </c>
@@ -1858,7 +1873,7 @@
         <v>148</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>146</v>
@@ -1879,7 +1894,7 @@
         <v>10080</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>81</v>
       </c>
@@ -1887,7 +1902,7 @@
         <v>149</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>147</v>
@@ -1908,7 +1923,7 @@
         <v>10081</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>82</v>
       </c>
@@ -1916,7 +1931,7 @@
         <v>150</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>145</v>
@@ -1937,7 +1952,7 @@
         <v>10082</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>100</v>
       </c>
@@ -1945,7 +1960,7 @@
         <v>104</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
         <v>31</v>
@@ -1969,7 +1984,7 @@
         <v>11001</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>101</v>
       </c>
@@ -1977,7 +1992,7 @@
         <v>48</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="s">
         <v>33</v>
@@ -2001,7 +2016,7 @@
         <v>11002</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>102</v>
       </c>
@@ -2009,7 +2024,7 @@
         <v>105</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s">
         <v>35</v>
@@ -2033,7 +2048,7 @@
         <v>11003</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>103</v>
       </c>
@@ -2041,7 +2056,7 @@
         <v>106</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="s">
         <v>38</v>
@@ -2065,7 +2080,7 @@
         <v>11004</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>104</v>
       </c>
@@ -2073,7 +2088,7 @@
         <v>107</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="s">
         <v>40</v>
@@ -2097,7 +2112,7 @@
         <v>11005</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>105</v>
       </c>
@@ -2105,7 +2120,7 @@
         <v>48</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="s">
         <v>33</v>
@@ -2129,7 +2144,7 @@
         <v>12001</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>200</v>
       </c>
@@ -2137,7 +2152,7 @@
         <v>44</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="s">
         <v>45</v>
@@ -2161,7 +2176,7 @@
         <v>12002</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>201</v>
       </c>
@@ -2169,7 +2184,7 @@
         <v>49</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="s">
         <v>50</v>
@@ -2193,7 +2208,7 @@
         <v>12003</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>202</v>
       </c>
@@ -2201,7 +2216,7 @@
         <v>52</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="s">
         <v>53</v>
@@ -2225,7 +2240,7 @@
         <v>12004</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>203</v>
       </c>
@@ -2233,7 +2248,7 @@
         <v>55</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="s">
         <v>56</v>
@@ -2257,7 +2272,7 @@
         <v>12005</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>204</v>
       </c>
@@ -2265,7 +2280,7 @@
         <v>58</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="s">
         <v>59</v>
@@ -2289,7 +2304,7 @@
         <v>12006</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>205</v>
       </c>
@@ -2297,7 +2312,7 @@
         <v>63</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="s">
         <v>64</v>
@@ -2321,7 +2336,7 @@
         <v>12007</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>206</v>
       </c>
@@ -2329,7 +2344,7 @@
         <v>67</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="s">
         <v>68</v>
@@ -2353,7 +2368,7 @@
         <v>12008</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>207</v>
       </c>
@@ -2361,7 +2376,7 @@
         <v>71</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="s">
         <v>72</v>
@@ -2385,7 +2400,7 @@
         <v>12009</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>208</v>
       </c>
@@ -2393,7 +2408,7 @@
         <v>75</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="s">
         <v>76</v>
@@ -2417,7 +2432,7 @@
         <v>12010</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>209</v>
       </c>
@@ -2425,7 +2440,7 @@
         <v>79</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="s">
         <v>80</v>
@@ -2449,7 +2464,7 @@
         <v>12011</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>210</v>
       </c>
@@ -2457,7 +2472,7 @@
         <v>83</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="s">
         <v>84</v>
@@ -2481,7 +2496,7 @@
         <v>12012</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>211</v>
       </c>
@@ -2489,7 +2504,7 @@
         <v>88</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="s">
         <v>89</v>
@@ -2513,7 +2528,7 @@
         <v>12013</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>212</v>
       </c>
@@ -2521,7 +2536,7 @@
         <v>91</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="s">
         <v>92</v>
@@ -2545,7 +2560,7 @@
         <v>12014</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>1000</v>
       </c>
@@ -2553,7 +2568,7 @@
         <v>95</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="s">
         <v>96</v>
@@ -2577,7 +2592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>2000</v>
       </c>
@@ -2585,7 +2600,7 @@
         <v>112</v>
       </c>
       <c r="C30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E30" t="s">
         <v>113</v>
@@ -2606,7 +2621,7 @@
         <v>14001</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>2001</v>
       </c>
@@ -2614,7 +2629,7 @@
         <v>112</v>
       </c>
       <c r="C31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E31" t="s">
         <v>115</v>
@@ -2635,7 +2650,7 @@
         <v>14002</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>2002</v>
       </c>
@@ -2643,7 +2658,7 @@
         <v>112</v>
       </c>
       <c r="C32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E32" t="s">
         <v>117</v>
@@ -2664,7 +2679,7 @@
         <v>14003</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>2003</v>
       </c>
@@ -2672,7 +2687,7 @@
         <v>112</v>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E33" t="s">
         <v>119</v>
@@ -2693,7 +2708,7 @@
         <v>14004</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>2004</v>
       </c>
@@ -2701,7 +2716,7 @@
         <v>112</v>
       </c>
       <c r="C34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E34" t="s">
         <v>122</v>
@@ -2722,7 +2737,7 @@
         <v>14005</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>2005</v>
       </c>
@@ -2730,7 +2745,7 @@
         <v>112</v>
       </c>
       <c r="C35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E35" t="s">
         <v>125</v>
@@ -2751,7 +2766,7 @@
         <v>14006</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>2006</v>
       </c>
@@ -2759,7 +2774,7 @@
         <v>112</v>
       </c>
       <c r="C36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E36" t="s">
         <v>128</v>
@@ -2798,132 +2813,132 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.19921875" customWidth="1"/>
+    <col min="1" max="1" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>143</v>
       </c>
@@ -2937,49 +2952,73 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC2DF1F8-1852-4E6C-BEBB-8DF7E83C72E9}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4">
+      <c r="B4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5">
         <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Shop.xlsx
+++ b/Config/Excel/Shop.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF02AD83-D40D-4545-808F-7D6541B978F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E42935-5513-4A59-9819-9A3157F86167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2625" windowWidth="24525" windowHeight="12975" xr2:uid="{DE9042F4-05E2-4CBA-95A7-AC962596AF59}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DE9042F4-05E2-4CBA-95A7-AC962596AF59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="158">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -848,16 +848,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>クラフトシードを消耗して交換</t>
-    <rPh sb="8" eb="10">
-      <t>ショウモウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>コウカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>クラフトシードを消耗して設計図商品交換</t>
     <rPh sb="12" eb="15">
       <t>セッケイズ</t>
@@ -1191,6 +1181,13 @@
       <t>セッケイズ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おすすめパック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラフト素材</t>
   </si>
 </sst>
 </file>
@@ -1664,10 +1661,10 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1870,19 +1867,19 @@
         <v>80</v>
       </c>
       <c r="B7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G7" t="s">
         <v>27</v>
@@ -1899,19 +1896,19 @@
         <v>81</v>
       </c>
       <c r="B8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G8" t="s">
         <v>28</v>
@@ -1928,19 +1925,19 @@
         <v>82</v>
       </c>
       <c r="B9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G9" t="s">
         <v>29</v>
@@ -2152,7 +2149,7 @@
         <v>44</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D16" t="s">
         <v>45</v>
@@ -2184,7 +2181,7 @@
         <v>49</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D17" t="s">
         <v>50</v>
@@ -2216,7 +2213,7 @@
         <v>52</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D18" t="s">
         <v>53</v>
@@ -2248,7 +2245,7 @@
         <v>55</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D19" t="s">
         <v>56</v>
@@ -2280,7 +2277,7 @@
         <v>58</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D20" t="s">
         <v>59</v>
@@ -2312,7 +2309,7 @@
         <v>63</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D21" t="s">
         <v>64</v>
@@ -2344,7 +2341,7 @@
         <v>67</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D22" t="s">
         <v>68</v>
@@ -2376,7 +2373,7 @@
         <v>71</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D23" t="s">
         <v>72</v>
@@ -2408,7 +2405,7 @@
         <v>75</v>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D24" t="s">
         <v>76</v>
@@ -2440,7 +2437,7 @@
         <v>79</v>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D25" t="s">
         <v>80</v>
@@ -2472,7 +2469,7 @@
         <v>83</v>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D26" t="s">
         <v>84</v>
@@ -2504,7 +2501,7 @@
         <v>88</v>
       </c>
       <c r="C27">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D27" t="s">
         <v>89</v>
@@ -2536,7 +2533,7 @@
         <v>91</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D28" t="s">
         <v>92</v>
@@ -2597,16 +2594,16 @@
         <v>2000</v>
       </c>
       <c r="B30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C30">
         <v>3</v>
       </c>
       <c r="E30" t="s">
+        <v>112</v>
+      </c>
+      <c r="F30" t="s">
         <v>113</v>
-      </c>
-      <c r="F30" t="s">
-        <v>114</v>
       </c>
       <c r="G30" t="s">
         <v>32</v>
@@ -2626,16 +2623,16 @@
         <v>2001</v>
       </c>
       <c r="B31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C31">
         <v>3</v>
       </c>
       <c r="E31" t="s">
+        <v>114</v>
+      </c>
+      <c r="F31" t="s">
         <v>115</v>
-      </c>
-      <c r="F31" t="s">
-        <v>116</v>
       </c>
       <c r="G31" t="s">
         <v>37</v>
@@ -2655,16 +2652,16 @@
         <v>2002</v>
       </c>
       <c r="B32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C32">
         <v>3</v>
       </c>
       <c r="E32" t="s">
+        <v>116</v>
+      </c>
+      <c r="F32" t="s">
         <v>117</v>
-      </c>
-      <c r="F32" t="s">
-        <v>118</v>
       </c>
       <c r="G32" t="s">
         <v>42</v>
@@ -2684,19 +2681,19 @@
         <v>2003</v>
       </c>
       <c r="B33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C33">
         <v>3</v>
       </c>
       <c r="E33" t="s">
+        <v>118</v>
+      </c>
+      <c r="F33" t="s">
         <v>119</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>120</v>
-      </c>
-      <c r="G33" t="s">
-        <v>121</v>
       </c>
       <c r="I33">
         <v>9000</v>
@@ -2713,19 +2710,19 @@
         <v>2004</v>
       </c>
       <c r="B34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C34">
         <v>3</v>
       </c>
       <c r="E34" t="s">
+        <v>121</v>
+      </c>
+      <c r="F34" t="s">
         <v>122</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>123</v>
-      </c>
-      <c r="G34" t="s">
-        <v>124</v>
       </c>
       <c r="I34">
         <v>9000</v>
@@ -2742,19 +2739,19 @@
         <v>2005</v>
       </c>
       <c r="B35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C35">
         <v>3</v>
       </c>
       <c r="E35" t="s">
+        <v>124</v>
+      </c>
+      <c r="F35" t="s">
         <v>125</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>126</v>
-      </c>
-      <c r="G35" t="s">
-        <v>127</v>
       </c>
       <c r="I35">
         <v>9000</v>
@@ -2771,19 +2768,19 @@
         <v>2006</v>
       </c>
       <c r="B36" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C36">
         <v>3</v>
       </c>
       <c r="E36" t="s">
+        <v>127</v>
+      </c>
+      <c r="F36" t="s">
         <v>128</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>129</v>
-      </c>
-      <c r="G36" t="s">
-        <v>130</v>
       </c>
       <c r="I36">
         <v>9000</v>
@@ -2820,7 +2817,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
@@ -2830,7 +2827,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
@@ -2840,7 +2837,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
@@ -2850,7 +2847,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
@@ -2860,7 +2857,7 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
@@ -2870,7 +2867,7 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.4">
@@ -2880,7 +2877,7 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
@@ -2890,7 +2887,7 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
@@ -2900,7 +2897,7 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.4">
@@ -2910,7 +2907,7 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.4">
@@ -2920,7 +2917,7 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.4">
@@ -2930,7 +2927,7 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.4">
@@ -2940,7 +2937,7 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2952,10 +2949,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC2DF1F8-1852-4E6C-BEBB-8DF7E83C72E9}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2978,7 +2975,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
@@ -2986,7 +2983,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -2994,7 +2991,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
@@ -3002,7 +2999,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>109</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
@@ -3010,7 +3007,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
@@ -3018,7 +3015,15 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>156</v>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Shop.xlsx
+++ b/Config/Excel/Shop.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E42935-5513-4A59-9819-9A3157F86167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866A2E2D-7895-469D-82D0-35972E8DF6D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DE9042F4-05E2-4CBA-95A7-AC962596AF59}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="206">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1188,6 +1188,150 @@
   </si>
   <si>
     <t>クラフト素材</t>
+  </si>
+  <si>
+    <t>Textures/matter_2d_001</t>
+  </si>
+  <si>
+    <t>木材</t>
+  </si>
+  <si>
+    <t>木材を60個獲得することができます。</t>
+  </si>
+  <si>
+    <t>180個</t>
+  </si>
+  <si>
+    <t>Textures/matter_2d_002</t>
+  </si>
+  <si>
+    <t>葉</t>
+  </si>
+  <si>
+    <t>葉を60個獲得することができます。</t>
+  </si>
+  <si>
+    <t>Textures/matter_2d_003</t>
+  </si>
+  <si>
+    <t>石材</t>
+  </si>
+  <si>
+    <t>石材を60個獲得することができます。</t>
+  </si>
+  <si>
+    <t>Textures/matter_2d_004</t>
+  </si>
+  <si>
+    <t>銅鉱石</t>
+  </si>
+  <si>
+    <t>銅鉱石を60個獲得することができます。</t>
+  </si>
+  <si>
+    <t>600個</t>
+  </si>
+  <si>
+    <t>Textures/matter_2d_005</t>
+  </si>
+  <si>
+    <t>鉄鉱石</t>
+  </si>
+  <si>
+    <t>鉄鉱石を60個獲得することができます。</t>
+  </si>
+  <si>
+    <t>900個</t>
+  </si>
+  <si>
+    <t>Textures/matter_2d_006</t>
+  </si>
+  <si>
+    <t>銀鉱石</t>
+  </si>
+  <si>
+    <t>銀鉱石を60個獲得することができます。</t>
+  </si>
+  <si>
+    <t>1200個</t>
+  </si>
+  <si>
+    <t>Textures/matter_2d_007</t>
+  </si>
+  <si>
+    <t>金鉱石</t>
+  </si>
+  <si>
+    <t>金鉱石を60個獲得することができます。</t>
+  </si>
+  <si>
+    <t>1800個</t>
+  </si>
+  <si>
+    <t>Textures/matter_2d_008</t>
+  </si>
+  <si>
+    <t>銅の延棒</t>
+  </si>
+  <si>
+    <t>銅の延棒を60個獲得することができます。</t>
+  </si>
+  <si>
+    <t>6000個</t>
+  </si>
+  <si>
+    <t>Textures/matter_2d_009</t>
+  </si>
+  <si>
+    <t>鉄の延棒</t>
+  </si>
+  <si>
+    <t>鉄の延棒を60個獲得することができます。</t>
+  </si>
+  <si>
+    <t>9000個</t>
+  </si>
+  <si>
+    <t>Textures/matter_2d_010</t>
+  </si>
+  <si>
+    <t>銀の延棒</t>
+  </si>
+  <si>
+    <t>銀の延棒を60個獲得することができます。</t>
+  </si>
+  <si>
+    <t>12000個</t>
+  </si>
+  <si>
+    <t>Textures/matter_2d_011</t>
+  </si>
+  <si>
+    <t>金の延棒</t>
+  </si>
+  <si>
+    <t>金の延棒を60個獲得することができます。</t>
+  </si>
+  <si>
+    <t>18000個</t>
+  </si>
+  <si>
+    <t>Textures/matter_2d_012</t>
+  </si>
+  <si>
+    <t>土</t>
+  </si>
+  <si>
+    <t>土を60個獲得することができます。</t>
+  </si>
+  <si>
+    <t>Textures/matter_2d_013</t>
+  </si>
+  <si>
+    <t>砂</t>
+  </si>
+  <si>
+    <t>砂を60個獲得することができます。</t>
   </si>
 </sst>
 </file>
@@ -1341,8 +1485,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{29F90596-6A52-4109-AC94-927F28D661EC}" name="テーブル1" displayName="テーブル1" ref="A1:L36" totalsRowShown="0">
-  <autoFilter ref="A1:L36" xr:uid="{29F90596-6A52-4109-AC94-927F28D661EC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{29F90596-6A52-4109-AC94-927F28D661EC}" name="テーブル1" displayName="テーブル1" ref="A1:L49" totalsRowShown="0">
+  <autoFilter ref="A1:L49" xr:uid="{29F90596-6A52-4109-AC94-927F28D661EC}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{17391177-AF30-4E29-B56C-190AC8FE0C31}" name="ID"/>
     <tableColumn id="2" xr3:uid="{52EECCBF-AA36-46A3-B886-A57E84318451}" name="IconResources"/>
@@ -1658,13 +1802,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D9729C7-5752-4B0D-AE5D-92253C36B7FD}">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomRight" activeCell="M48" sqref="M48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2790,6 +2934,431 @@
       </c>
       <c r="K36">
         <v>14007</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>3000</v>
+      </c>
+      <c r="B37" t="s">
+        <v>158</v>
+      </c>
+      <c r="C37">
+        <v>8</v>
+      </c>
+      <c r="D37" t="s">
+        <v>159</v>
+      </c>
+      <c r="E37" t="s">
+        <v>159</v>
+      </c>
+      <c r="F37" t="s">
+        <v>160</v>
+      </c>
+      <c r="G37" t="s">
+        <v>161</v>
+      </c>
+      <c r="H37">
+        <v>3</v>
+      </c>
+      <c r="I37">
+        <v>9004</v>
+      </c>
+      <c r="J37">
+        <v>180</v>
+      </c>
+      <c r="K37">
+        <v>12002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>3001</v>
+      </c>
+      <c r="B38" t="s">
+        <v>162</v>
+      </c>
+      <c r="C38">
+        <v>8</v>
+      </c>
+      <c r="D38" t="s">
+        <v>163</v>
+      </c>
+      <c r="E38" t="s">
+        <v>163</v>
+      </c>
+      <c r="F38" t="s">
+        <v>164</v>
+      </c>
+      <c r="G38" t="s">
+        <v>161</v>
+      </c>
+      <c r="H38">
+        <v>3</v>
+      </c>
+      <c r="I38">
+        <v>9004</v>
+      </c>
+      <c r="J38">
+        <v>180</v>
+      </c>
+      <c r="K38">
+        <v>12003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>3002</v>
+      </c>
+      <c r="B39" t="s">
+        <v>165</v>
+      </c>
+      <c r="C39">
+        <v>8</v>
+      </c>
+      <c r="D39" t="s">
+        <v>166</v>
+      </c>
+      <c r="E39" t="s">
+        <v>166</v>
+      </c>
+      <c r="F39" t="s">
+        <v>167</v>
+      </c>
+      <c r="G39" t="s">
+        <v>161</v>
+      </c>
+      <c r="H39">
+        <v>3</v>
+      </c>
+      <c r="I39">
+        <v>9004</v>
+      </c>
+      <c r="J39">
+        <v>180</v>
+      </c>
+      <c r="K39">
+        <v>12004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>3003</v>
+      </c>
+      <c r="B40" t="s">
+        <v>168</v>
+      </c>
+      <c r="C40">
+        <v>8</v>
+      </c>
+      <c r="D40" t="s">
+        <v>169</v>
+      </c>
+      <c r="E40" t="s">
+        <v>169</v>
+      </c>
+      <c r="F40" t="s">
+        <v>170</v>
+      </c>
+      <c r="G40" t="s">
+        <v>171</v>
+      </c>
+      <c r="I40">
+        <v>9004</v>
+      </c>
+      <c r="J40">
+        <v>600</v>
+      </c>
+      <c r="K40">
+        <v>12005</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>3004</v>
+      </c>
+      <c r="B41" t="s">
+        <v>172</v>
+      </c>
+      <c r="C41">
+        <v>8</v>
+      </c>
+      <c r="D41" t="s">
+        <v>173</v>
+      </c>
+      <c r="E41" t="s">
+        <v>173</v>
+      </c>
+      <c r="F41" t="s">
+        <v>174</v>
+      </c>
+      <c r="G41" t="s">
+        <v>175</v>
+      </c>
+      <c r="I41">
+        <v>9004</v>
+      </c>
+      <c r="J41">
+        <v>900</v>
+      </c>
+      <c r="K41">
+        <v>12006</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>3005</v>
+      </c>
+      <c r="B42" t="s">
+        <v>176</v>
+      </c>
+      <c r="C42">
+        <v>8</v>
+      </c>
+      <c r="D42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E42" t="s">
+        <v>177</v>
+      </c>
+      <c r="F42" t="s">
+        <v>178</v>
+      </c>
+      <c r="G42" t="s">
+        <v>179</v>
+      </c>
+      <c r="I42">
+        <v>9004</v>
+      </c>
+      <c r="J42">
+        <v>1200</v>
+      </c>
+      <c r="K42">
+        <v>12007</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>3006</v>
+      </c>
+      <c r="B43" t="s">
+        <v>180</v>
+      </c>
+      <c r="C43">
+        <v>8</v>
+      </c>
+      <c r="D43" t="s">
+        <v>181</v>
+      </c>
+      <c r="E43" t="s">
+        <v>181</v>
+      </c>
+      <c r="F43" t="s">
+        <v>182</v>
+      </c>
+      <c r="G43" t="s">
+        <v>183</v>
+      </c>
+      <c r="I43">
+        <v>9004</v>
+      </c>
+      <c r="J43">
+        <v>1800</v>
+      </c>
+      <c r="K43">
+        <v>12008</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>3007</v>
+      </c>
+      <c r="B44" t="s">
+        <v>184</v>
+      </c>
+      <c r="C44">
+        <v>8</v>
+      </c>
+      <c r="D44" t="s">
+        <v>185</v>
+      </c>
+      <c r="E44" t="s">
+        <v>185</v>
+      </c>
+      <c r="F44" t="s">
+        <v>186</v>
+      </c>
+      <c r="G44" t="s">
+        <v>187</v>
+      </c>
+      <c r="I44">
+        <v>9004</v>
+      </c>
+      <c r="J44">
+        <v>6000</v>
+      </c>
+      <c r="K44">
+        <v>12009</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>3008</v>
+      </c>
+      <c r="B45" t="s">
+        <v>188</v>
+      </c>
+      <c r="C45">
+        <v>8</v>
+      </c>
+      <c r="D45" t="s">
+        <v>189</v>
+      </c>
+      <c r="E45" t="s">
+        <v>189</v>
+      </c>
+      <c r="F45" t="s">
+        <v>190</v>
+      </c>
+      <c r="G45" t="s">
+        <v>191</v>
+      </c>
+      <c r="I45">
+        <v>9004</v>
+      </c>
+      <c r="J45">
+        <v>9000</v>
+      </c>
+      <c r="K45">
+        <v>12010</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>3009</v>
+      </c>
+      <c r="B46" t="s">
+        <v>192</v>
+      </c>
+      <c r="C46">
+        <v>8</v>
+      </c>
+      <c r="D46" t="s">
+        <v>193</v>
+      </c>
+      <c r="E46" t="s">
+        <v>193</v>
+      </c>
+      <c r="F46" t="s">
+        <v>194</v>
+      </c>
+      <c r="G46" t="s">
+        <v>195</v>
+      </c>
+      <c r="I46">
+        <v>9004</v>
+      </c>
+      <c r="J46">
+        <v>12000</v>
+      </c>
+      <c r="K46">
+        <v>12011</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>3010</v>
+      </c>
+      <c r="B47" t="s">
+        <v>196</v>
+      </c>
+      <c r="C47">
+        <v>8</v>
+      </c>
+      <c r="D47" t="s">
+        <v>197</v>
+      </c>
+      <c r="E47" t="s">
+        <v>197</v>
+      </c>
+      <c r="F47" t="s">
+        <v>198</v>
+      </c>
+      <c r="G47" t="s">
+        <v>199</v>
+      </c>
+      <c r="I47">
+        <v>9004</v>
+      </c>
+      <c r="J47">
+        <v>18000</v>
+      </c>
+      <c r="K47">
+        <v>12012</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>3011</v>
+      </c>
+      <c r="B48" t="s">
+        <v>200</v>
+      </c>
+      <c r="C48">
+        <v>8</v>
+      </c>
+      <c r="D48" t="s">
+        <v>201</v>
+      </c>
+      <c r="E48" t="s">
+        <v>201</v>
+      </c>
+      <c r="F48" t="s">
+        <v>202</v>
+      </c>
+      <c r="G48" t="s">
+        <v>161</v>
+      </c>
+      <c r="I48">
+        <v>9004</v>
+      </c>
+      <c r="J48">
+        <v>180</v>
+      </c>
+      <c r="K48">
+        <v>12013</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>3012</v>
+      </c>
+      <c r="B49" t="s">
+        <v>203</v>
+      </c>
+      <c r="C49">
+        <v>8</v>
+      </c>
+      <c r="D49" t="s">
+        <v>204</v>
+      </c>
+      <c r="E49" t="s">
+        <v>204</v>
+      </c>
+      <c r="F49" t="s">
+        <v>205</v>
+      </c>
+      <c r="G49" t="s">
+        <v>161</v>
+      </c>
+      <c r="I49">
+        <v>9004</v>
+      </c>
+      <c r="J49">
+        <v>180</v>
+      </c>
+      <c r="K49">
+        <v>12014</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Shop.xlsx
+++ b/Config/Excel/Shop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866A2E2D-7895-469D-82D0-35972E8DF6D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2B070C-BFA2-47CE-80D4-89E6FB149DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DE9042F4-05E2-4CBA-95A7-AC962596AF59}"/>
   </bookViews>
@@ -22,12 +22,19 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="341">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1190,148 +1197,574 @@
     <t>クラフト素材</t>
   </si>
   <si>
-    <t>Textures/matter_2d_001</t>
-  </si>
-  <si>
-    <t>木材</t>
-  </si>
-  <si>
-    <t>木材を60個獲得することができます。</t>
-  </si>
-  <si>
-    <t>180個</t>
-  </si>
-  <si>
-    <t>Textures/matter_2d_002</t>
-  </si>
-  <si>
-    <t>葉</t>
-  </si>
-  <si>
-    <t>葉を60個獲得することができます。</t>
-  </si>
-  <si>
-    <t>Textures/matter_2d_003</t>
-  </si>
-  <si>
-    <t>石材</t>
-  </si>
-  <si>
-    <t>石材を60個獲得することができます。</t>
-  </si>
-  <si>
-    <t>Textures/matter_2d_004</t>
-  </si>
-  <si>
-    <t>銅鉱石</t>
-  </si>
-  <si>
-    <t>銅鉱石を60個獲得することができます。</t>
-  </si>
-  <si>
-    <t>600個</t>
-  </si>
-  <si>
-    <t>Textures/matter_2d_005</t>
-  </si>
-  <si>
-    <t>鉄鉱石</t>
-  </si>
-  <si>
-    <t>鉄鉱石を60個獲得することができます。</t>
-  </si>
-  <si>
-    <t>900個</t>
-  </si>
-  <si>
-    <t>Textures/matter_2d_006</t>
-  </si>
-  <si>
-    <t>銀鉱石</t>
-  </si>
-  <si>
-    <t>銀鉱石を60個獲得することができます。</t>
-  </si>
-  <si>
-    <t>1200個</t>
-  </si>
-  <si>
-    <t>Textures/matter_2d_007</t>
-  </si>
-  <si>
-    <t>金鉱石</t>
-  </si>
-  <si>
-    <t>金鉱石を60個獲得することができます。</t>
-  </si>
-  <si>
-    <t>1800個</t>
-  </si>
-  <si>
-    <t>Textures/matter_2d_008</t>
-  </si>
-  <si>
-    <t>銅の延棒</t>
-  </si>
-  <si>
-    <t>銅の延棒を60個獲得することができます。</t>
-  </si>
-  <si>
-    <t>6000個</t>
-  </si>
-  <si>
-    <t>Textures/matter_2d_009</t>
-  </si>
-  <si>
-    <t>鉄の延棒</t>
-  </si>
-  <si>
-    <t>鉄の延棒を60個獲得することができます。</t>
-  </si>
-  <si>
-    <t>9000個</t>
-  </si>
-  <si>
-    <t>Textures/matter_2d_010</t>
-  </si>
-  <si>
-    <t>銀の延棒</t>
-  </si>
-  <si>
-    <t>銀の延棒を60個獲得することができます。</t>
-  </si>
-  <si>
-    <t>12000個</t>
-  </si>
-  <si>
-    <t>Textures/matter_2d_011</t>
-  </si>
-  <si>
-    <t>金の延棒</t>
-  </si>
-  <si>
-    <t>金の延棒を60個獲得することができます。</t>
-  </si>
-  <si>
-    <t>18000個</t>
-  </si>
-  <si>
-    <t>Textures/matter_2d_012</t>
-  </si>
-  <si>
-    <t>土</t>
-  </si>
-  <si>
-    <t>土を60個獲得することができます。</t>
-  </si>
-  <si>
-    <t>Textures/matter_2d_013</t>
-  </si>
-  <si>
-    <t>砂</t>
-  </si>
-  <si>
-    <t>砂を60個獲得することができます。</t>
+    <t>500000個</t>
+  </si>
+  <si>
+    <t>20000個</t>
+  </si>
+  <si>
+    <t>50000個</t>
+  </si>
+  <si>
+    <t>8000個</t>
+  </si>
+  <si>
+    <t>10000個</t>
+  </si>
+  <si>
+    <t>300個</t>
+  </si>
+  <si>
+    <t>150個</t>
+  </si>
+  <si>
+    <t>剣1</t>
+  </si>
+  <si>
+    <t>剣2</t>
+  </si>
+  <si>
+    <t>杖3</t>
+  </si>
+  <si>
+    <t>弓3</t>
+  </si>
+  <si>
+    <t>ガチャチケット</t>
+  </si>
+  <si>
+    <t>3倍チケット</t>
+  </si>
+  <si>
+    <t>ポイント</t>
+  </si>
+  <si>
+    <t>月の灯り</t>
+  </si>
+  <si>
+    <t>あみあみライト</t>
+  </si>
+  <si>
+    <t>和紙ライト</t>
+  </si>
+  <si>
+    <t>赤の葉ブロック</t>
+  </si>
+  <si>
+    <t>オレンジの葉ブロック</t>
+  </si>
+  <si>
+    <t>黄色の葉ブロック</t>
+  </si>
+  <si>
+    <t>水色の葉ブロック</t>
+  </si>
+  <si>
+    <t>ピンク色の葉ブロック</t>
+  </si>
+  <si>
+    <t>黄緑の葉ブロック</t>
+  </si>
+  <si>
+    <t>エメグリの葉ブロック</t>
+  </si>
+  <si>
+    <t>ぴーちゃんぬいぐるみ</t>
+  </si>
+  <si>
+    <t>ひよこっずぬいぐるみ</t>
+  </si>
+  <si>
+    <t>おしゃれな本棚</t>
+  </si>
+  <si>
+    <t>ローテーブル</t>
+  </si>
+  <si>
+    <t>回転ソファチェア</t>
+  </si>
+  <si>
+    <t>黄色のコスモス中</t>
+  </si>
+  <si>
+    <t>ピンクのコスモス中</t>
+  </si>
+  <si>
+    <t>白のコスモス中</t>
+  </si>
+  <si>
+    <t>オレンジのコスモス中</t>
+  </si>
+  <si>
+    <t>赤のコスモス中</t>
+  </si>
+  <si>
+    <t>紫のコスモス中</t>
+  </si>
+  <si>
+    <t>青のコスモス中</t>
+  </si>
+  <si>
+    <t>水色のコスモス中</t>
+  </si>
+  <si>
+    <t>黄緑のコスモス中</t>
+  </si>
+  <si>
+    <t>黒のコスモス中</t>
+  </si>
+  <si>
+    <t>黄色の灯ブロック</t>
+  </si>
+  <si>
+    <t>赤の灯ブロック</t>
+  </si>
+  <si>
+    <t>青の灯ブロック</t>
+  </si>
+  <si>
+    <t>橙の灯ブロック</t>
+  </si>
+  <si>
+    <t>紫の灯ブロック</t>
+  </si>
+  <si>
+    <t>白の灯ブロック</t>
+  </si>
+  <si>
+    <t>黄色のコスモス</t>
+  </si>
+  <si>
+    <t>ピンクのコスモス</t>
+  </si>
+  <si>
+    <t>白のコスモス</t>
+  </si>
+  <si>
+    <t>オレンジのコスモス</t>
+  </si>
+  <si>
+    <t>赤のコスモス</t>
+  </si>
+  <si>
+    <t>紫のコスモス</t>
+  </si>
+  <si>
+    <t>青のコスモス</t>
+  </si>
+  <si>
+    <t>水色のコスモス</t>
+  </si>
+  <si>
+    <t>黄緑のコスモス</t>
+  </si>
+  <si>
+    <t>黒のコスモス</t>
+  </si>
+  <si>
+    <t>草</t>
+  </si>
+  <si>
+    <t>茶のデスク</t>
+  </si>
+  <si>
+    <t>白のデスク</t>
+  </si>
+  <si>
+    <t>黒のデスク</t>
+  </si>
+  <si>
+    <t>緑のデスク</t>
+  </si>
+  <si>
+    <t>黄色のデスク</t>
+  </si>
+  <si>
+    <t>茶のソファ</t>
+  </si>
+  <si>
+    <t>白のソファ</t>
+  </si>
+  <si>
+    <t>黒のソファ</t>
+  </si>
+  <si>
+    <t>緑のソファ</t>
+  </si>
+  <si>
+    <t>黄色のソファ</t>
+  </si>
+  <si>
+    <t>剣1を1個獲得することができます。</t>
+  </si>
+  <si>
+    <t>剣2を1個獲得することができます。</t>
+  </si>
+  <si>
+    <t>杖3を1個獲得することができます。</t>
+  </si>
+  <si>
+    <t>弓3を1個獲得することができます。</t>
+  </si>
+  <si>
+    <t>ガチャチケットを1個獲得することができます。</t>
+  </si>
+  <si>
+    <t>3倍チケットを1個獲得することができます。</t>
+  </si>
+  <si>
+    <t>月の灯りを1個獲得することができます。</t>
+  </si>
+  <si>
+    <t>あみあみライトを1個獲得することができます。</t>
+  </si>
+  <si>
+    <t>和紙ライトを1個獲得することができます。</t>
+  </si>
+  <si>
+    <t>赤の葉ブロックを1個獲得することができます。</t>
+  </si>
+  <si>
+    <t>オレンジの葉ブロックを1個獲得することができます。</t>
+  </si>
+  <si>
+    <t>黄色の葉ブロックを1個獲得することができます。</t>
+  </si>
+  <si>
+    <t>水色の葉ブロックを1個獲得することができます。</t>
+  </si>
+  <si>
+    <t>ピンク色の葉ブロックを1個獲得することができます。</t>
+  </si>
+  <si>
+    <t>黄緑の葉ブロックを1個獲得することができます。</t>
+  </si>
+  <si>
+    <t>エメグリの葉ブロックを1個獲得することができます。</t>
+  </si>
+  <si>
+    <t>ぴーちゃんぬいぐるみを1個獲得することができます。</t>
+  </si>
+  <si>
+    <t>ひよこっずぬいぐるみを1個獲得することができます。</t>
+  </si>
+  <si>
+    <t>おしゃれな本棚を1個獲得することができます。</t>
+  </si>
+  <si>
+    <t>ローテーブルを1個獲得することができます。</t>
+  </si>
+  <si>
+    <t>回転ソファチェアを1個獲得することができます。</t>
+  </si>
+  <si>
+    <t>黄色のコスモス中を1個獲得することができます。</t>
+  </si>
+  <si>
+    <t>ピンクのコスモス中を1個獲得することができます。</t>
+  </si>
+  <si>
+    <t>白のコスモス中を1個獲得することができます。</t>
+  </si>
+  <si>
+    <t>オレンジのコスモス中を1個獲得することができます。</t>
+  </si>
+  <si>
+    <t>赤のコスモス中を1個獲得することができます。</t>
+  </si>
+  <si>
+    <t>紫のコスモス中を1個獲得することができます。</t>
+  </si>
+  <si>
+    <t>青のコスモス中を1個獲得することができます。</t>
+  </si>
+  <si>
+    <t>水色のコスモス中を1個獲得することができます。</t>
+  </si>
+  <si>
+    <t>黄緑のコスモス中を1個獲得することができます。</t>
+  </si>
+  <si>
+    <t>黒のコスモス中を1個獲得することができます。</t>
+  </si>
+  <si>
+    <t>黄色の灯ブロックを1個獲得することができます。</t>
+  </si>
+  <si>
+    <t>赤の灯ブロックを1個獲得することができます。</t>
+  </si>
+  <si>
+    <t>青の灯ブロックを1個獲得することができます。</t>
+  </si>
+  <si>
+    <t>橙の灯ブロックを1個獲得することができます。</t>
+  </si>
+  <si>
+    <t>紫の灯ブロックを1個獲得することができます。</t>
+  </si>
+  <si>
+    <t>白の灯ブロックを1個獲得することができます。</t>
+  </si>
+  <si>
+    <t>黄色のコスモスを1個獲得することができます。</t>
+  </si>
+  <si>
+    <t>ピンクのコスモスを1個獲得することができます。</t>
+  </si>
+  <si>
+    <t>白のコスモスを1個獲得することができます。</t>
+  </si>
+  <si>
+    <t>オレンジのコスモスを1個獲得することができます。</t>
+  </si>
+  <si>
+    <t>赤のコスモスを1個獲得することができます。</t>
+  </si>
+  <si>
+    <t>紫のコスモスを1個獲得することができます。</t>
+  </si>
+  <si>
+    <t>青のコスモスを1個獲得することができます。</t>
+  </si>
+  <si>
+    <t>水色のコスモスを1個獲得することができます。</t>
+  </si>
+  <si>
+    <t>黄緑のコスモスを1個獲得することができます。</t>
+  </si>
+  <si>
+    <t>黒のコスモスを1個獲得することができます。</t>
+  </si>
+  <si>
+    <t>草を1個獲得することができます。</t>
+  </si>
+  <si>
+    <t>茶のデスクを1個獲得することができます。</t>
+  </si>
+  <si>
+    <t>白のデスクを1個獲得することができます。</t>
+  </si>
+  <si>
+    <t>黒のデスクを1個獲得することができます。</t>
+  </si>
+  <si>
+    <t>緑のデスクを1個獲得することができます。</t>
+  </si>
+  <si>
+    <t>黄色のデスクを1個獲得することができます。</t>
+  </si>
+  <si>
+    <t>茶のソファを1個獲得することができます。</t>
+  </si>
+  <si>
+    <t>白のソファを1個獲得することができます。</t>
+  </si>
+  <si>
+    <t>黒のソファを1個獲得することができます。</t>
+  </si>
+  <si>
+    <t>緑のソファを1個獲得することができます。</t>
+  </si>
+  <si>
+    <t>黄色のソファを1個獲得することができます。</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_021</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/object_2d_022</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/object_2d_023</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_024</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_025</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_026</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/object_2d_027</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_028</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_029</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_030</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_13_5_small</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_13_6_small</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_13_7_small</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_13_8_small</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_13_9_small</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_13_10_small</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/object_2d_034</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_035</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_036</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_037</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_038</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_039</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_13_1_small</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/object_2d_13_2_small</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_13_3_small</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_13_4_small</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_13_1_medium</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/object_2d_13_2_medium</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_13_3_medium</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_13_4_medium</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_13_5_medium</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_13_6_medium</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_13_7_medium</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_13_8_medium</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_13_9_medium</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_13_10_medium</t>
+  </si>
+  <si>
+    <t>Textures/block_2d_023</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/block_2d_024</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/block_2d_025</t>
+  </si>
+  <si>
+    <t>Textures/block_2d_026</t>
+  </si>
+  <si>
+    <t>Textures/block_2d_027</t>
+  </si>
+  <si>
+    <t>Textures/block_2d_028</t>
+  </si>
+  <si>
+    <t>Textures/block_2d_029</t>
+  </si>
+  <si>
+    <t>Textures/object_3d_016</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/object_3d_017</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/object_3d_018</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/object_2d_019</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/object_3d_020</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/itemcoin_2d_001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/itemcoin_2d_003</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/object_2d_031</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/object_2d_032</t>
+  </si>
+  <si>
+    <t>Textures/object_2d_033</t>
+  </si>
+  <si>
+    <t>Textures/SwordObject_2d_004</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/SwordObject_2d_003</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/WandObject_2d_002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/BowObject_2d_002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポイントを300個獲得することができます。</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1383,7 +1816,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1394,6 +1827,18 @@
       <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1448,7 +1893,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1465,6 +1910,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1485,8 +1936,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{29F90596-6A52-4109-AC94-927F28D661EC}" name="テーブル1" displayName="テーブル1" ref="A1:L49" totalsRowShown="0">
-  <autoFilter ref="A1:L49" xr:uid="{29F90596-6A52-4109-AC94-927F28D661EC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{29F90596-6A52-4109-AC94-927F28D661EC}" name="テーブル1" displayName="テーブル1" ref="A1:L95" totalsRowShown="0">
+  <autoFilter ref="A1:L95" xr:uid="{29F90596-6A52-4109-AC94-927F28D661EC}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{17391177-AF30-4E29-B56C-190AC8FE0C31}" name="ID"/>
     <tableColumn id="2" xr3:uid="{52EECCBF-AA36-46A3-B886-A57E84318451}" name="IconResources"/>
@@ -1802,13 +2253,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D9729C7-5752-4B0D-AE5D-92253C36B7FD}">
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:L95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M48" sqref="M48"/>
+      <selection pane="bottomRight" activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2941,34 +3392,34 @@
         <v>3000</v>
       </c>
       <c r="B37" t="s">
+        <v>336</v>
+      </c>
+      <c r="C37">
+        <v>8</v>
+      </c>
+      <c r="D37" t="s">
+        <v>165</v>
+      </c>
+      <c r="E37" t="s">
+        <v>165</v>
+      </c>
+      <c r="F37" t="s">
+        <v>224</v>
+      </c>
+      <c r="G37" t="s">
         <v>158</v>
       </c>
-      <c r="C37">
-        <v>8</v>
-      </c>
-      <c r="D37" t="s">
-        <v>159</v>
-      </c>
-      <c r="E37" t="s">
-        <v>159</v>
-      </c>
-      <c r="F37" t="s">
-        <v>160</v>
-      </c>
-      <c r="G37" t="s">
-        <v>161</v>
-      </c>
       <c r="H37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I37">
         <v>9004</v>
       </c>
       <c r="J37">
-        <v>180</v>
-      </c>
-      <c r="K37">
-        <v>12002</v>
+        <v>500000</v>
+      </c>
+      <c r="K37" s="6">
+        <v>83001</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.4">
@@ -2976,34 +3427,34 @@
         <v>3001</v>
       </c>
       <c r="B38" t="s">
-        <v>162</v>
+        <v>337</v>
       </c>
       <c r="C38">
         <v>8</v>
       </c>
       <c r="D38" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E38" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F38" t="s">
-        <v>164</v>
+        <v>225</v>
       </c>
       <c r="G38" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I38">
         <v>9004</v>
       </c>
       <c r="J38">
-        <v>180</v>
-      </c>
-      <c r="K38">
-        <v>12003</v>
+        <v>20000</v>
+      </c>
+      <c r="K38" s="6">
+        <v>83007</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.4">
@@ -3011,34 +3462,34 @@
         <v>3002</v>
       </c>
       <c r="B39" t="s">
-        <v>165</v>
+        <v>338</v>
       </c>
       <c r="C39">
         <v>8</v>
       </c>
       <c r="D39" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E39" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F39" t="s">
-        <v>167</v>
+        <v>226</v>
       </c>
       <c r="G39" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I39">
         <v>9004</v>
       </c>
       <c r="J39">
-        <v>180</v>
-      </c>
-      <c r="K39">
-        <v>12004</v>
+        <v>20000</v>
+      </c>
+      <c r="K39" s="6">
+        <v>83005</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.4">
@@ -3046,31 +3497,34 @@
         <v>3003</v>
       </c>
       <c r="B40" t="s">
+        <v>339</v>
+      </c>
+      <c r="C40">
+        <v>8</v>
+      </c>
+      <c r="D40" t="s">
         <v>168</v>
       </c>
-      <c r="C40">
-        <v>8</v>
-      </c>
-      <c r="D40" t="s">
-        <v>169</v>
-      </c>
       <c r="E40" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F40" t="s">
-        <v>170</v>
+        <v>227</v>
       </c>
       <c r="G40" t="s">
-        <v>171</v>
+        <v>159</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
       </c>
       <c r="I40">
         <v>9004</v>
       </c>
       <c r="J40">
-        <v>600</v>
-      </c>
-      <c r="K40">
-        <v>12005</v>
+        <v>20000</v>
+      </c>
+      <c r="K40" s="6">
+        <v>83006</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.4">
@@ -3078,31 +3532,34 @@
         <v>3004</v>
       </c>
       <c r="B41" t="s">
-        <v>172</v>
+        <v>331</v>
       </c>
       <c r="C41">
         <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E41" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F41" t="s">
-        <v>174</v>
+        <v>228</v>
       </c>
       <c r="G41" t="s">
-        <v>175</v>
+        <v>160</v>
+      </c>
+      <c r="H41">
+        <v>5</v>
       </c>
       <c r="I41">
         <v>9004</v>
       </c>
       <c r="J41">
-        <v>900</v>
-      </c>
-      <c r="K41">
-        <v>12006</v>
+        <v>50000</v>
+      </c>
+      <c r="K41" s="7">
+        <v>84001</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.4">
@@ -3110,31 +3567,34 @@
         <v>3005</v>
       </c>
       <c r="B42" t="s">
-        <v>176</v>
+        <v>332</v>
       </c>
       <c r="C42">
         <v>8</v>
       </c>
       <c r="D42" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="E42" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F42" t="s">
-        <v>178</v>
+        <v>229</v>
       </c>
       <c r="G42" t="s">
-        <v>179</v>
+        <v>161</v>
+      </c>
+      <c r="H42">
+        <v>10</v>
       </c>
       <c r="I42">
         <v>9004</v>
       </c>
       <c r="J42">
-        <v>1200</v>
-      </c>
-      <c r="K42">
-        <v>12007</v>
+        <v>8000</v>
+      </c>
+      <c r="K42" s="7">
+        <v>84002</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.4">
@@ -3142,31 +3602,34 @@
         <v>3006</v>
       </c>
       <c r="B43" t="s">
-        <v>180</v>
+        <v>111</v>
       </c>
       <c r="C43">
         <v>8</v>
       </c>
       <c r="D43" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="E43" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="F43" t="s">
-        <v>182</v>
+        <v>340</v>
       </c>
       <c r="G43" t="s">
-        <v>183</v>
+        <v>162</v>
+      </c>
+      <c r="H43">
+        <v>3</v>
       </c>
       <c r="I43">
         <v>9004</v>
       </c>
       <c r="J43">
-        <v>1800</v>
-      </c>
-      <c r="K43">
-        <v>12008</v>
+        <v>10000</v>
+      </c>
+      <c r="K43" s="7">
+        <v>84003</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.4">
@@ -3174,31 +3637,31 @@
         <v>3007</v>
       </c>
       <c r="B44" t="s">
-        <v>184</v>
+        <v>333</v>
       </c>
       <c r="C44">
         <v>8</v>
       </c>
       <c r="D44" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="E44" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="F44" t="s">
-        <v>186</v>
+        <v>230</v>
       </c>
       <c r="G44" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="I44">
         <v>9004</v>
       </c>
       <c r="J44">
-        <v>6000</v>
+        <v>300</v>
       </c>
       <c r="K44">
-        <v>12009</v>
+        <v>81003</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.4">
@@ -3206,31 +3669,31 @@
         <v>3008</v>
       </c>
       <c r="B45" t="s">
-        <v>188</v>
+        <v>334</v>
       </c>
       <c r="C45">
         <v>8</v>
       </c>
       <c r="D45" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="E45" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="F45" t="s">
-        <v>190</v>
+        <v>231</v>
       </c>
       <c r="G45" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="I45">
         <v>9004</v>
       </c>
       <c r="J45">
-        <v>9000</v>
+        <v>300</v>
       </c>
       <c r="K45">
-        <v>12010</v>
+        <v>81006</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.4">
@@ -3238,31 +3701,31 @@
         <v>3009</v>
       </c>
       <c r="B46" t="s">
-        <v>192</v>
+        <v>335</v>
       </c>
       <c r="C46">
         <v>8</v>
       </c>
       <c r="D46" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="E46" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="F46" t="s">
-        <v>194</v>
+        <v>232</v>
       </c>
       <c r="G46" t="s">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="I46">
         <v>9004</v>
       </c>
       <c r="J46">
-        <v>12000</v>
+        <v>300</v>
       </c>
       <c r="K46">
-        <v>12011</v>
+        <v>81009</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.4">
@@ -3270,31 +3733,31 @@
         <v>3010</v>
       </c>
       <c r="B47" t="s">
-        <v>196</v>
+        <v>319</v>
       </c>
       <c r="C47">
         <v>8</v>
       </c>
       <c r="D47" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="E47" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="F47" t="s">
-        <v>198</v>
+        <v>233</v>
       </c>
       <c r="G47" t="s">
-        <v>199</v>
+        <v>163</v>
       </c>
       <c r="I47">
         <v>9004</v>
       </c>
       <c r="J47">
-        <v>18000</v>
-      </c>
-      <c r="K47">
-        <v>12012</v>
+        <v>300</v>
+      </c>
+      <c r="K47" s="7">
+        <v>84004</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.4">
@@ -3302,31 +3765,31 @@
         <v>3011</v>
       </c>
       <c r="B48" t="s">
-        <v>200</v>
+        <v>320</v>
       </c>
       <c r="C48">
         <v>8</v>
       </c>
       <c r="D48" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="E48" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="F48" t="s">
-        <v>202</v>
+        <v>234</v>
       </c>
       <c r="G48" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I48">
         <v>9004</v>
       </c>
       <c r="J48">
-        <v>180</v>
-      </c>
-      <c r="K48">
-        <v>12013</v>
+        <v>300</v>
+      </c>
+      <c r="K48" s="7">
+        <v>84005</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.4">
@@ -3334,31 +3797,1503 @@
         <v>3012</v>
       </c>
       <c r="B49" t="s">
+        <v>321</v>
+      </c>
+      <c r="C49">
+        <v>8</v>
+      </c>
+      <c r="D49" t="s">
+        <v>177</v>
+      </c>
+      <c r="E49" t="s">
+        <v>177</v>
+      </c>
+      <c r="F49" t="s">
+        <v>235</v>
+      </c>
+      <c r="G49" t="s">
+        <v>163</v>
+      </c>
+      <c r="I49">
+        <v>9004</v>
+      </c>
+      <c r="J49">
+        <v>300</v>
+      </c>
+      <c r="K49" s="7">
+        <v>84006</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A50">
+        <v>3013</v>
+      </c>
+      <c r="B50" t="s">
+        <v>322</v>
+      </c>
+      <c r="C50">
+        <v>8</v>
+      </c>
+      <c r="D50" t="s">
+        <v>178</v>
+      </c>
+      <c r="E50" t="s">
+        <v>178</v>
+      </c>
+      <c r="F50" t="s">
+        <v>236</v>
+      </c>
+      <c r="G50" t="s">
+        <v>163</v>
+      </c>
+      <c r="I50">
+        <v>9004</v>
+      </c>
+      <c r="J50">
+        <v>300</v>
+      </c>
+      <c r="K50" s="7">
+        <v>84007</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A51">
+        <v>3014</v>
+      </c>
+      <c r="B51" t="s">
+        <v>323</v>
+      </c>
+      <c r="C51">
+        <v>8</v>
+      </c>
+      <c r="D51" t="s">
+        <v>179</v>
+      </c>
+      <c r="E51" t="s">
+        <v>179</v>
+      </c>
+      <c r="F51" t="s">
+        <v>237</v>
+      </c>
+      <c r="G51" t="s">
+        <v>163</v>
+      </c>
+      <c r="I51">
+        <v>9004</v>
+      </c>
+      <c r="J51">
+        <v>300</v>
+      </c>
+      <c r="K51" s="7">
+        <v>84008</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A52">
+        <v>3015</v>
+      </c>
+      <c r="B52" t="s">
+        <v>324</v>
+      </c>
+      <c r="C52">
+        <v>8</v>
+      </c>
+      <c r="D52" t="s">
+        <v>180</v>
+      </c>
+      <c r="E52" t="s">
+        <v>180</v>
+      </c>
+      <c r="F52" t="s">
+        <v>238</v>
+      </c>
+      <c r="G52" t="s">
+        <v>163</v>
+      </c>
+      <c r="I52">
+        <v>9004</v>
+      </c>
+      <c r="J52">
+        <v>300</v>
+      </c>
+      <c r="K52" s="7">
+        <v>84009</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A53">
+        <v>3016</v>
+      </c>
+      <c r="B53" t="s">
+        <v>325</v>
+      </c>
+      <c r="C53">
+        <v>8</v>
+      </c>
+      <c r="D53" t="s">
+        <v>181</v>
+      </c>
+      <c r="E53" t="s">
+        <v>181</v>
+      </c>
+      <c r="F53" t="s">
+        <v>239</v>
+      </c>
+      <c r="G53" t="s">
+        <v>163</v>
+      </c>
+      <c r="I53">
+        <v>9004</v>
+      </c>
+      <c r="J53">
+        <v>300</v>
+      </c>
+      <c r="K53" s="7">
+        <v>84010</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A54">
+        <v>3017</v>
+      </c>
+      <c r="B54" t="s">
+        <v>326</v>
+      </c>
+      <c r="C54">
+        <v>8</v>
+      </c>
+      <c r="D54" t="s">
+        <v>182</v>
+      </c>
+      <c r="E54" t="s">
+        <v>182</v>
+      </c>
+      <c r="F54" t="s">
+        <v>240</v>
+      </c>
+      <c r="G54" t="s">
+        <v>163</v>
+      </c>
+      <c r="I54">
+        <v>9004</v>
+      </c>
+      <c r="J54">
+        <v>300</v>
+      </c>
+      <c r="K54">
+        <v>80003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A55">
+        <v>3018</v>
+      </c>
+      <c r="B55" t="s">
+        <v>327</v>
+      </c>
+      <c r="C55">
+        <v>8</v>
+      </c>
+      <c r="D55" t="s">
+        <v>183</v>
+      </c>
+      <c r="E55" t="s">
+        <v>183</v>
+      </c>
+      <c r="F55" t="s">
+        <v>241</v>
+      </c>
+      <c r="G55" t="s">
+        <v>163</v>
+      </c>
+      <c r="I55">
+        <v>9004</v>
+      </c>
+      <c r="J55">
+        <v>300</v>
+      </c>
+      <c r="K55">
+        <v>80006</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A56">
+        <v>3019</v>
+      </c>
+      <c r="B56" t="s">
+        <v>328</v>
+      </c>
+      <c r="C56">
+        <v>8</v>
+      </c>
+      <c r="D56" t="s">
+        <v>184</v>
+      </c>
+      <c r="E56" t="s">
+        <v>184</v>
+      </c>
+      <c r="F56" t="s">
+        <v>242</v>
+      </c>
+      <c r="G56" t="s">
+        <v>163</v>
+      </c>
+      <c r="I56">
+        <v>9004</v>
+      </c>
+      <c r="J56">
+        <v>300</v>
+      </c>
+      <c r="K56">
+        <v>80009</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A57">
+        <v>3020</v>
+      </c>
+      <c r="B57" t="s">
+        <v>329</v>
+      </c>
+      <c r="C57">
+        <v>8</v>
+      </c>
+      <c r="D57" t="s">
+        <v>185</v>
+      </c>
+      <c r="E57" t="s">
+        <v>185</v>
+      </c>
+      <c r="F57" t="s">
+        <v>243</v>
+      </c>
+      <c r="G57" t="s">
+        <v>163</v>
+      </c>
+      <c r="I57">
+        <v>9004</v>
+      </c>
+      <c r="J57">
+        <v>300</v>
+      </c>
+      <c r="K57">
+        <v>80012</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A58">
+        <v>3021</v>
+      </c>
+      <c r="B58" t="s">
+        <v>330</v>
+      </c>
+      <c r="C58">
+        <v>8</v>
+      </c>
+      <c r="D58" t="s">
+        <v>186</v>
+      </c>
+      <c r="E58" t="s">
+        <v>186</v>
+      </c>
+      <c r="F58" t="s">
+        <v>244</v>
+      </c>
+      <c r="G58" t="s">
+        <v>163</v>
+      </c>
+      <c r="I58">
+        <v>9004</v>
+      </c>
+      <c r="J58">
+        <v>300</v>
+      </c>
+      <c r="K58">
+        <v>80015</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A59">
+        <v>3022</v>
+      </c>
+      <c r="B59" t="s">
+        <v>309</v>
+      </c>
+      <c r="C59">
+        <v>8</v>
+      </c>
+      <c r="D59" t="s">
+        <v>187</v>
+      </c>
+      <c r="E59" t="s">
+        <v>187</v>
+      </c>
+      <c r="F59" t="s">
+        <v>245</v>
+      </c>
+      <c r="G59" t="s">
+        <v>164</v>
+      </c>
+      <c r="I59">
+        <v>9004</v>
+      </c>
+      <c r="J59">
+        <v>150</v>
+      </c>
+      <c r="K59" s="7">
+        <v>84011</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A60">
+        <v>3023</v>
+      </c>
+      <c r="B60" t="s">
+        <v>310</v>
+      </c>
+      <c r="C60">
+        <v>8</v>
+      </c>
+      <c r="D60" t="s">
+        <v>188</v>
+      </c>
+      <c r="E60" t="s">
+        <v>188</v>
+      </c>
+      <c r="F60" t="s">
+        <v>246</v>
+      </c>
+      <c r="G60" t="s">
+        <v>164</v>
+      </c>
+      <c r="I60">
+        <v>9004</v>
+      </c>
+      <c r="J60">
+        <v>150</v>
+      </c>
+      <c r="K60" s="7">
+        <v>84012</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A61">
+        <v>3024</v>
+      </c>
+      <c r="B61" t="s">
+        <v>311</v>
+      </c>
+      <c r="C61">
+        <v>8</v>
+      </c>
+      <c r="D61" t="s">
+        <v>189</v>
+      </c>
+      <c r="E61" t="s">
+        <v>189</v>
+      </c>
+      <c r="F61" t="s">
+        <v>247</v>
+      </c>
+      <c r="G61" t="s">
+        <v>164</v>
+      </c>
+      <c r="I61">
+        <v>9004</v>
+      </c>
+      <c r="J61">
+        <v>150</v>
+      </c>
+      <c r="K61" s="7">
+        <v>84013</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A62">
+        <v>3025</v>
+      </c>
+      <c r="B62" t="s">
+        <v>312</v>
+      </c>
+      <c r="C62">
+        <v>8</v>
+      </c>
+      <c r="D62" t="s">
+        <v>190</v>
+      </c>
+      <c r="E62" t="s">
+        <v>190</v>
+      </c>
+      <c r="F62" t="s">
+        <v>248</v>
+      </c>
+      <c r="G62" t="s">
+        <v>164</v>
+      </c>
+      <c r="I62">
+        <v>9004</v>
+      </c>
+      <c r="J62">
+        <v>150</v>
+      </c>
+      <c r="K62" s="7">
+        <v>84014</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A63">
+        <v>3026</v>
+      </c>
+      <c r="B63" t="s">
+        <v>313</v>
+      </c>
+      <c r="C63">
+        <v>8</v>
+      </c>
+      <c r="D63" t="s">
+        <v>191</v>
+      </c>
+      <c r="E63" t="s">
+        <v>191</v>
+      </c>
+      <c r="F63" t="s">
+        <v>249</v>
+      </c>
+      <c r="G63" t="s">
+        <v>164</v>
+      </c>
+      <c r="I63">
+        <v>9004</v>
+      </c>
+      <c r="J63">
+        <v>150</v>
+      </c>
+      <c r="K63" s="7">
+        <v>84015</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A64">
+        <v>3027</v>
+      </c>
+      <c r="B64" t="s">
+        <v>314</v>
+      </c>
+      <c r="C64">
+        <v>8</v>
+      </c>
+      <c r="D64" t="s">
+        <v>192</v>
+      </c>
+      <c r="E64" t="s">
+        <v>192</v>
+      </c>
+      <c r="F64" t="s">
+        <v>250</v>
+      </c>
+      <c r="G64" t="s">
+        <v>164</v>
+      </c>
+      <c r="I64">
+        <v>9004</v>
+      </c>
+      <c r="J64">
+        <v>150</v>
+      </c>
+      <c r="K64" s="7">
+        <v>84016</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A65">
+        <v>3028</v>
+      </c>
+      <c r="B65" t="s">
+        <v>315</v>
+      </c>
+      <c r="C65">
+        <v>8</v>
+      </c>
+      <c r="D65" t="s">
+        <v>193</v>
+      </c>
+      <c r="E65" t="s">
+        <v>193</v>
+      </c>
+      <c r="F65" t="s">
+        <v>251</v>
+      </c>
+      <c r="G65" t="s">
+        <v>164</v>
+      </c>
+      <c r="I65">
+        <v>9004</v>
+      </c>
+      <c r="J65">
+        <v>150</v>
+      </c>
+      <c r="K65" s="7">
+        <v>84017</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A66">
+        <v>3029</v>
+      </c>
+      <c r="B66" t="s">
+        <v>316</v>
+      </c>
+      <c r="C66">
+        <v>8</v>
+      </c>
+      <c r="D66" t="s">
+        <v>194</v>
+      </c>
+      <c r="E66" t="s">
+        <v>194</v>
+      </c>
+      <c r="F66" t="s">
+        <v>252</v>
+      </c>
+      <c r="G66" t="s">
+        <v>164</v>
+      </c>
+      <c r="I66">
+        <v>9004</v>
+      </c>
+      <c r="J66">
+        <v>150</v>
+      </c>
+      <c r="K66" s="7">
+        <v>84018</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A67">
+        <v>3030</v>
+      </c>
+      <c r="B67" t="s">
+        <v>317</v>
+      </c>
+      <c r="C67">
+        <v>8</v>
+      </c>
+      <c r="D67" t="s">
+        <v>195</v>
+      </c>
+      <c r="E67" t="s">
+        <v>195</v>
+      </c>
+      <c r="F67" t="s">
+        <v>253</v>
+      </c>
+      <c r="G67" t="s">
+        <v>164</v>
+      </c>
+      <c r="I67">
+        <v>9004</v>
+      </c>
+      <c r="J67">
+        <v>150</v>
+      </c>
+      <c r="K67" s="7">
+        <v>84019</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A68">
+        <v>3031</v>
+      </c>
+      <c r="B68" t="s">
+        <v>318</v>
+      </c>
+      <c r="C68">
+        <v>8</v>
+      </c>
+      <c r="D68" t="s">
+        <v>196</v>
+      </c>
+      <c r="E68" t="s">
+        <v>196</v>
+      </c>
+      <c r="F68" t="s">
+        <v>254</v>
+      </c>
+      <c r="G68" t="s">
+        <v>164</v>
+      </c>
+      <c r="I68">
+        <v>9004</v>
+      </c>
+      <c r="J68">
+        <v>150</v>
+      </c>
+      <c r="K68" s="7">
+        <v>84020</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A69">
+        <v>3032</v>
+      </c>
+      <c r="B69" t="s">
+        <v>299</v>
+      </c>
+      <c r="C69">
+        <v>8</v>
+      </c>
+      <c r="D69" t="s">
+        <v>197</v>
+      </c>
+      <c r="E69" t="s">
+        <v>197</v>
+      </c>
+      <c r="F69" t="s">
+        <v>255</v>
+      </c>
+      <c r="G69" t="s">
+        <v>164</v>
+      </c>
+      <c r="I69">
+        <v>9004</v>
+      </c>
+      <c r="J69">
+        <v>150</v>
+      </c>
+      <c r="K69" s="7">
+        <v>84021</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A70">
+        <v>3033</v>
+      </c>
+      <c r="B70" t="s">
+        <v>300</v>
+      </c>
+      <c r="C70">
+        <v>8</v>
+      </c>
+      <c r="D70" t="s">
+        <v>198</v>
+      </c>
+      <c r="E70" t="s">
+        <v>198</v>
+      </c>
+      <c r="F70" t="s">
+        <v>256</v>
+      </c>
+      <c r="G70" t="s">
+        <v>164</v>
+      </c>
+      <c r="I70">
+        <v>9004</v>
+      </c>
+      <c r="J70">
+        <v>150</v>
+      </c>
+      <c r="K70" s="7">
+        <v>84022</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A71">
+        <v>3034</v>
+      </c>
+      <c r="B71" t="s">
+        <v>301</v>
+      </c>
+      <c r="C71">
+        <v>8</v>
+      </c>
+      <c r="D71" t="s">
+        <v>199</v>
+      </c>
+      <c r="E71" t="s">
+        <v>199</v>
+      </c>
+      <c r="F71" t="s">
+        <v>257</v>
+      </c>
+      <c r="G71" t="s">
+        <v>164</v>
+      </c>
+      <c r="I71">
+        <v>9004</v>
+      </c>
+      <c r="J71">
+        <v>150</v>
+      </c>
+      <c r="K71" s="7">
+        <v>84023</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A72">
+        <v>3035</v>
+      </c>
+      <c r="B72" t="s">
+        <v>302</v>
+      </c>
+      <c r="C72">
+        <v>8</v>
+      </c>
+      <c r="D72" t="s">
+        <v>200</v>
+      </c>
+      <c r="E72" t="s">
+        <v>200</v>
+      </c>
+      <c r="F72" t="s">
+        <v>258</v>
+      </c>
+      <c r="G72" t="s">
+        <v>164</v>
+      </c>
+      <c r="I72">
+        <v>9004</v>
+      </c>
+      <c r="J72">
+        <v>150</v>
+      </c>
+      <c r="K72" s="7">
+        <v>84024</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A73">
+        <v>3036</v>
+      </c>
+      <c r="B73" t="s">
+        <v>303</v>
+      </c>
+      <c r="C73">
+        <v>8</v>
+      </c>
+      <c r="D73" t="s">
+        <v>201</v>
+      </c>
+      <c r="E73" t="s">
+        <v>201</v>
+      </c>
+      <c r="F73" t="s">
+        <v>259</v>
+      </c>
+      <c r="G73" t="s">
+        <v>164</v>
+      </c>
+      <c r="I73">
+        <v>9004</v>
+      </c>
+      <c r="J73">
+        <v>150</v>
+      </c>
+      <c r="K73" s="7">
+        <v>84025</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A74">
+        <v>3037</v>
+      </c>
+      <c r="B74" t="s">
+        <v>304</v>
+      </c>
+      <c r="C74">
+        <v>8</v>
+      </c>
+      <c r="D74" t="s">
+        <v>202</v>
+      </c>
+      <c r="E74" t="s">
+        <v>202</v>
+      </c>
+      <c r="F74" t="s">
+        <v>260</v>
+      </c>
+      <c r="G74" t="s">
+        <v>164</v>
+      </c>
+      <c r="I74">
+        <v>9004</v>
+      </c>
+      <c r="J74">
+        <v>150</v>
+      </c>
+      <c r="K74" s="7">
+        <v>84026</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A75">
+        <v>3038</v>
+      </c>
+      <c r="B75" t="s">
+        <v>305</v>
+      </c>
+      <c r="C75">
+        <v>8</v>
+      </c>
+      <c r="D75" t="s">
         <v>203</v>
       </c>
-      <c r="C49">
-        <v>8</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="E75" t="s">
+        <v>203</v>
+      </c>
+      <c r="F75" t="s">
+        <v>261</v>
+      </c>
+      <c r="G75" t="s">
+        <v>164</v>
+      </c>
+      <c r="I75">
+        <v>9004</v>
+      </c>
+      <c r="J75">
+        <v>150</v>
+      </c>
+      <c r="K75" s="7">
+        <v>84027</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A76">
+        <v>3039</v>
+      </c>
+      <c r="B76" t="s">
+        <v>306</v>
+      </c>
+      <c r="C76">
+        <v>8</v>
+      </c>
+      <c r="D76" t="s">
         <v>204</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E76" t="s">
         <v>204</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F76" t="s">
+        <v>262</v>
+      </c>
+      <c r="G76" t="s">
+        <v>164</v>
+      </c>
+      <c r="I76">
+        <v>9004</v>
+      </c>
+      <c r="J76">
+        <v>150</v>
+      </c>
+      <c r="K76" s="7">
+        <v>84028</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A77">
+        <v>3040</v>
+      </c>
+      <c r="B77" t="s">
+        <v>307</v>
+      </c>
+      <c r="C77">
+        <v>8</v>
+      </c>
+      <c r="D77" t="s">
         <v>205</v>
       </c>
-      <c r="G49" t="s">
-        <v>161</v>
-      </c>
-      <c r="I49">
-        <v>9004</v>
-      </c>
-      <c r="J49">
-        <v>180</v>
-      </c>
-      <c r="K49">
-        <v>12014</v>
+      <c r="E77" t="s">
+        <v>205</v>
+      </c>
+      <c r="F77" t="s">
+        <v>263</v>
+      </c>
+      <c r="G77" t="s">
+        <v>164</v>
+      </c>
+      <c r="I77">
+        <v>9004</v>
+      </c>
+      <c r="J77">
+        <v>150</v>
+      </c>
+      <c r="K77" s="7">
+        <v>84029</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A78">
+        <v>3041</v>
+      </c>
+      <c r="B78" t="s">
+        <v>308</v>
+      </c>
+      <c r="C78">
+        <v>8</v>
+      </c>
+      <c r="D78" t="s">
+        <v>206</v>
+      </c>
+      <c r="E78" t="s">
+        <v>206</v>
+      </c>
+      <c r="F78" t="s">
+        <v>264</v>
+      </c>
+      <c r="G78" t="s">
+        <v>164</v>
+      </c>
+      <c r="I78">
+        <v>9004</v>
+      </c>
+      <c r="J78">
+        <v>150</v>
+      </c>
+      <c r="K78" s="7">
+        <v>84030</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A79">
+        <v>3042</v>
+      </c>
+      <c r="B79" t="s">
+        <v>292</v>
+      </c>
+      <c r="C79">
+        <v>8</v>
+      </c>
+      <c r="D79" t="s">
+        <v>207</v>
+      </c>
+      <c r="E79" t="s">
+        <v>207</v>
+      </c>
+      <c r="F79" t="s">
+        <v>265</v>
+      </c>
+      <c r="G79" t="s">
+        <v>164</v>
+      </c>
+      <c r="I79">
+        <v>9004</v>
+      </c>
+      <c r="J79">
+        <v>150</v>
+      </c>
+      <c r="K79" s="7">
+        <v>84031</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A80">
+        <v>3043</v>
+      </c>
+      <c r="B80" t="s">
+        <v>293</v>
+      </c>
+      <c r="C80">
+        <v>8</v>
+      </c>
+      <c r="D80" t="s">
+        <v>208</v>
+      </c>
+      <c r="E80" t="s">
+        <v>208</v>
+      </c>
+      <c r="F80" t="s">
+        <v>266</v>
+      </c>
+      <c r="G80" t="s">
+        <v>164</v>
+      </c>
+      <c r="I80">
+        <v>9004</v>
+      </c>
+      <c r="J80">
+        <v>150</v>
+      </c>
+      <c r="K80" s="7">
+        <v>84032</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A81">
+        <v>3044</v>
+      </c>
+      <c r="B81" t="s">
+        <v>294</v>
+      </c>
+      <c r="C81">
+        <v>8</v>
+      </c>
+      <c r="D81" t="s">
+        <v>209</v>
+      </c>
+      <c r="E81" t="s">
+        <v>209</v>
+      </c>
+      <c r="F81" t="s">
+        <v>267</v>
+      </c>
+      <c r="G81" t="s">
+        <v>164</v>
+      </c>
+      <c r="I81">
+        <v>9004</v>
+      </c>
+      <c r="J81">
+        <v>150</v>
+      </c>
+      <c r="K81" s="7">
+        <v>84033</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A82">
+        <v>3045</v>
+      </c>
+      <c r="B82" t="s">
+        <v>295</v>
+      </c>
+      <c r="C82">
+        <v>8</v>
+      </c>
+      <c r="D82" t="s">
+        <v>210</v>
+      </c>
+      <c r="E82" t="s">
+        <v>210</v>
+      </c>
+      <c r="F82" t="s">
+        <v>268</v>
+      </c>
+      <c r="G82" t="s">
+        <v>164</v>
+      </c>
+      <c r="I82">
+        <v>9004</v>
+      </c>
+      <c r="J82">
+        <v>150</v>
+      </c>
+      <c r="K82" s="7">
+        <v>84034</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A83">
+        <v>3046</v>
+      </c>
+      <c r="B83" t="s">
+        <v>296</v>
+      </c>
+      <c r="C83">
+        <v>8</v>
+      </c>
+      <c r="D83" t="s">
+        <v>211</v>
+      </c>
+      <c r="E83" t="s">
+        <v>211</v>
+      </c>
+      <c r="F83" t="s">
+        <v>269</v>
+      </c>
+      <c r="G83" t="s">
+        <v>164</v>
+      </c>
+      <c r="I83">
+        <v>9004</v>
+      </c>
+      <c r="J83">
+        <v>150</v>
+      </c>
+      <c r="K83" s="7">
+        <v>84035</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A84">
+        <v>3047</v>
+      </c>
+      <c r="B84" t="s">
+        <v>297</v>
+      </c>
+      <c r="C84">
+        <v>8</v>
+      </c>
+      <c r="D84" t="s">
+        <v>212</v>
+      </c>
+      <c r="E84" t="s">
+        <v>212</v>
+      </c>
+      <c r="F84" t="s">
+        <v>270</v>
+      </c>
+      <c r="G84" t="s">
+        <v>164</v>
+      </c>
+      <c r="I84">
+        <v>9004</v>
+      </c>
+      <c r="J84">
+        <v>150</v>
+      </c>
+      <c r="K84" s="7">
+        <v>84036</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A85">
+        <v>3048</v>
+      </c>
+      <c r="B85" t="s">
+        <v>298</v>
+      </c>
+      <c r="C85">
+        <v>8</v>
+      </c>
+      <c r="D85" t="s">
+        <v>213</v>
+      </c>
+      <c r="E85" t="s">
+        <v>213</v>
+      </c>
+      <c r="F85" t="s">
+        <v>271</v>
+      </c>
+      <c r="G85" t="s">
+        <v>164</v>
+      </c>
+      <c r="I85">
+        <v>9004</v>
+      </c>
+      <c r="J85">
+        <v>150</v>
+      </c>
+      <c r="K85" s="7">
+        <v>84037</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A86">
+        <v>3049</v>
+      </c>
+      <c r="B86" t="s">
+        <v>282</v>
+      </c>
+      <c r="C86">
+        <v>8</v>
+      </c>
+      <c r="D86" t="s">
+        <v>214</v>
+      </c>
+      <c r="E86" t="s">
+        <v>214</v>
+      </c>
+      <c r="F86" t="s">
+        <v>272</v>
+      </c>
+      <c r="G86" t="s">
+        <v>164</v>
+      </c>
+      <c r="I86">
+        <v>9004</v>
+      </c>
+      <c r="J86">
+        <v>150</v>
+      </c>
+      <c r="K86" s="6">
+        <v>83306</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A87">
+        <v>3050</v>
+      </c>
+      <c r="B87" t="s">
+        <v>283</v>
+      </c>
+      <c r="C87">
+        <v>8</v>
+      </c>
+      <c r="D87" t="s">
+        <v>215</v>
+      </c>
+      <c r="E87" t="s">
+        <v>215</v>
+      </c>
+      <c r="F87" t="s">
+        <v>273</v>
+      </c>
+      <c r="G87" t="s">
+        <v>164</v>
+      </c>
+      <c r="I87">
+        <v>9004</v>
+      </c>
+      <c r="J87">
+        <v>150</v>
+      </c>
+      <c r="K87" s="6">
+        <v>83307</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A88">
+        <v>3051</v>
+      </c>
+      <c r="B88" t="s">
+        <v>284</v>
+      </c>
+      <c r="C88">
+        <v>8</v>
+      </c>
+      <c r="D88" t="s">
+        <v>216</v>
+      </c>
+      <c r="E88" t="s">
+        <v>216</v>
+      </c>
+      <c r="F88" t="s">
+        <v>274</v>
+      </c>
+      <c r="G88" t="s">
+        <v>164</v>
+      </c>
+      <c r="I88">
+        <v>9004</v>
+      </c>
+      <c r="J88">
+        <v>150</v>
+      </c>
+      <c r="K88" s="6">
+        <v>83308</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A89">
+        <v>3052</v>
+      </c>
+      <c r="B89" t="s">
+        <v>285</v>
+      </c>
+      <c r="C89">
+        <v>8</v>
+      </c>
+      <c r="D89" t="s">
+        <v>217</v>
+      </c>
+      <c r="E89" t="s">
+        <v>217</v>
+      </c>
+      <c r="F89" t="s">
+        <v>275</v>
+      </c>
+      <c r="G89" t="s">
+        <v>164</v>
+      </c>
+      <c r="I89">
+        <v>9004</v>
+      </c>
+      <c r="J89">
+        <v>150</v>
+      </c>
+      <c r="K89" s="6">
+        <v>83309</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A90">
+        <v>3053</v>
+      </c>
+      <c r="B90" t="s">
+        <v>286</v>
+      </c>
+      <c r="C90">
+        <v>8</v>
+      </c>
+      <c r="D90" t="s">
+        <v>218</v>
+      </c>
+      <c r="E90" t="s">
+        <v>218</v>
+      </c>
+      <c r="F90" t="s">
+        <v>276</v>
+      </c>
+      <c r="G90" t="s">
+        <v>164</v>
+      </c>
+      <c r="I90">
+        <v>9004</v>
+      </c>
+      <c r="J90">
+        <v>150</v>
+      </c>
+      <c r="K90" s="6">
+        <v>83310</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A91">
+        <v>3054</v>
+      </c>
+      <c r="B91" t="s">
+        <v>287</v>
+      </c>
+      <c r="C91">
+        <v>8</v>
+      </c>
+      <c r="D91" t="s">
+        <v>219</v>
+      </c>
+      <c r="E91" t="s">
+        <v>219</v>
+      </c>
+      <c r="F91" t="s">
+        <v>277</v>
+      </c>
+      <c r="G91" t="s">
+        <v>164</v>
+      </c>
+      <c r="I91">
+        <v>9004</v>
+      </c>
+      <c r="J91">
+        <v>150</v>
+      </c>
+      <c r="K91" s="6">
+        <v>83311</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A92">
+        <v>3055</v>
+      </c>
+      <c r="B92" t="s">
+        <v>288</v>
+      </c>
+      <c r="C92">
+        <v>8</v>
+      </c>
+      <c r="D92" t="s">
+        <v>220</v>
+      </c>
+      <c r="E92" t="s">
+        <v>220</v>
+      </c>
+      <c r="F92" t="s">
+        <v>278</v>
+      </c>
+      <c r="G92" t="s">
+        <v>164</v>
+      </c>
+      <c r="I92">
+        <v>9004</v>
+      </c>
+      <c r="J92">
+        <v>150</v>
+      </c>
+      <c r="K92" s="6">
+        <v>83312</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A93">
+        <v>3056</v>
+      </c>
+      <c r="B93" t="s">
+        <v>289</v>
+      </c>
+      <c r="C93">
+        <v>8</v>
+      </c>
+      <c r="D93" t="s">
+        <v>221</v>
+      </c>
+      <c r="E93" t="s">
+        <v>221</v>
+      </c>
+      <c r="F93" t="s">
+        <v>279</v>
+      </c>
+      <c r="G93" t="s">
+        <v>164</v>
+      </c>
+      <c r="I93">
+        <v>9004</v>
+      </c>
+      <c r="J93">
+        <v>150</v>
+      </c>
+      <c r="K93" s="6">
+        <v>83313</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A94">
+        <v>3057</v>
+      </c>
+      <c r="B94" t="s">
+        <v>290</v>
+      </c>
+      <c r="C94">
+        <v>8</v>
+      </c>
+      <c r="D94" t="s">
+        <v>222</v>
+      </c>
+      <c r="E94" t="s">
+        <v>222</v>
+      </c>
+      <c r="F94" t="s">
+        <v>280</v>
+      </c>
+      <c r="G94" t="s">
+        <v>164</v>
+      </c>
+      <c r="I94">
+        <v>9004</v>
+      </c>
+      <c r="J94">
+        <v>150</v>
+      </c>
+      <c r="K94" s="6">
+        <v>83314</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A95">
+        <v>3058</v>
+      </c>
+      <c r="B95" t="s">
+        <v>291</v>
+      </c>
+      <c r="C95">
+        <v>8</v>
+      </c>
+      <c r="D95" t="s">
+        <v>223</v>
+      </c>
+      <c r="E95" t="s">
+        <v>223</v>
+      </c>
+      <c r="F95" t="s">
+        <v>281</v>
+      </c>
+      <c r="G95" t="s">
+        <v>164</v>
+      </c>
+      <c r="I95">
+        <v>9004</v>
+      </c>
+      <c r="J95">
+        <v>150</v>
+      </c>
+      <c r="K95" s="6">
+        <v>83315</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Shop.xlsx
+++ b/Config/Excel/Shop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2B070C-BFA2-47CE-80D4-89E6FB149DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B158EF-901D-4161-B877-8DCDFE8B9D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DE9042F4-05E2-4CBA-95A7-AC962596AF59}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="344">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1764,6 +1764,18 @@
   </si>
   <si>
     <t>ポイントを300個獲得することができます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3倍チケットを6個獲得することができます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3倍チケットを15個獲得することができます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>500個</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1936,8 +1948,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{29F90596-6A52-4109-AC94-927F28D661EC}" name="テーブル1" displayName="テーブル1" ref="A1:L95" totalsRowShown="0">
-  <autoFilter ref="A1:L95" xr:uid="{29F90596-6A52-4109-AC94-927F28D661EC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{29F90596-6A52-4109-AC94-927F28D661EC}" name="テーブル1" displayName="テーブル1" ref="A1:L98" totalsRowShown="0">
+  <autoFilter ref="A1:L98" xr:uid="{29F90596-6A52-4109-AC94-927F28D661EC}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{17391177-AF30-4E29-B56C-190AC8FE0C31}" name="ID"/>
     <tableColumn id="2" xr3:uid="{52EECCBF-AA36-46A3-B886-A57E84318451}" name="IconResources"/>
@@ -2253,13 +2265,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D9729C7-5752-4B0D-AE5D-92253C36B7FD}">
-  <dimension ref="A1:L95"/>
+  <dimension ref="A1:L98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I44" sqref="I44"/>
+      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2549,31 +2561,31 @@
         <v>100</v>
       </c>
       <c r="B10" t="s">
-        <v>104</v>
+        <v>332</v>
       </c>
       <c r="C10">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>170</v>
       </c>
       <c r="F10" t="s">
-        <v>98</v>
+        <v>229</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="I10">
         <v>9000</v>
       </c>
       <c r="J10">
-        <v>300</v>
-      </c>
-      <c r="K10">
-        <v>11001</v>
+        <v>100</v>
+      </c>
+      <c r="K10" s="7">
+        <v>84002</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
@@ -2581,31 +2593,31 @@
         <v>101</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>332</v>
       </c>
       <c r="C11">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>170</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>170</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>341</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>343</v>
       </c>
       <c r="I11">
         <v>9000</v>
       </c>
       <c r="J11">
-        <v>100</v>
-      </c>
-      <c r="K11">
-        <v>11002</v>
+        <v>500</v>
+      </c>
+      <c r="K11" s="7">
+        <v>84038</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">
@@ -2613,31 +2625,31 @@
         <v>102</v>
       </c>
       <c r="B12" t="s">
-        <v>105</v>
+        <v>332</v>
       </c>
       <c r="C12">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>170</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>170</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>342</v>
       </c>
       <c r="G12" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I12">
         <v>9000</v>
       </c>
       <c r="J12">
-        <v>300</v>
-      </c>
-      <c r="K12">
-        <v>11003</v>
+        <v>900</v>
+      </c>
+      <c r="K12" s="7">
+        <v>84039</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.4">
@@ -2645,19 +2657,19 @@
         <v>103</v>
       </c>
       <c r="B13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C13">
         <v>4</v>
       </c>
       <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" t="s">
         <v>38</v>
       </c>
-      <c r="E13" t="s">
-        <v>43</v>
-      </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="G13" t="s">
         <v>37</v>
@@ -2669,7 +2681,7 @@
         <v>300</v>
       </c>
       <c r="K13">
-        <v>11004</v>
+        <v>11001</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.4">
@@ -2677,31 +2689,31 @@
         <v>104</v>
       </c>
       <c r="B14" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="C14">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G14" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="I14">
         <v>9000</v>
       </c>
       <c r="J14">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="K14">
-        <v>11005</v>
+        <v>11002</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.4">
@@ -2709,571 +2721,580 @@
         <v>105</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="C15">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G15" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="I15">
-        <v>9001</v>
+        <v>9000</v>
       </c>
       <c r="J15">
-        <v>20000</v>
+        <v>300</v>
       </c>
       <c r="K15">
-        <v>12001</v>
+        <v>11003</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16">
-        <v>200</v>
+        <v>106</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I16">
-        <v>9001</v>
+        <v>9000</v>
       </c>
       <c r="J16">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="K16">
-        <v>12002</v>
+        <v>11004</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17">
-        <v>201</v>
+        <v>107</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="C17">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E17" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F17" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I17">
-        <v>9001</v>
+        <v>9000</v>
       </c>
       <c r="J17">
-        <v>180</v>
+        <v>500</v>
       </c>
       <c r="K17">
-        <v>12003</v>
+        <v>11005</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18">
-        <v>202</v>
+        <v>108</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C18">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="E18" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="I18">
         <v>9001</v>
       </c>
       <c r="J18">
-        <v>180</v>
+        <v>20000</v>
       </c>
       <c r="K18">
-        <v>12004</v>
+        <v>12001</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C19">
         <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E19" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="G19" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="I19">
         <v>9001</v>
       </c>
       <c r="J19">
-        <v>600</v>
+        <v>180</v>
       </c>
       <c r="K19">
-        <v>12005</v>
+        <v>12002</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C20">
         <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E20" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G20" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="I20">
         <v>9001</v>
       </c>
       <c r="J20">
-        <v>900</v>
+        <v>180</v>
       </c>
       <c r="K20">
-        <v>12006</v>
+        <v>12003</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C21">
         <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E21" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="F21" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G21" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="I21">
         <v>9001</v>
       </c>
       <c r="J21">
-        <v>1200</v>
+        <v>180</v>
       </c>
       <c r="K21">
-        <v>12007</v>
+        <v>12004</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C22">
         <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E22" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="F22" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="G22" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="I22">
         <v>9001</v>
       </c>
       <c r="J22">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="K22">
-        <v>12008</v>
+        <v>12005</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C23">
         <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E23" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="F23" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G23" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="I23">
         <v>9001</v>
       </c>
       <c r="J23">
-        <v>6000</v>
+        <v>900</v>
       </c>
       <c r="K23">
-        <v>12009</v>
+        <v>12006</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C24">
         <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="E24" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="F24" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="G24" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="I24">
         <v>9001</v>
       </c>
       <c r="J24">
-        <v>9000</v>
+        <v>1200</v>
       </c>
       <c r="K24">
-        <v>12010</v>
+        <v>12007</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C25">
         <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E25" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="F25" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="G25" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="I25">
         <v>9001</v>
       </c>
       <c r="J25">
-        <v>12000</v>
+        <v>1800</v>
       </c>
       <c r="K25">
-        <v>12011</v>
+        <v>12008</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C26">
         <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="E26" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F26" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="G26" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="I26">
         <v>9001</v>
       </c>
       <c r="J26">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="K26">
-        <v>12012</v>
+        <v>12009</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B27" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C27">
         <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="E27" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="F27" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="I27">
         <v>9001</v>
       </c>
       <c r="J27">
-        <v>180</v>
+        <v>9000</v>
       </c>
       <c r="K27">
-        <v>12013</v>
+        <v>12010</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B28" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C28">
         <v>7</v>
       </c>
       <c r="D28" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E28" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F28" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="I28">
         <v>9001</v>
       </c>
       <c r="J28">
-        <v>180</v>
+        <v>12000</v>
       </c>
       <c r="K28">
-        <v>12014</v>
+        <v>12011</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="B29" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C29">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="E29" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="F29" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="G29" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="I29">
-        <v>9000</v>
+        <v>9001</v>
       </c>
       <c r="J29">
-        <v>100</v>
-      </c>
-      <c r="L29">
-        <v>2</v>
+        <v>18000</v>
+      </c>
+      <c r="K29">
+        <v>12012</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A30">
-        <v>2000</v>
+        <v>211</v>
       </c>
       <c r="B30" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="C30">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="D30" t="s">
+        <v>89</v>
       </c>
       <c r="E30" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="F30" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="G30" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="I30">
-        <v>9000</v>
+        <v>9001</v>
       </c>
       <c r="J30">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="K30">
-        <v>14001</v>
+        <v>12013</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A31">
-        <v>2001</v>
+        <v>212</v>
       </c>
       <c r="B31" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="D31" t="s">
+        <v>92</v>
       </c>
       <c r="E31" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="F31" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="G31" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I31">
-        <v>9000</v>
+        <v>9001</v>
       </c>
       <c r="J31">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="K31">
-        <v>14002</v>
+        <v>12014</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A32">
-        <v>2002</v>
+        <v>1000</v>
       </c>
       <c r="B32" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
+        <v>96</v>
       </c>
       <c r="E32" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="F32" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="G32" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="I32">
         <v>9000</v>
       </c>
       <c r="J32">
-        <v>500</v>
-      </c>
-      <c r="K32">
-        <v>14003</v>
+        <v>100</v>
+      </c>
+      <c r="L32">
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A33">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="B33" t="s">
         <v>111</v>
@@ -3282,27 +3303,27 @@
         <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F33" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G33" t="s">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="I33">
         <v>9000</v>
       </c>
       <c r="J33">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="K33">
-        <v>14004</v>
+        <v>14001</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A34">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="B34" t="s">
         <v>111</v>
@@ -3311,27 +3332,27 @@
         <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F34" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="G34" t="s">
-        <v>123</v>
+        <v>37</v>
       </c>
       <c r="I34">
         <v>9000</v>
       </c>
       <c r="J34">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="K34">
-        <v>14005</v>
+        <v>14002</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A35">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="B35" t="s">
         <v>111</v>
@@ -3340,27 +3361,27 @@
         <v>3</v>
       </c>
       <c r="E35" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F35" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="G35" t="s">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="I35">
         <v>9000</v>
       </c>
       <c r="J35">
-        <v>3500</v>
+        <v>500</v>
       </c>
       <c r="K35">
-        <v>14006</v>
+        <v>14003</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A36">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="B36" t="s">
         <v>111</v>
@@ -3369,150 +3390,132 @@
         <v>3</v>
       </c>
       <c r="E36" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F36" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="G36" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="I36">
         <v>9000</v>
       </c>
       <c r="J36">
-        <v>5500</v>
+        <v>1000</v>
       </c>
       <c r="K36">
-        <v>14007</v>
+        <v>14004</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A37">
-        <v>3000</v>
+        <v>2004</v>
       </c>
       <c r="B37" t="s">
-        <v>336</v>
+        <v>111</v>
       </c>
       <c r="C37">
-        <v>8</v>
-      </c>
-      <c r="D37" t="s">
-        <v>165</v>
+        <v>3</v>
       </c>
       <c r="E37" t="s">
-        <v>165</v>
+        <v>121</v>
       </c>
       <c r="F37" t="s">
-        <v>224</v>
+        <v>122</v>
       </c>
       <c r="G37" t="s">
-        <v>158</v>
-      </c>
-      <c r="H37">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="I37">
-        <v>9004</v>
+        <v>9000</v>
       </c>
       <c r="J37">
-        <v>500000</v>
-      </c>
-      <c r="K37" s="6">
-        <v>83001</v>
+        <v>2000</v>
+      </c>
+      <c r="K37">
+        <v>14005</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A38">
-        <v>3001</v>
+        <v>2005</v>
       </c>
       <c r="B38" t="s">
-        <v>337</v>
+        <v>111</v>
       </c>
       <c r="C38">
-        <v>8</v>
-      </c>
-      <c r="D38" t="s">
-        <v>166</v>
+        <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>166</v>
+        <v>124</v>
       </c>
       <c r="F38" t="s">
-        <v>225</v>
+        <v>125</v>
       </c>
       <c r="G38" t="s">
-        <v>159</v>
-      </c>
-      <c r="H38">
-        <v>1</v>
+        <v>126</v>
       </c>
       <c r="I38">
-        <v>9004</v>
+        <v>9000</v>
       </c>
       <c r="J38">
-        <v>20000</v>
-      </c>
-      <c r="K38" s="6">
-        <v>83007</v>
+        <v>3500</v>
+      </c>
+      <c r="K38">
+        <v>14006</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A39">
-        <v>3002</v>
+        <v>2006</v>
       </c>
       <c r="B39" t="s">
-        <v>338</v>
+        <v>111</v>
       </c>
       <c r="C39">
-        <v>8</v>
-      </c>
-      <c r="D39" t="s">
-        <v>167</v>
+        <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
       <c r="F39" t="s">
-        <v>226</v>
+        <v>128</v>
       </c>
       <c r="G39" t="s">
-        <v>159</v>
-      </c>
-      <c r="H39">
-        <v>1</v>
+        <v>129</v>
       </c>
       <c r="I39">
-        <v>9004</v>
+        <v>9000</v>
       </c>
       <c r="J39">
-        <v>20000</v>
-      </c>
-      <c r="K39" s="6">
-        <v>83005</v>
+        <v>5500</v>
+      </c>
+      <c r="K39">
+        <v>14007</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A40">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="B40" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C40">
         <v>8</v>
       </c>
       <c r="D40" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E40" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F40" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -3521,231 +3524,240 @@
         <v>9004</v>
       </c>
       <c r="J40">
-        <v>20000</v>
+        <v>500000</v>
       </c>
       <c r="K40" s="6">
-        <v>83006</v>
+        <v>83001</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A41">
-        <v>3004</v>
+        <v>3001</v>
       </c>
       <c r="B41" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="C41">
         <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E41" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F41" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G41" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H41">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I41">
         <v>9004</v>
       </c>
       <c r="J41">
-        <v>50000</v>
-      </c>
-      <c r="K41" s="7">
-        <v>84001</v>
+        <v>20000</v>
+      </c>
+      <c r="K41" s="6">
+        <v>83007</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A42">
-        <v>3005</v>
+        <v>3002</v>
       </c>
       <c r="B42" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="C42">
         <v>8</v>
       </c>
       <c r="D42" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E42" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F42" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G42" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H42">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I42">
         <v>9004</v>
       </c>
       <c r="J42">
-        <v>8000</v>
-      </c>
-      <c r="K42" s="7">
-        <v>84002</v>
+        <v>20000</v>
+      </c>
+      <c r="K42" s="6">
+        <v>83005</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A43">
-        <v>3006</v>
+        <v>3003</v>
       </c>
       <c r="B43" t="s">
-        <v>111</v>
+        <v>339</v>
       </c>
       <c r="C43">
         <v>8</v>
       </c>
       <c r="D43" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E43" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F43" t="s">
-        <v>340</v>
+        <v>227</v>
       </c>
       <c r="G43" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I43">
         <v>9004</v>
       </c>
       <c r="J43">
-        <v>10000</v>
-      </c>
-      <c r="K43" s="7">
-        <v>84003</v>
+        <v>20000</v>
+      </c>
+      <c r="K43" s="6">
+        <v>83006</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A44">
-        <v>3007</v>
+        <v>3004</v>
       </c>
       <c r="B44" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C44">
         <v>8</v>
       </c>
       <c r="D44" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E44" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F44" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G44" t="s">
-        <v>163</v>
+        <v>160</v>
+      </c>
+      <c r="H44">
+        <v>5</v>
       </c>
       <c r="I44">
         <v>9004</v>
       </c>
       <c r="J44">
-        <v>300</v>
-      </c>
-      <c r="K44">
-        <v>81003</v>
+        <v>50000</v>
+      </c>
+      <c r="K44" s="7">
+        <v>84001</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A45">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="B45" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C45">
         <v>8</v>
       </c>
       <c r="D45" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E45" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F45" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G45" t="s">
-        <v>163</v>
+        <v>161</v>
+      </c>
+      <c r="H45">
+        <v>10</v>
       </c>
       <c r="I45">
         <v>9004</v>
       </c>
       <c r="J45">
-        <v>300</v>
-      </c>
-      <c r="K45">
-        <v>81006</v>
+        <v>8000</v>
+      </c>
+      <c r="K45" s="7">
+        <v>84002</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A46">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="B46" t="s">
-        <v>335</v>
+        <v>111</v>
       </c>
       <c r="C46">
         <v>8</v>
       </c>
       <c r="D46" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E46" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F46" t="s">
-        <v>232</v>
+        <v>340</v>
       </c>
       <c r="G46" t="s">
-        <v>163</v>
+        <v>162</v>
+      </c>
+      <c r="H46">
+        <v>3</v>
       </c>
       <c r="I46">
         <v>9004</v>
       </c>
       <c r="J46">
-        <v>300</v>
-      </c>
-      <c r="K46">
-        <v>81009</v>
+        <v>10000</v>
+      </c>
+      <c r="K46" s="7">
+        <v>84003</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A47">
-        <v>3010</v>
+        <v>3007</v>
       </c>
       <c r="B47" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="C47">
         <v>8</v>
       </c>
       <c r="D47" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E47" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F47" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G47" t="s">
         <v>163</v>
@@ -3756,28 +3768,28 @@
       <c r="J47">
         <v>300</v>
       </c>
-      <c r="K47" s="7">
-        <v>84004</v>
+      <c r="K47">
+        <v>81003</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A48">
-        <v>3011</v>
+        <v>3008</v>
       </c>
       <c r="B48" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="C48">
         <v>8</v>
       </c>
       <c r="D48" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E48" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F48" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G48" t="s">
         <v>163</v>
@@ -3788,28 +3800,28 @@
       <c r="J48">
         <v>300</v>
       </c>
-      <c r="K48" s="7">
-        <v>84005</v>
+      <c r="K48">
+        <v>81006</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A49">
-        <v>3012</v>
+        <v>3009</v>
       </c>
       <c r="B49" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="C49">
         <v>8</v>
       </c>
       <c r="D49" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E49" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F49" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G49" t="s">
         <v>163</v>
@@ -3820,28 +3832,28 @@
       <c r="J49">
         <v>300</v>
       </c>
-      <c r="K49" s="7">
-        <v>84006</v>
+      <c r="K49">
+        <v>81009</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A50">
-        <v>3013</v>
+        <v>3010</v>
       </c>
       <c r="B50" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C50">
         <v>8</v>
       </c>
       <c r="D50" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E50" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F50" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G50" t="s">
         <v>163</v>
@@ -3853,27 +3865,27 @@
         <v>300</v>
       </c>
       <c r="K50" s="7">
-        <v>84007</v>
+        <v>84004</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A51">
-        <v>3014</v>
+        <v>3011</v>
       </c>
       <c r="B51" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C51">
         <v>8</v>
       </c>
       <c r="D51" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E51" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F51" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G51" t="s">
         <v>163</v>
@@ -3885,27 +3897,27 @@
         <v>300</v>
       </c>
       <c r="K51" s="7">
-        <v>84008</v>
+        <v>84005</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A52">
-        <v>3015</v>
+        <v>3012</v>
       </c>
       <c r="B52" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C52">
         <v>8</v>
       </c>
       <c r="D52" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E52" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F52" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G52" t="s">
         <v>163</v>
@@ -3917,27 +3929,27 @@
         <v>300</v>
       </c>
       <c r="K52" s="7">
-        <v>84009</v>
+        <v>84006</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A53">
-        <v>3016</v>
+        <v>3013</v>
       </c>
       <c r="B53" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C53">
         <v>8</v>
       </c>
       <c r="D53" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E53" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F53" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G53" t="s">
         <v>163</v>
@@ -3949,27 +3961,27 @@
         <v>300</v>
       </c>
       <c r="K53" s="7">
-        <v>84010</v>
+        <v>84007</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A54">
-        <v>3017</v>
+        <v>3014</v>
       </c>
       <c r="B54" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C54">
         <v>8</v>
       </c>
       <c r="D54" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E54" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F54" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G54" t="s">
         <v>163</v>
@@ -3980,28 +3992,28 @@
       <c r="J54">
         <v>300</v>
       </c>
-      <c r="K54">
-        <v>80003</v>
+      <c r="K54" s="7">
+        <v>84008</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A55">
-        <v>3018</v>
+        <v>3015</v>
       </c>
       <c r="B55" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C55">
         <v>8</v>
       </c>
       <c r="D55" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E55" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F55" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G55" t="s">
         <v>163</v>
@@ -4012,28 +4024,28 @@
       <c r="J55">
         <v>300</v>
       </c>
-      <c r="K55">
-        <v>80006</v>
+      <c r="K55" s="7">
+        <v>84009</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A56">
-        <v>3019</v>
+        <v>3016</v>
       </c>
       <c r="B56" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C56">
         <v>8</v>
       </c>
       <c r="D56" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E56" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F56" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G56" t="s">
         <v>163</v>
@@ -4044,28 +4056,28 @@
       <c r="J56">
         <v>300</v>
       </c>
-      <c r="K56">
-        <v>80009</v>
+      <c r="K56" s="7">
+        <v>84010</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A57">
-        <v>3020</v>
+        <v>3017</v>
       </c>
       <c r="B57" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C57">
         <v>8</v>
       </c>
       <c r="D57" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E57" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F57" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G57" t="s">
         <v>163</v>
@@ -4077,27 +4089,27 @@
         <v>300</v>
       </c>
       <c r="K57">
-        <v>80012</v>
+        <v>80003</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A58">
-        <v>3021</v>
+        <v>3018</v>
       </c>
       <c r="B58" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C58">
         <v>8</v>
       </c>
       <c r="D58" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E58" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F58" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G58" t="s">
         <v>163</v>
@@ -4109,123 +4121,123 @@
         <v>300</v>
       </c>
       <c r="K58">
-        <v>80015</v>
+        <v>80006</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A59">
-        <v>3022</v>
+        <v>3019</v>
       </c>
       <c r="B59" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="C59">
         <v>8</v>
       </c>
       <c r="D59" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E59" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F59" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G59" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I59">
         <v>9004</v>
       </c>
       <c r="J59">
-        <v>150</v>
-      </c>
-      <c r="K59" s="7">
-        <v>84011</v>
+        <v>300</v>
+      </c>
+      <c r="K59">
+        <v>80009</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A60">
-        <v>3023</v>
+        <v>3020</v>
       </c>
       <c r="B60" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="C60">
         <v>8</v>
       </c>
       <c r="D60" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E60" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F60" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G60" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I60">
         <v>9004</v>
       </c>
       <c r="J60">
-        <v>150</v>
-      </c>
-      <c r="K60" s="7">
-        <v>84012</v>
+        <v>300</v>
+      </c>
+      <c r="K60">
+        <v>80012</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A61">
-        <v>3024</v>
+        <v>3021</v>
       </c>
       <c r="B61" t="s">
-        <v>311</v>
+        <v>330</v>
       </c>
       <c r="C61">
         <v>8</v>
       </c>
       <c r="D61" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E61" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F61" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G61" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I61">
         <v>9004</v>
       </c>
       <c r="J61">
-        <v>150</v>
-      </c>
-      <c r="K61" s="7">
-        <v>84013</v>
+        <v>300</v>
+      </c>
+      <c r="K61">
+        <v>80015</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A62">
-        <v>3025</v>
+        <v>3022</v>
       </c>
       <c r="B62" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C62">
         <v>8</v>
       </c>
       <c r="D62" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E62" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F62" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G62" t="s">
         <v>164</v>
@@ -4237,27 +4249,27 @@
         <v>150</v>
       </c>
       <c r="K62" s="7">
-        <v>84014</v>
+        <v>84011</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A63">
-        <v>3026</v>
+        <v>3023</v>
       </c>
       <c r="B63" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C63">
         <v>8</v>
       </c>
       <c r="D63" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E63" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F63" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G63" t="s">
         <v>164</v>
@@ -4269,27 +4281,27 @@
         <v>150</v>
       </c>
       <c r="K63" s="7">
-        <v>84015</v>
+        <v>84012</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A64">
-        <v>3027</v>
+        <v>3024</v>
       </c>
       <c r="B64" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C64">
         <v>8</v>
       </c>
       <c r="D64" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E64" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F64" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G64" t="s">
         <v>164</v>
@@ -4301,27 +4313,27 @@
         <v>150</v>
       </c>
       <c r="K64" s="7">
-        <v>84016</v>
+        <v>84013</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A65">
-        <v>3028</v>
+        <v>3025</v>
       </c>
       <c r="B65" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C65">
         <v>8</v>
       </c>
       <c r="D65" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E65" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F65" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G65" t="s">
         <v>164</v>
@@ -4333,27 +4345,27 @@
         <v>150</v>
       </c>
       <c r="K65" s="7">
-        <v>84017</v>
+        <v>84014</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A66">
-        <v>3029</v>
+        <v>3026</v>
       </c>
       <c r="B66" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C66">
         <v>8</v>
       </c>
       <c r="D66" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E66" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F66" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G66" t="s">
         <v>164</v>
@@ -4365,27 +4377,27 @@
         <v>150</v>
       </c>
       <c r="K66" s="7">
-        <v>84018</v>
+        <v>84015</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A67">
-        <v>3030</v>
+        <v>3027</v>
       </c>
       <c r="B67" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C67">
         <v>8</v>
       </c>
       <c r="D67" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E67" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F67" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G67" t="s">
         <v>164</v>
@@ -4397,27 +4409,27 @@
         <v>150</v>
       </c>
       <c r="K67" s="7">
-        <v>84019</v>
+        <v>84016</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A68">
-        <v>3031</v>
+        <v>3028</v>
       </c>
       <c r="B68" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C68">
         <v>8</v>
       </c>
       <c r="D68" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E68" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F68" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G68" t="s">
         <v>164</v>
@@ -4429,27 +4441,27 @@
         <v>150</v>
       </c>
       <c r="K68" s="7">
-        <v>84020</v>
+        <v>84017</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A69">
-        <v>3032</v>
+        <v>3029</v>
       </c>
       <c r="B69" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="C69">
         <v>8</v>
       </c>
       <c r="D69" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E69" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F69" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G69" t="s">
         <v>164</v>
@@ -4461,27 +4473,27 @@
         <v>150</v>
       </c>
       <c r="K69" s="7">
-        <v>84021</v>
+        <v>84018</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A70">
-        <v>3033</v>
+        <v>3030</v>
       </c>
       <c r="B70" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="C70">
         <v>8</v>
       </c>
       <c r="D70" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E70" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F70" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G70" t="s">
         <v>164</v>
@@ -4493,27 +4505,27 @@
         <v>150</v>
       </c>
       <c r="K70" s="7">
-        <v>84022</v>
+        <v>84019</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A71">
-        <v>3034</v>
+        <v>3031</v>
       </c>
       <c r="B71" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="C71">
         <v>8</v>
       </c>
       <c r="D71" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E71" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F71" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G71" t="s">
         <v>164</v>
@@ -4525,27 +4537,27 @@
         <v>150</v>
       </c>
       <c r="K71" s="7">
-        <v>84023</v>
+        <v>84020</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A72">
-        <v>3035</v>
+        <v>3032</v>
       </c>
       <c r="B72" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C72">
         <v>8</v>
       </c>
       <c r="D72" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E72" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F72" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G72" t="s">
         <v>164</v>
@@ -4557,27 +4569,27 @@
         <v>150</v>
       </c>
       <c r="K72" s="7">
-        <v>84024</v>
+        <v>84021</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A73">
-        <v>3036</v>
+        <v>3033</v>
       </c>
       <c r="B73" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C73">
         <v>8</v>
       </c>
       <c r="D73" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E73" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F73" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G73" t="s">
         <v>164</v>
@@ -4589,27 +4601,27 @@
         <v>150</v>
       </c>
       <c r="K73" s="7">
-        <v>84025</v>
+        <v>84022</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A74">
-        <v>3037</v>
+        <v>3034</v>
       </c>
       <c r="B74" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C74">
         <v>8</v>
       </c>
       <c r="D74" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E74" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F74" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G74" t="s">
         <v>164</v>
@@ -4621,27 +4633,27 @@
         <v>150</v>
       </c>
       <c r="K74" s="7">
-        <v>84026</v>
+        <v>84023</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A75">
-        <v>3038</v>
+        <v>3035</v>
       </c>
       <c r="B75" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C75">
         <v>8</v>
       </c>
       <c r="D75" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E75" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F75" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G75" t="s">
         <v>164</v>
@@ -4653,27 +4665,27 @@
         <v>150</v>
       </c>
       <c r="K75" s="7">
-        <v>84027</v>
+        <v>84024</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A76">
-        <v>3039</v>
+        <v>3036</v>
       </c>
       <c r="B76" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C76">
         <v>8</v>
       </c>
       <c r="D76" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E76" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F76" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G76" t="s">
         <v>164</v>
@@ -4685,27 +4697,27 @@
         <v>150</v>
       </c>
       <c r="K76" s="7">
-        <v>84028</v>
+        <v>84025</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A77">
-        <v>3040</v>
+        <v>3037</v>
       </c>
       <c r="B77" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C77">
         <v>8</v>
       </c>
       <c r="D77" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E77" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F77" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G77" t="s">
         <v>164</v>
@@ -4717,27 +4729,27 @@
         <v>150</v>
       </c>
       <c r="K77" s="7">
-        <v>84029</v>
+        <v>84026</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A78">
-        <v>3041</v>
+        <v>3038</v>
       </c>
       <c r="B78" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C78">
         <v>8</v>
       </c>
       <c r="D78" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E78" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F78" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G78" t="s">
         <v>164</v>
@@ -4749,27 +4761,27 @@
         <v>150</v>
       </c>
       <c r="K78" s="7">
-        <v>84030</v>
+        <v>84027</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A79">
-        <v>3042</v>
+        <v>3039</v>
       </c>
       <c r="B79" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="C79">
         <v>8</v>
       </c>
       <c r="D79" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E79" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F79" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G79" t="s">
         <v>164</v>
@@ -4781,27 +4793,27 @@
         <v>150</v>
       </c>
       <c r="K79" s="7">
-        <v>84031</v>
+        <v>84028</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A80">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="B80" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="C80">
         <v>8</v>
       </c>
       <c r="D80" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E80" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F80" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G80" t="s">
         <v>164</v>
@@ -4813,27 +4825,27 @@
         <v>150</v>
       </c>
       <c r="K80" s="7">
-        <v>84032</v>
+        <v>84029</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A81">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="B81" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="C81">
         <v>8</v>
       </c>
       <c r="D81" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E81" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F81" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G81" t="s">
         <v>164</v>
@@ -4845,27 +4857,27 @@
         <v>150</v>
       </c>
       <c r="K81" s="7">
-        <v>84033</v>
+        <v>84030</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A82">
-        <v>3045</v>
+        <v>3042</v>
       </c>
       <c r="B82" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C82">
         <v>8</v>
       </c>
       <c r="D82" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E82" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F82" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G82" t="s">
         <v>164</v>
@@ -4877,27 +4889,27 @@
         <v>150</v>
       </c>
       <c r="K82" s="7">
-        <v>84034</v>
+        <v>84031</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A83">
-        <v>3046</v>
+        <v>3043</v>
       </c>
       <c r="B83" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C83">
         <v>8</v>
       </c>
       <c r="D83" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E83" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F83" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G83" t="s">
         <v>164</v>
@@ -4909,27 +4921,27 @@
         <v>150</v>
       </c>
       <c r="K83" s="7">
-        <v>84035</v>
+        <v>84032</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A84">
-        <v>3047</v>
+        <v>3044</v>
       </c>
       <c r="B84" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C84">
         <v>8</v>
       </c>
       <c r="D84" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E84" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F84" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G84" t="s">
         <v>164</v>
@@ -4941,27 +4953,27 @@
         <v>150</v>
       </c>
       <c r="K84" s="7">
-        <v>84036</v>
+        <v>84033</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A85">
-        <v>3048</v>
+        <v>3045</v>
       </c>
       <c r="B85" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C85">
         <v>8</v>
       </c>
       <c r="D85" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E85" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F85" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G85" t="s">
         <v>164</v>
@@ -4973,27 +4985,27 @@
         <v>150</v>
       </c>
       <c r="K85" s="7">
-        <v>84037</v>
+        <v>84034</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A86">
-        <v>3049</v>
+        <v>3046</v>
       </c>
       <c r="B86" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="C86">
         <v>8</v>
       </c>
       <c r="D86" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E86" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F86" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G86" t="s">
         <v>164</v>
@@ -5004,28 +5016,28 @@
       <c r="J86">
         <v>150</v>
       </c>
-      <c r="K86" s="6">
-        <v>83306</v>
+      <c r="K86" s="7">
+        <v>84035</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A87">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="B87" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="C87">
         <v>8</v>
       </c>
       <c r="D87" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E87" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F87" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G87" t="s">
         <v>164</v>
@@ -5036,28 +5048,28 @@
       <c r="J87">
         <v>150</v>
       </c>
-      <c r="K87" s="6">
-        <v>83307</v>
+      <c r="K87" s="7">
+        <v>84036</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A88">
-        <v>3051</v>
+        <v>3048</v>
       </c>
       <c r="B88" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="C88">
         <v>8</v>
       </c>
       <c r="D88" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E88" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F88" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G88" t="s">
         <v>164</v>
@@ -5068,28 +5080,28 @@
       <c r="J88">
         <v>150</v>
       </c>
-      <c r="K88" s="6">
-        <v>83308</v>
+      <c r="K88" s="7">
+        <v>84037</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A89">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="B89" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C89">
         <v>8</v>
       </c>
       <c r="D89" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E89" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F89" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G89" t="s">
         <v>164</v>
@@ -5101,27 +5113,27 @@
         <v>150</v>
       </c>
       <c r="K89" s="6">
-        <v>83309</v>
+        <v>83306</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A90">
-        <v>3053</v>
+        <v>3050</v>
       </c>
       <c r="B90" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C90">
         <v>8</v>
       </c>
       <c r="D90" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E90" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F90" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G90" t="s">
         <v>164</v>
@@ -5133,27 +5145,27 @@
         <v>150</v>
       </c>
       <c r="K90" s="6">
-        <v>83310</v>
+        <v>83307</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A91">
-        <v>3054</v>
+        <v>3051</v>
       </c>
       <c r="B91" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C91">
         <v>8</v>
       </c>
       <c r="D91" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E91" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F91" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G91" t="s">
         <v>164</v>
@@ -5165,27 +5177,27 @@
         <v>150</v>
       </c>
       <c r="K91" s="6">
-        <v>83311</v>
+        <v>83308</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A92">
-        <v>3055</v>
+        <v>3052</v>
       </c>
       <c r="B92" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C92">
         <v>8</v>
       </c>
       <c r="D92" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E92" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F92" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G92" t="s">
         <v>164</v>
@@ -5197,27 +5209,27 @@
         <v>150</v>
       </c>
       <c r="K92" s="6">
-        <v>83312</v>
+        <v>83309</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A93">
-        <v>3056</v>
+        <v>3053</v>
       </c>
       <c r="B93" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C93">
         <v>8</v>
       </c>
       <c r="D93" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E93" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F93" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G93" t="s">
         <v>164</v>
@@ -5229,27 +5241,27 @@
         <v>150</v>
       </c>
       <c r="K93" s="6">
-        <v>83313</v>
+        <v>83310</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A94">
-        <v>3057</v>
+        <v>3054</v>
       </c>
       <c r="B94" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C94">
         <v>8</v>
       </c>
       <c r="D94" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E94" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F94" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G94" t="s">
         <v>164</v>
@@ -5261,27 +5273,27 @@
         <v>150</v>
       </c>
       <c r="K94" s="6">
-        <v>83314</v>
+        <v>83311</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A95">
-        <v>3058</v>
+        <v>3055</v>
       </c>
       <c r="B95" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C95">
         <v>8</v>
       </c>
       <c r="D95" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E95" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F95" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G95" t="s">
         <v>164</v>
@@ -5293,6 +5305,102 @@
         <v>150</v>
       </c>
       <c r="K95" s="6">
+        <v>83312</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A96">
+        <v>3056</v>
+      </c>
+      <c r="B96" t="s">
+        <v>289</v>
+      </c>
+      <c r="C96">
+        <v>8</v>
+      </c>
+      <c r="D96" t="s">
+        <v>221</v>
+      </c>
+      <c r="E96" t="s">
+        <v>221</v>
+      </c>
+      <c r="F96" t="s">
+        <v>279</v>
+      </c>
+      <c r="G96" t="s">
+        <v>164</v>
+      </c>
+      <c r="I96">
+        <v>9004</v>
+      </c>
+      <c r="J96">
+        <v>150</v>
+      </c>
+      <c r="K96" s="6">
+        <v>83313</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A97">
+        <v>3057</v>
+      </c>
+      <c r="B97" t="s">
+        <v>290</v>
+      </c>
+      <c r="C97">
+        <v>8</v>
+      </c>
+      <c r="D97" t="s">
+        <v>222</v>
+      </c>
+      <c r="E97" t="s">
+        <v>222</v>
+      </c>
+      <c r="F97" t="s">
+        <v>280</v>
+      </c>
+      <c r="G97" t="s">
+        <v>164</v>
+      </c>
+      <c r="I97">
+        <v>9004</v>
+      </c>
+      <c r="J97">
+        <v>150</v>
+      </c>
+      <c r="K97" s="6">
+        <v>83314</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A98">
+        <v>3058</v>
+      </c>
+      <c r="B98" t="s">
+        <v>291</v>
+      </c>
+      <c r="C98">
+        <v>8</v>
+      </c>
+      <c r="D98" t="s">
+        <v>223</v>
+      </c>
+      <c r="E98" t="s">
+        <v>223</v>
+      </c>
+      <c r="F98" t="s">
+        <v>281</v>
+      </c>
+      <c r="G98" t="s">
+        <v>164</v>
+      </c>
+      <c r="I98">
+        <v>9004</v>
+      </c>
+      <c r="J98">
+        <v>150</v>
+      </c>
+      <c r="K98" s="6">
         <v>83315</v>
       </c>
     </row>

--- a/Config/Excel/Shop.xlsx
+++ b/Config/Excel/Shop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B158EF-901D-4161-B877-8DCDFE8B9D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39C009C-7EEA-4348-B895-08978E6C5052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DE9042F4-05E2-4CBA-95A7-AC962596AF59}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="348">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1218,18 +1218,6 @@
     <t>150個</t>
   </si>
   <si>
-    <t>剣1</t>
-  </si>
-  <si>
-    <t>剣2</t>
-  </si>
-  <si>
-    <t>杖3</t>
-  </si>
-  <si>
-    <t>弓3</t>
-  </si>
-  <si>
     <t>ガチャチケット</t>
   </si>
   <si>
@@ -1395,18 +1383,6 @@
     <t>黄色のソファ</t>
   </si>
   <si>
-    <t>剣1を1個獲得することができます。</t>
-  </si>
-  <si>
-    <t>剣2を1個獲得することができます。</t>
-  </si>
-  <si>
-    <t>杖3を1個獲得することができます。</t>
-  </si>
-  <si>
-    <t>弓3を1個獲得することができます。</t>
-  </si>
-  <si>
     <t>ガチャチケットを1個獲得することができます。</t>
   </si>
   <si>
@@ -1776,6 +1752,52 @@
   </si>
   <si>
     <t>500個</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホーリーソード</t>
+  </si>
+  <si>
+    <t>ホーリーソード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホーリーソードを1個獲得することができます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>石の剣</t>
+  </si>
+  <si>
+    <t>石の剣</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>石の剣を1個獲得することができます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>理性の杖</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>理性の杖を1個獲得することができます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エイムボウ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エイムボウを1個獲得することができます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/itemcoin_2d_007</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/itemcoin_2d_008</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2271,7 +2293,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2561,19 +2583,19 @@
         <v>100</v>
       </c>
       <c r="B10" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="C10">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E10" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F10" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="G10" t="s">
         <v>17</v>
@@ -2593,22 +2615,22 @@
         <v>101</v>
       </c>
       <c r="B11" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="C11">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E11" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F11" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="G11" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="I11">
         <v>9000</v>
@@ -2625,19 +2647,19 @@
         <v>102</v>
       </c>
       <c r="B12" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="C12">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F12" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="G12" t="s">
         <v>18</v>
@@ -3500,19 +3522,19 @@
         <v>3000</v>
       </c>
       <c r="B40" t="s">
+        <v>328</v>
+      </c>
+      <c r="C40">
+        <v>8</v>
+      </c>
+      <c r="D40" t="s">
         <v>336</v>
       </c>
-      <c r="C40">
-        <v>8</v>
-      </c>
-      <c r="D40" t="s">
-        <v>165</v>
-      </c>
       <c r="E40" t="s">
-        <v>165</v>
+        <v>337</v>
       </c>
       <c r="F40" t="s">
-        <v>224</v>
+        <v>338</v>
       </c>
       <c r="G40" t="s">
         <v>158</v>
@@ -3535,19 +3557,19 @@
         <v>3001</v>
       </c>
       <c r="B41" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="C41">
         <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>166</v>
+        <v>339</v>
       </c>
       <c r="E41" t="s">
-        <v>166</v>
+        <v>340</v>
       </c>
       <c r="F41" t="s">
-        <v>225</v>
+        <v>341</v>
       </c>
       <c r="G41" t="s">
         <v>159</v>
@@ -3570,19 +3592,19 @@
         <v>3002</v>
       </c>
       <c r="B42" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="C42">
         <v>8</v>
       </c>
       <c r="D42" t="s">
-        <v>167</v>
+        <v>342</v>
       </c>
       <c r="E42" t="s">
-        <v>167</v>
+        <v>342</v>
       </c>
       <c r="F42" t="s">
-        <v>226</v>
+        <v>343</v>
       </c>
       <c r="G42" t="s">
         <v>159</v>
@@ -3605,19 +3627,19 @@
         <v>3003</v>
       </c>
       <c r="B43" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="C43">
         <v>8</v>
       </c>
       <c r="D43" t="s">
-        <v>168</v>
+        <v>344</v>
       </c>
       <c r="E43" t="s">
-        <v>168</v>
+        <v>344</v>
       </c>
       <c r="F43" t="s">
-        <v>227</v>
+        <v>345</v>
       </c>
       <c r="G43" t="s">
         <v>159</v>
@@ -3640,19 +3662,19 @@
         <v>3004</v>
       </c>
       <c r="B44" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="C44">
         <v>8</v>
       </c>
       <c r="D44" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E44" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F44" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G44" t="s">
         <v>160</v>
@@ -3675,19 +3697,19 @@
         <v>3005</v>
       </c>
       <c r="B45" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="C45">
         <v>8</v>
       </c>
       <c r="D45" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E45" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F45" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="G45" t="s">
         <v>161</v>
@@ -3716,13 +3738,13 @@
         <v>8</v>
       </c>
       <c r="D46" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E46" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F46" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="G46" t="s">
         <v>162</v>
@@ -3745,19 +3767,19 @@
         <v>3007</v>
       </c>
       <c r="B47" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="C47">
         <v>8</v>
       </c>
       <c r="D47" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E47" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F47" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="G47" t="s">
         <v>163</v>
@@ -3777,19 +3799,19 @@
         <v>3008</v>
       </c>
       <c r="B48" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C48">
         <v>8</v>
       </c>
       <c r="D48" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E48" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F48" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="G48" t="s">
         <v>163</v>
@@ -3809,19 +3831,19 @@
         <v>3009</v>
       </c>
       <c r="B49" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="C49">
         <v>8</v>
       </c>
       <c r="D49" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E49" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F49" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G49" t="s">
         <v>163</v>
@@ -3841,19 +3863,19 @@
         <v>3010</v>
       </c>
       <c r="B50" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="C50">
         <v>8</v>
       </c>
       <c r="D50" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E50" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F50" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="G50" t="s">
         <v>163</v>
@@ -3873,19 +3895,19 @@
         <v>3011</v>
       </c>
       <c r="B51" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="C51">
         <v>8</v>
       </c>
       <c r="D51" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E51" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F51" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="G51" t="s">
         <v>163</v>
@@ -3905,19 +3927,19 @@
         <v>3012</v>
       </c>
       <c r="B52" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="C52">
         <v>8</v>
       </c>
       <c r="D52" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E52" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F52" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G52" t="s">
         <v>163</v>
@@ -3937,19 +3959,19 @@
         <v>3013</v>
       </c>
       <c r="B53" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="C53">
         <v>8</v>
       </c>
       <c r="D53" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E53" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F53" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="G53" t="s">
         <v>163</v>
@@ -3969,19 +3991,19 @@
         <v>3014</v>
       </c>
       <c r="B54" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="C54">
         <v>8</v>
       </c>
       <c r="D54" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E54" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F54" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="G54" t="s">
         <v>163</v>
@@ -4001,19 +4023,19 @@
         <v>3015</v>
       </c>
       <c r="B55" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="C55">
         <v>8</v>
       </c>
       <c r="D55" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E55" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F55" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="G55" t="s">
         <v>163</v>
@@ -4033,19 +4055,19 @@
         <v>3016</v>
       </c>
       <c r="B56" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="C56">
         <v>8</v>
       </c>
       <c r="D56" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E56" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F56" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="G56" t="s">
         <v>163</v>
@@ -4065,19 +4087,19 @@
         <v>3017</v>
       </c>
       <c r="B57" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="C57">
         <v>8</v>
       </c>
       <c r="D57" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E57" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F57" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="G57" t="s">
         <v>163</v>
@@ -4097,19 +4119,19 @@
         <v>3018</v>
       </c>
       <c r="B58" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="C58">
         <v>8</v>
       </c>
       <c r="D58" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E58" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F58" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="G58" t="s">
         <v>163</v>
@@ -4129,19 +4151,19 @@
         <v>3019</v>
       </c>
       <c r="B59" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="C59">
         <v>8</v>
       </c>
       <c r="D59" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E59" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F59" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="G59" t="s">
         <v>163</v>
@@ -4161,19 +4183,19 @@
         <v>3020</v>
       </c>
       <c r="B60" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="C60">
         <v>8</v>
       </c>
       <c r="D60" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E60" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F60" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="G60" t="s">
         <v>163</v>
@@ -4193,19 +4215,19 @@
         <v>3021</v>
       </c>
       <c r="B61" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="C61">
         <v>8</v>
       </c>
       <c r="D61" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E61" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F61" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="G61" t="s">
         <v>163</v>
@@ -4225,19 +4247,19 @@
         <v>3022</v>
       </c>
       <c r="B62" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="C62">
         <v>8</v>
       </c>
       <c r="D62" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E62" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F62" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="G62" t="s">
         <v>164</v>
@@ -4257,19 +4279,19 @@
         <v>3023</v>
       </c>
       <c r="B63" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="C63">
         <v>8</v>
       </c>
       <c r="D63" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E63" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F63" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="G63" t="s">
         <v>164</v>
@@ -4289,19 +4311,19 @@
         <v>3024</v>
       </c>
       <c r="B64" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="C64">
         <v>8</v>
       </c>
       <c r="D64" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E64" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F64" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="G64" t="s">
         <v>164</v>
@@ -4321,19 +4343,19 @@
         <v>3025</v>
       </c>
       <c r="B65" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="C65">
         <v>8</v>
       </c>
       <c r="D65" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E65" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F65" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="G65" t="s">
         <v>164</v>
@@ -4353,19 +4375,19 @@
         <v>3026</v>
       </c>
       <c r="B66" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="C66">
         <v>8</v>
       </c>
       <c r="D66" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E66" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F66" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="G66" t="s">
         <v>164</v>
@@ -4385,19 +4407,19 @@
         <v>3027</v>
       </c>
       <c r="B67" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="C67">
         <v>8</v>
       </c>
       <c r="D67" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E67" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F67" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="G67" t="s">
         <v>164</v>
@@ -4417,19 +4439,19 @@
         <v>3028</v>
       </c>
       <c r="B68" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C68">
         <v>8</v>
       </c>
       <c r="D68" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E68" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F68" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="G68" t="s">
         <v>164</v>
@@ -4449,19 +4471,19 @@
         <v>3029</v>
       </c>
       <c r="B69" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="C69">
         <v>8</v>
       </c>
       <c r="D69" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E69" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F69" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="G69" t="s">
         <v>164</v>
@@ -4481,19 +4503,19 @@
         <v>3030</v>
       </c>
       <c r="B70" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="C70">
         <v>8</v>
       </c>
       <c r="D70" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E70" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F70" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G70" t="s">
         <v>164</v>
@@ -4513,19 +4535,19 @@
         <v>3031</v>
       </c>
       <c r="B71" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="C71">
         <v>8</v>
       </c>
       <c r="D71" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E71" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F71" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="G71" t="s">
         <v>164</v>
@@ -4545,19 +4567,19 @@
         <v>3032</v>
       </c>
       <c r="B72" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="C72">
         <v>8</v>
       </c>
       <c r="D72" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E72" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F72" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="G72" t="s">
         <v>164</v>
@@ -4577,19 +4599,19 @@
         <v>3033</v>
       </c>
       <c r="B73" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="C73">
         <v>8</v>
       </c>
       <c r="D73" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E73" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F73" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="G73" t="s">
         <v>164</v>
@@ -4609,19 +4631,19 @@
         <v>3034</v>
       </c>
       <c r="B74" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C74">
         <v>8</v>
       </c>
       <c r="D74" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E74" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F74" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="G74" t="s">
         <v>164</v>
@@ -4641,19 +4663,19 @@
         <v>3035</v>
       </c>
       <c r="B75" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="C75">
         <v>8</v>
       </c>
       <c r="D75" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E75" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F75" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="G75" t="s">
         <v>164</v>
@@ -4673,19 +4695,19 @@
         <v>3036</v>
       </c>
       <c r="B76" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="C76">
         <v>8</v>
       </c>
       <c r="D76" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E76" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F76" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="G76" t="s">
         <v>164</v>
@@ -4705,19 +4727,19 @@
         <v>3037</v>
       </c>
       <c r="B77" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="C77">
         <v>8</v>
       </c>
       <c r="D77" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E77" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F77" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="G77" t="s">
         <v>164</v>
@@ -4737,19 +4759,19 @@
         <v>3038</v>
       </c>
       <c r="B78" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="C78">
         <v>8</v>
       </c>
       <c r="D78" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E78" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F78" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="G78" t="s">
         <v>164</v>
@@ -4769,19 +4791,19 @@
         <v>3039</v>
       </c>
       <c r="B79" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="C79">
         <v>8</v>
       </c>
       <c r="D79" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E79" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F79" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="G79" t="s">
         <v>164</v>
@@ -4801,19 +4823,19 @@
         <v>3040</v>
       </c>
       <c r="B80" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="C80">
         <v>8</v>
       </c>
       <c r="D80" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E80" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F80" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="G80" t="s">
         <v>164</v>
@@ -4833,19 +4855,19 @@
         <v>3041</v>
       </c>
       <c r="B81" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="C81">
         <v>8</v>
       </c>
       <c r="D81" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E81" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F81" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="G81" t="s">
         <v>164</v>
@@ -4865,19 +4887,19 @@
         <v>3042</v>
       </c>
       <c r="B82" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="C82">
         <v>8</v>
       </c>
       <c r="D82" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E82" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F82" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="G82" t="s">
         <v>164</v>
@@ -4897,19 +4919,19 @@
         <v>3043</v>
       </c>
       <c r="B83" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="C83">
         <v>8</v>
       </c>
       <c r="D83" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E83" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F83" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="G83" t="s">
         <v>164</v>
@@ -4929,19 +4951,19 @@
         <v>3044</v>
       </c>
       <c r="B84" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="C84">
         <v>8</v>
       </c>
       <c r="D84" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E84" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F84" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="G84" t="s">
         <v>164</v>
@@ -4961,19 +4983,19 @@
         <v>3045</v>
       </c>
       <c r="B85" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="C85">
         <v>8</v>
       </c>
       <c r="D85" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E85" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F85" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="G85" t="s">
         <v>164</v>
@@ -4993,19 +5015,19 @@
         <v>3046</v>
       </c>
       <c r="B86" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="C86">
         <v>8</v>
       </c>
       <c r="D86" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E86" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F86" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="G86" t="s">
         <v>164</v>
@@ -5025,19 +5047,19 @@
         <v>3047</v>
       </c>
       <c r="B87" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="C87">
         <v>8</v>
       </c>
       <c r="D87" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E87" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F87" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="G87" t="s">
         <v>164</v>
@@ -5057,19 +5079,19 @@
         <v>3048</v>
       </c>
       <c r="B88" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="C88">
         <v>8</v>
       </c>
       <c r="D88" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E88" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F88" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="G88" t="s">
         <v>164</v>
@@ -5089,19 +5111,19 @@
         <v>3049</v>
       </c>
       <c r="B89" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C89">
         <v>8</v>
       </c>
       <c r="D89" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E89" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F89" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="G89" t="s">
         <v>164</v>
@@ -5121,19 +5143,19 @@
         <v>3050</v>
       </c>
       <c r="B90" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="C90">
         <v>8</v>
       </c>
       <c r="D90" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E90" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F90" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="G90" t="s">
         <v>164</v>
@@ -5153,19 +5175,19 @@
         <v>3051</v>
       </c>
       <c r="B91" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C91">
         <v>8</v>
       </c>
       <c r="D91" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E91" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F91" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="G91" t="s">
         <v>164</v>
@@ -5185,19 +5207,19 @@
         <v>3052</v>
       </c>
       <c r="B92" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C92">
         <v>8</v>
       </c>
       <c r="D92" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E92" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F92" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="G92" t="s">
         <v>164</v>
@@ -5217,19 +5239,19 @@
         <v>3053</v>
       </c>
       <c r="B93" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C93">
         <v>8</v>
       </c>
       <c r="D93" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E93" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F93" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="G93" t="s">
         <v>164</v>
@@ -5249,19 +5271,19 @@
         <v>3054</v>
       </c>
       <c r="B94" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C94">
         <v>8</v>
       </c>
       <c r="D94" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E94" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F94" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="G94" t="s">
         <v>164</v>
@@ -5281,19 +5303,19 @@
         <v>3055</v>
       </c>
       <c r="B95" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="C95">
         <v>8</v>
       </c>
       <c r="D95" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E95" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F95" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="G95" t="s">
         <v>164</v>
@@ -5313,19 +5335,19 @@
         <v>3056</v>
       </c>
       <c r="B96" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="C96">
         <v>8</v>
       </c>
       <c r="D96" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E96" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F96" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="G96" t="s">
         <v>164</v>
@@ -5345,19 +5367,19 @@
         <v>3057</v>
       </c>
       <c r="B97" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="C97">
         <v>8</v>
       </c>
       <c r="D97" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E97" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F97" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="G97" t="s">
         <v>164</v>
@@ -5377,19 +5399,19 @@
         <v>3058</v>
       </c>
       <c r="B98" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="C98">
         <v>8</v>
       </c>
       <c r="D98" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E98" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F98" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="G98" t="s">
         <v>164</v>

--- a/Config/Excel/Shop.xlsx
+++ b/Config/Excel/Shop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39C009C-7EEA-4348-B895-08978E6C5052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14469DC0-7AA5-45E5-90DE-F0F6D32211D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DE9042F4-05E2-4CBA-95A7-AC962596AF59}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="349">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1798,6 +1798,10 @@
   </si>
   <si>
     <t>Textures/itemcoin_2d_008</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/itemcoin_2d_009</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2290,10 +2294,10 @@
   <dimension ref="A1:L98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomRight" activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3732,7 +3736,7 @@
         <v>3006</v>
       </c>
       <c r="B46" t="s">
-        <v>111</v>
+        <v>348</v>
       </c>
       <c r="C46">
         <v>8</v>

--- a/Config/Excel/Shop.xlsx
+++ b/Config/Excel/Shop.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14469DC0-7AA5-45E5-90DE-F0F6D32211D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F41083-941F-4773-894C-6AF4FC2B0068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DE9042F4-05E2-4CBA-95A7-AC962596AF59}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DE9042F4-05E2-4CBA-95A7-AC962596AF59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="350">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1743,14 +1743,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>3倍チケットを6個獲得することができます。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3倍チケットを15個獲得することができます。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>500個</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1802,6 +1794,36 @@
   </si>
   <si>
     <t>Textures/itemcoin_2d_009</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3倍チケットを1個獲得することができます。
+3倍チケットを使用すると、冒険でのフロア報酬が3倍になります。</t>
+    <rPh sb="23" eb="24">
+      <t>バイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ボウケン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ホウシュウ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>バイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3倍チケットを6個獲得することができます。
+3倍チケットを使用すると、冒険でのフロア報酬が3倍になります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3倍チケットを15個獲得することができます。
+3倍チケットを使用すると、冒険でのフロア報酬が3倍になります。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1931,7 +1953,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1955,6 +1977,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2294,25 +2319,25 @@
   <dimension ref="A1:L98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C48" sqref="C48"/>
+      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="25.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.625" customWidth="1"/>
-    <col min="4" max="4" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.875" customWidth="1"/>
-    <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.59765625" customWidth="1"/>
+    <col min="4" max="4" width="19.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40" customWidth="1"/>
+    <col min="7" max="7" width="11.09765625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.5" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2350,7 +2375,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2379,7 +2404,7 @@
         <v>10001</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2408,7 +2433,7 @@
         <v>10002</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2437,7 +2462,7 @@
         <v>10003</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2466,7 +2491,7 @@
         <v>10004</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2495,7 +2520,7 @@
         <v>10005</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>80</v>
       </c>
@@ -2524,7 +2549,7 @@
         <v>10080</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>81</v>
       </c>
@@ -2553,7 +2578,7 @@
         <v>10081</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>82</v>
       </c>
@@ -2582,7 +2607,7 @@
         <v>10082</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" ht="54" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>100</v>
       </c>
@@ -2598,8 +2623,8 @@
       <c r="E10" t="s">
         <v>166</v>
       </c>
-      <c r="F10" t="s">
-        <v>221</v>
+      <c r="F10" s="8" t="s">
+        <v>347</v>
       </c>
       <c r="G10" t="s">
         <v>17</v>
@@ -2614,12 +2639,12 @@
         <v>84002</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" ht="54" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>101</v>
       </c>
       <c r="B11" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -2630,11 +2655,11 @@
       <c r="E11" t="s">
         <v>166</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="G11" t="s">
         <v>333</v>
-      </c>
-      <c r="G11" t="s">
-        <v>335</v>
       </c>
       <c r="I11">
         <v>9000</v>
@@ -2646,12 +2671,12 @@
         <v>84038</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" ht="54" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>102</v>
       </c>
       <c r="B12" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -2662,8 +2687,8 @@
       <c r="E12" t="s">
         <v>166</v>
       </c>
-      <c r="F12" t="s">
-        <v>334</v>
+      <c r="F12" s="8" t="s">
+        <v>349</v>
       </c>
       <c r="G12" t="s">
         <v>18</v>
@@ -2678,7 +2703,7 @@
         <v>84039</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>103</v>
       </c>
@@ -2710,7 +2735,7 @@
         <v>11001</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>104</v>
       </c>
@@ -2742,7 +2767,7 @@
         <v>11002</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>105</v>
       </c>
@@ -2774,7 +2799,7 @@
         <v>11003</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>106</v>
       </c>
@@ -2806,7 +2831,7 @@
         <v>11004</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>107</v>
       </c>
@@ -2838,7 +2863,7 @@
         <v>11005</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>108</v>
       </c>
@@ -2870,7 +2895,7 @@
         <v>12001</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>200</v>
       </c>
@@ -2902,7 +2927,7 @@
         <v>12002</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>201</v>
       </c>
@@ -2934,7 +2959,7 @@
         <v>12003</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>202</v>
       </c>
@@ -2966,7 +2991,7 @@
         <v>12004</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>203</v>
       </c>
@@ -2998,7 +3023,7 @@
         <v>12005</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>204</v>
       </c>
@@ -3030,7 +3055,7 @@
         <v>12006</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>205</v>
       </c>
@@ -3062,7 +3087,7 @@
         <v>12007</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>206</v>
       </c>
@@ -3094,7 +3119,7 @@
         <v>12008</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>207</v>
       </c>
@@ -3126,7 +3151,7 @@
         <v>12009</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>208</v>
       </c>
@@ -3158,7 +3183,7 @@
         <v>12010</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>209</v>
       </c>
@@ -3190,7 +3215,7 @@
         <v>12011</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>210</v>
       </c>
@@ -3222,7 +3247,7 @@
         <v>12012</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>211</v>
       </c>
@@ -3254,7 +3279,7 @@
         <v>12013</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>212</v>
       </c>
@@ -3286,7 +3311,7 @@
         <v>12014</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>1000</v>
       </c>
@@ -3318,7 +3343,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>2000</v>
       </c>
@@ -3347,7 +3372,7 @@
         <v>14001</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>2001</v>
       </c>
@@ -3376,7 +3401,7 @@
         <v>14002</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>2002</v>
       </c>
@@ -3405,7 +3430,7 @@
         <v>14003</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>2003</v>
       </c>
@@ -3434,7 +3459,7 @@
         <v>14004</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>2004</v>
       </c>
@@ -3463,7 +3488,7 @@
         <v>14005</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>2005</v>
       </c>
@@ -3492,7 +3517,7 @@
         <v>14006</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>2006</v>
       </c>
@@ -3521,7 +3546,7 @@
         <v>14007</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>3000</v>
       </c>
@@ -3532,13 +3557,13 @@
         <v>8</v>
       </c>
       <c r="D40" t="s">
+        <v>334</v>
+      </c>
+      <c r="E40" t="s">
+        <v>335</v>
+      </c>
+      <c r="F40" t="s">
         <v>336</v>
-      </c>
-      <c r="E40" t="s">
-        <v>337</v>
-      </c>
-      <c r="F40" t="s">
-        <v>338</v>
       </c>
       <c r="G40" t="s">
         <v>158</v>
@@ -3556,7 +3581,7 @@
         <v>83001</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>3001</v>
       </c>
@@ -3567,13 +3592,13 @@
         <v>8</v>
       </c>
       <c r="D41" t="s">
+        <v>337</v>
+      </c>
+      <c r="E41" t="s">
+        <v>338</v>
+      </c>
+      <c r="F41" t="s">
         <v>339</v>
-      </c>
-      <c r="E41" t="s">
-        <v>340</v>
-      </c>
-      <c r="F41" t="s">
-        <v>341</v>
       </c>
       <c r="G41" t="s">
         <v>159</v>
@@ -3591,7 +3616,7 @@
         <v>83007</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>3002</v>
       </c>
@@ -3602,13 +3627,13 @@
         <v>8</v>
       </c>
       <c r="D42" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E42" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F42" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G42" t="s">
         <v>159</v>
@@ -3626,7 +3651,7 @@
         <v>83005</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>3003</v>
       </c>
@@ -3637,13 +3662,13 @@
         <v>8</v>
       </c>
       <c r="D43" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E43" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F43" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G43" t="s">
         <v>159</v>
@@ -3661,7 +3686,7 @@
         <v>83006</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>3004</v>
       </c>
@@ -3696,7 +3721,7 @@
         <v>84001</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>3005</v>
       </c>
@@ -3731,12 +3756,12 @@
         <v>84002</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>3006</v>
       </c>
       <c r="B46" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C46">
         <v>8</v>
@@ -3766,7 +3791,7 @@
         <v>84003</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>3007</v>
       </c>
@@ -3798,7 +3823,7 @@
         <v>81003</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>3008</v>
       </c>
@@ -3830,7 +3855,7 @@
         <v>81006</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>3009</v>
       </c>
@@ -3862,7 +3887,7 @@
         <v>81009</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>3010</v>
       </c>
@@ -3894,7 +3919,7 @@
         <v>84004</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>3011</v>
       </c>
@@ -3926,7 +3951,7 @@
         <v>84005</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>3012</v>
       </c>
@@ -3958,7 +3983,7 @@
         <v>84006</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>3013</v>
       </c>
@@ -3990,7 +4015,7 @@
         <v>84007</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>3014</v>
       </c>
@@ -4022,7 +4047,7 @@
         <v>84008</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>3015</v>
       </c>
@@ -4054,7 +4079,7 @@
         <v>84009</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>3016</v>
       </c>
@@ -4086,7 +4111,7 @@
         <v>84010</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>3017</v>
       </c>
@@ -4118,7 +4143,7 @@
         <v>80003</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>3018</v>
       </c>
@@ -4150,7 +4175,7 @@
         <v>80006</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>3019</v>
       </c>
@@ -4182,7 +4207,7 @@
         <v>80009</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>3020</v>
       </c>
@@ -4214,7 +4239,7 @@
         <v>80012</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>3021</v>
       </c>
@@ -4246,7 +4271,7 @@
         <v>80015</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>3022</v>
       </c>
@@ -4278,7 +4303,7 @@
         <v>84011</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>3023</v>
       </c>
@@ -4310,7 +4335,7 @@
         <v>84012</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>3024</v>
       </c>
@@ -4342,7 +4367,7 @@
         <v>84013</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>3025</v>
       </c>
@@ -4374,7 +4399,7 @@
         <v>84014</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>3026</v>
       </c>
@@ -4406,7 +4431,7 @@
         <v>84015</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>3027</v>
       </c>
@@ -4438,7 +4463,7 @@
         <v>84016</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>3028</v>
       </c>
@@ -4470,7 +4495,7 @@
         <v>84017</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>3029</v>
       </c>
@@ -4502,7 +4527,7 @@
         <v>84018</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>3030</v>
       </c>
@@ -4534,7 +4559,7 @@
         <v>84019</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>3031</v>
       </c>
@@ -4566,7 +4591,7 @@
         <v>84020</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>3032</v>
       </c>
@@ -4598,7 +4623,7 @@
         <v>84021</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>3033</v>
       </c>
@@ -4630,7 +4655,7 @@
         <v>84022</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>3034</v>
       </c>
@@ -4662,7 +4687,7 @@
         <v>84023</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>3035</v>
       </c>
@@ -4694,7 +4719,7 @@
         <v>84024</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>3036</v>
       </c>
@@ -4726,7 +4751,7 @@
         <v>84025</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>3037</v>
       </c>
@@ -4758,7 +4783,7 @@
         <v>84026</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>3038</v>
       </c>
@@ -4790,7 +4815,7 @@
         <v>84027</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>3039</v>
       </c>
@@ -4822,7 +4847,7 @@
         <v>84028</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>3040</v>
       </c>
@@ -4854,7 +4879,7 @@
         <v>84029</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>3041</v>
       </c>
@@ -4886,7 +4911,7 @@
         <v>84030</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>3042</v>
       </c>
@@ -4918,7 +4943,7 @@
         <v>84031</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>3043</v>
       </c>
@@ -4950,7 +4975,7 @@
         <v>84032</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>3044</v>
       </c>
@@ -4982,7 +5007,7 @@
         <v>84033</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>3045</v>
       </c>
@@ -5014,7 +5039,7 @@
         <v>84034</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>3046</v>
       </c>
@@ -5046,7 +5071,7 @@
         <v>84035</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>3047</v>
       </c>
@@ -5078,7 +5103,7 @@
         <v>84036</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>3048</v>
       </c>
@@ -5110,7 +5135,7 @@
         <v>84037</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>3049</v>
       </c>
@@ -5142,7 +5167,7 @@
         <v>83306</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>3050</v>
       </c>
@@ -5174,7 +5199,7 @@
         <v>83307</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>3051</v>
       </c>
@@ -5206,7 +5231,7 @@
         <v>83308</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>3052</v>
       </c>
@@ -5238,7 +5263,7 @@
         <v>83309</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>3053</v>
       </c>
@@ -5270,7 +5295,7 @@
         <v>83310</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>3054</v>
       </c>
@@ -5302,7 +5327,7 @@
         <v>83311</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>3055</v>
       </c>
@@ -5334,7 +5359,7 @@
         <v>83312</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>3056</v>
       </c>
@@ -5366,7 +5391,7 @@
         <v>83313</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>3057</v>
       </c>
@@ -5398,7 +5423,7 @@
         <v>83314</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>3058</v>
       </c>
@@ -5448,132 +5473,132 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.25" customWidth="1"/>
+    <col min="1" max="1" width="15.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>142</v>
       </c>
@@ -5593,14 +5618,14 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
@@ -5608,7 +5633,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5616,7 +5641,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2</v>
       </c>
@@ -5624,7 +5649,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>3</v>
       </c>
@@ -5632,7 +5657,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>4</v>
       </c>
@@ -5640,7 +5665,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>5</v>
       </c>
@@ -5648,7 +5673,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>6</v>
       </c>
@@ -5656,7 +5681,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>7</v>
       </c>

--- a/Config/Excel/Shop.xlsx
+++ b/Config/Excel/Shop.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F41083-941F-4773-894C-6AF4FC2B0068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186AD6E6-E983-4389-9DC2-423148AD8DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DE9042F4-05E2-4CBA-95A7-AC962596AF59}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DE9042F4-05E2-4CBA-95A7-AC962596AF59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="説明" sheetId="2" r:id="rId2"/>
     <sheet name="Type" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="範囲">[1]作業用一覧!$A$2:$C$25</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="409">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1197,18 +1203,6 @@
     <t>クラフト素材</t>
   </si>
   <si>
-    <t>500000個</t>
-  </si>
-  <si>
-    <t>20000個</t>
-  </si>
-  <si>
-    <t>50000個</t>
-  </si>
-  <si>
-    <t>8000個</t>
-  </si>
-  <si>
     <t>10000個</t>
   </si>
   <si>
@@ -1218,15 +1212,9 @@
     <t>150個</t>
   </si>
   <si>
-    <t>ガチャチケット</t>
-  </si>
-  <si>
     <t>3倍チケット</t>
   </si>
   <si>
-    <t>ポイント</t>
-  </si>
-  <si>
     <t>月の灯り</t>
   </si>
   <si>
@@ -1383,12 +1371,6 @@
     <t>黄色のソファ</t>
   </si>
   <si>
-    <t>ガチャチケットを1個獲得することができます。</t>
-  </si>
-  <si>
-    <t>3倍チケットを1個獲得することができます。</t>
-  </si>
-  <si>
     <t>月の灯りを1個獲得することができます。</t>
   </si>
   <si>
@@ -1542,9 +1524,6 @@
     <t>緑のソファを1個獲得することができます。</t>
   </si>
   <si>
-    <t>黄色のソファを1個獲得することができます。</t>
-  </si>
-  <si>
     <t>Textures/object_2d_021</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1705,10 +1684,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Textures/itemcoin_2d_001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Textures/itemcoin_2d_003</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1723,65 +1698,11 @@
     <t>Textures/object_2d_033</t>
   </si>
   <si>
-    <t>Textures/SwordObject_2d_004</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Textures/SwordObject_2d_003</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Textures/WandObject_2d_002</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Textures/BowObject_2d_002</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ポイントを300個獲得することができます。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>500個</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ホーリーソード</t>
-  </si>
-  <si>
-    <t>ホーリーソード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ホーリーソードを1個獲得することができます。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>石の剣</t>
-  </si>
-  <si>
-    <t>石の剣</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>石の剣を1個獲得することができます。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>理性の杖</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>理性の杖を1個獲得することができます。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エイムボウ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エイムボウを1個獲得することができます。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1824,6 +1745,322 @@
   <si>
     <t>3倍チケットを15個獲得することができます。
 3倍チケットを使用すると、冒険でのフロア報酬が3倍になります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「爆弾10」詰め合わせ</t>
+  </si>
+  <si>
+    <t>「爆弾5」詰め合わせ</t>
+  </si>
+  <si>
+    <t>「爆弾3」詰め合わせ</t>
+  </si>
+  <si>
+    <t>300個</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>150個</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100個</t>
+  </si>
+  <si>
+    <t>黄色のソファを1個獲得することができます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>爆弾10を20個、爆弾10・花火を20個獲得することができます。</t>
+    <rPh sb="7" eb="8">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>爆弾10を10個、爆弾10・花火を10個獲得することができます。</t>
+    <rPh sb="7" eb="8">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>爆弾5を10個、爆弾5・花火を10個獲得することができます。</t>
+    <rPh sb="6" eb="7">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/shop_2d_102</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/shop_2d_103</t>
+  </si>
+  <si>
+    <t>Textures/shop_2d_104</t>
+  </si>
+  <si>
+    <t>Textures/matter_2d_019</t>
+  </si>
+  <si>
+    <t>Textures/matter_2d_020</t>
+  </si>
+  <si>
+    <t>Textures/matter_2d_021</t>
+  </si>
+  <si>
+    <t>Textures/matter_2d_022</t>
+  </si>
+  <si>
+    <t>Textures/matter_2d_023</t>
+  </si>
+  <si>
+    <t>Textures/matter_2d_024</t>
+  </si>
+  <si>
+    <t>Textures/matter_2d_025</t>
+  </si>
+  <si>
+    <t>Textures/matter_2d_026</t>
+  </si>
+  <si>
+    <t>Textures/matter_2d_027</t>
+  </si>
+  <si>
+    <t>Textures/matter_2d_028</t>
+  </si>
+  <si>
+    <t>Textures/matter_2d_029</t>
+  </si>
+  <si>
+    <t>Textures/matter_2d_030</t>
+  </si>
+  <si>
+    <t>Textures/matter_2d_031</t>
+  </si>
+  <si>
+    <t>Textures/matter_2d_032</t>
+  </si>
+  <si>
+    <t>ハブトンの皮</t>
+  </si>
+  <si>
+    <t>幸運の尻尾</t>
+  </si>
+  <si>
+    <t>アリクの毛皮</t>
+  </si>
+  <si>
+    <t>攻撃的な尻尾</t>
+  </si>
+  <si>
+    <t>もこっちょの毛</t>
+  </si>
+  <si>
+    <t>幻のトサカ</t>
+  </si>
+  <si>
+    <t>キフミの冷気</t>
+  </si>
+  <si>
+    <t>冷たい涙</t>
+  </si>
+  <si>
+    <t>リリスの毛皮</t>
+  </si>
+  <si>
+    <t>食べかけのどんぐり</t>
+  </si>
+  <si>
+    <t>ラフィーの花びら</t>
+  </si>
+  <si>
+    <t>光る花粉</t>
+  </si>
+  <si>
+    <t>サンゴの化石</t>
+  </si>
+  <si>
+    <t>貝の化石</t>
+  </si>
+  <si>
+    <t>ハブトンの皮を10個獲得することができます。</t>
+  </si>
+  <si>
+    <t>幸運の尻尾を10個獲得することができます。</t>
+  </si>
+  <si>
+    <t>アリクの毛皮を10個獲得することができます。</t>
+  </si>
+  <si>
+    <t>攻撃的な尻尾を10個獲得することができます。</t>
+  </si>
+  <si>
+    <t>もこっちょの毛を10個獲得することができます。</t>
+  </si>
+  <si>
+    <t>幻のトサカを10個獲得することができます。</t>
+  </si>
+  <si>
+    <t>キフミの冷気を10個獲得することができます。</t>
+  </si>
+  <si>
+    <t>冷たい涙を10個獲得することができます。</t>
+  </si>
+  <si>
+    <t>リリスの毛皮を10個獲得することができます。</t>
+  </si>
+  <si>
+    <t>食べかけのどんぐりを10個獲得することができます。</t>
+  </si>
+  <si>
+    <t>ラフィーの花びらを10個獲得することができます。</t>
+  </si>
+  <si>
+    <t>光る花粉を10個獲得することができます。</t>
+  </si>
+  <si>
+    <t>サンゴの化石を10個獲得することができます。</t>
+  </si>
+  <si>
+    <t>貝の化石を10個獲得することができます。</t>
+  </si>
+  <si>
+    <t>5000個</t>
+  </si>
+  <si>
+    <t>イベント交換所</t>
+    <rPh sb="4" eb="7">
+      <t>コウカンジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>200000個</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジングルソード</t>
+  </si>
+  <si>
+    <t>ジングルロッド</t>
+  </si>
+  <si>
+    <t>ジングルボウ</t>
+  </si>
+  <si>
+    <t>ジングルロッド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジングルロッドを1個獲得することができます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジングルボウ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジングルボウを1個獲得することができます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10000個</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5000個</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3000個</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50000個</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30000個</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/SwordObject_2d_008</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/WandObject_2d_008</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/BowObject_2d_008</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>爆弾3を10個、爆弾3・花火を10個獲得することができます。</t>
+    <rPh sb="6" eb="7">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>爆弾5を5個、爆弾5・花火を5個獲得することができます。</t>
+    <rPh sb="5" eb="6">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>爆弾3を5個、爆弾3・花火を5個獲得することができます。</t>
+    <rPh sb="5" eb="6">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポイントセット（大）</t>
+  </si>
+  <si>
+    <t>ポイントセット（中）</t>
+  </si>
+  <si>
+    <t>ポイントセット（小）</t>
+  </si>
+  <si>
+    <t>ポイントを500個獲得することができます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポイントを100個獲得することができます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジングルソード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジングルソードを1個獲得することができます。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1831,7 +2068,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1875,6 +2112,14 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1902,7 +2147,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1947,13 +2192,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1981,6 +2235,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1998,9 +2282,274 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="リスト"/>
+      <sheetName val="作業用一覧"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>block</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>block_Texture_</v>
+          </cell>
+          <cell r="C2">
+            <v>22</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>object</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>object_Texture_</v>
+          </cell>
+          <cell r="C3">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>matter</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>matter_2d_</v>
+          </cell>
+          <cell r="C4">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>button</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>button_2d_</v>
+          </cell>
+          <cell r="C5">
+            <v>36</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>category</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>info_category_</v>
+          </cell>
+          <cell r="C6">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>shop</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>shop_2d_</v>
+          </cell>
+          <cell r="C7">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>effect</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>effect_2d_</v>
+          </cell>
+          <cell r="C8">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>icon</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>icon_2d_</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>texture</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>texture_2d_</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>mission</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>mission_2d_</v>
+          </cell>
+          <cell r="C11">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>menu</v>
+          </cell>
+          <cell r="B12" t="str">
+            <v>menu_2d_</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>infomation</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>infomation_2d_</v>
+          </cell>
+          <cell r="C13">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>character</v>
+          </cell>
+          <cell r="B14" t="str">
+            <v>character_2d_</v>
+          </cell>
+          <cell r="C14">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>itemcoin</v>
+          </cell>
+          <cell r="B15" t="str">
+            <v>itemcoin_2d_</v>
+          </cell>
+          <cell r="C15">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>EnemyObject</v>
+          </cell>
+          <cell r="B16" t="str">
+            <v>EnemyObject_Texture_</v>
+          </cell>
+          <cell r="C16">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>SwordObject</v>
+          </cell>
+          <cell r="B17" t="str">
+            <v>SwordObject_Texture_</v>
+          </cell>
+          <cell r="C17">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>BowObject</v>
+          </cell>
+          <cell r="B18" t="str">
+            <v>BowObject_Texture_</v>
+          </cell>
+          <cell r="C18">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>WandObject</v>
+          </cell>
+          <cell r="B19" t="str">
+            <v>WandObject_Texture_</v>
+          </cell>
+          <cell r="C19">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>brave</v>
+          </cell>
+          <cell r="B20" t="str">
+            <v>brave_2d_</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>skill</v>
+          </cell>
+          <cell r="B21" t="str">
+            <v>skill_2d_</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>tutorial</v>
+          </cell>
+          <cell r="B22" t="str">
+            <v>tutorial_2d_</v>
+          </cell>
+          <cell r="C22">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>NPC</v>
+          </cell>
+          <cell r="B23" t="str">
+            <v>NPC_Texture_</v>
+          </cell>
+          <cell r="C23">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>Loginbonus</v>
+          </cell>
+          <cell r="B24" t="str">
+            <v>Loginbonus_Texture_</v>
+          </cell>
+          <cell r="C24">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>item</v>
+          </cell>
+          <cell r="B25" t="str">
+            <v>item_2d_</v>
+          </cell>
+          <cell r="C25">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{29F90596-6A52-4109-AC94-927F28D661EC}" name="テーブル1" displayName="テーブル1" ref="A1:L98" totalsRowShown="0">
-  <autoFilter ref="A1:L98" xr:uid="{29F90596-6A52-4109-AC94-927F28D661EC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{29F90596-6A52-4109-AC94-927F28D661EC}" name="テーブル1" displayName="テーブル1" ref="A1:L117" totalsRowShown="0">
+  <autoFilter ref="A1:L117" xr:uid="{29F90596-6A52-4109-AC94-927F28D661EC}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{17391177-AF30-4E29-B56C-190AC8FE0C31}" name="ID"/>
     <tableColumn id="2" xr3:uid="{52EECCBF-AA36-46A3-B886-A57E84318451}" name="IconResources"/>
@@ -2316,28 +2865,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D9729C7-5752-4B0D-AE5D-92253C36B7FD}">
-  <dimension ref="A1:L98"/>
+  <dimension ref="A1:L117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomRight" activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="25.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.59765625" customWidth="1"/>
-    <col min="4" max="4" width="19.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
+    <col min="4" max="4" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
-    <col min="7" max="7" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.5" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2375,7 +2924,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2404,7 +2953,7 @@
         <v>10001</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2433,7 +2982,7 @@
         <v>10002</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2462,7 +3011,7 @@
         <v>10003</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2491,7 +3040,7 @@
         <v>10004</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2520,7 +3069,7 @@
         <v>10005</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>80</v>
       </c>
@@ -2549,7 +3098,7 @@
         <v>10080</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>81</v>
       </c>
@@ -2578,7 +3127,7 @@
         <v>10081</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>82</v>
       </c>
@@ -2607,216 +3156,225 @@
         <v>10082</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="54" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>100</v>
       </c>
       <c r="B10" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="C10">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>166</v>
+        <v>326</v>
       </c>
       <c r="E10" t="s">
-        <v>166</v>
+        <v>326</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="G10" t="s">
-        <v>17</v>
+        <v>329</v>
+      </c>
+      <c r="H10">
+        <v>10</v>
       </c>
       <c r="I10">
         <v>9000</v>
       </c>
       <c r="J10">
-        <v>100</v>
-      </c>
-      <c r="K10" s="7">
-        <v>84002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="54" x14ac:dyDescent="0.45">
+        <v>300</v>
+      </c>
+      <c r="K10" s="9">
+        <v>15001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>101</v>
       </c>
       <c r="B11" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="C11">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>166</v>
+        <v>327</v>
       </c>
       <c r="E11" t="s">
-        <v>166</v>
+        <v>327</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="G11" t="s">
-        <v>333</v>
+        <v>330</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
       </c>
       <c r="I11">
         <v>9000</v>
       </c>
       <c r="J11">
-        <v>500</v>
-      </c>
-      <c r="K11" s="7">
-        <v>84038</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="54" x14ac:dyDescent="0.45">
+        <v>150</v>
+      </c>
+      <c r="K11" s="9">
+        <v>15002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>102</v>
       </c>
       <c r="B12" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="C12">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>166</v>
+        <v>328</v>
       </c>
       <c r="E12" t="s">
-        <v>166</v>
+        <v>328</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>349</v>
+        <v>399</v>
       </c>
       <c r="G12" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="H12">
+        <v>10</v>
       </c>
       <c r="I12">
         <v>9000</v>
       </c>
       <c r="J12">
-        <v>900</v>
-      </c>
-      <c r="K12" s="7">
-        <v>84039</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+        <v>100</v>
+      </c>
+      <c r="K12" s="9">
+        <v>15003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>103</v>
       </c>
       <c r="B13" t="s">
-        <v>104</v>
+        <v>314</v>
       </c>
       <c r="C13">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>161</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" t="s">
-        <v>98</v>
+        <v>161</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>323</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="I13">
         <v>9000</v>
       </c>
       <c r="J13">
-        <v>300</v>
-      </c>
-      <c r="K13">
-        <v>11001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+        <v>100</v>
+      </c>
+      <c r="K13" s="9">
+        <v>84002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>104</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>320</v>
       </c>
       <c r="C14">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>161</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" t="s">
-        <v>34</v>
+        <v>161</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>324</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>319</v>
       </c>
       <c r="I14">
         <v>9000</v>
       </c>
       <c r="J14">
-        <v>100</v>
-      </c>
-      <c r="K14">
-        <v>11002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+        <v>500</v>
+      </c>
+      <c r="K14" s="9">
+        <v>84038</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>105</v>
       </c>
       <c r="B15" t="s">
-        <v>105</v>
+        <v>321</v>
       </c>
       <c r="C15">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>161</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" t="s">
-        <v>36</v>
+        <v>161</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>325</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I15">
         <v>9000</v>
       </c>
       <c r="J15">
-        <v>300</v>
-      </c>
-      <c r="K15">
-        <v>11003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+        <v>900</v>
+      </c>
+      <c r="K15" s="9">
+        <v>84039</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>106</v>
       </c>
       <c r="B16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C16">
         <v>4</v>
       </c>
       <c r="D16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" t="s">
         <v>38</v>
       </c>
-      <c r="E16" t="s">
-        <v>43</v>
-      </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="G16" t="s">
         <v>37</v>
@@ -2828,2078 +3386,2089 @@
         <v>300</v>
       </c>
       <c r="K16">
-        <v>11004</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+        <v>11001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>107</v>
       </c>
       <c r="B17" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="C17">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F17" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G17" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="I17">
         <v>9000</v>
       </c>
       <c r="J17">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="K17">
-        <v>11005</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+        <v>11002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>108</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="C18">
         <v>4</v>
       </c>
       <c r="D18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" t="s">
+        <v>37</v>
+      </c>
+      <c r="I18">
+        <v>9000</v>
+      </c>
+      <c r="J18">
+        <v>300</v>
+      </c>
+      <c r="K18">
+        <v>11003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>109</v>
+      </c>
+      <c r="B19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19">
+        <v>9000</v>
+      </c>
+      <c r="J19">
+        <v>300</v>
+      </c>
+      <c r="K19">
+        <v>11004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>110</v>
+      </c>
+      <c r="B20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" t="s">
+        <v>42</v>
+      </c>
+      <c r="I20">
+        <v>9000</v>
+      </c>
+      <c r="J20">
+        <v>500</v>
+      </c>
+      <c r="K20">
+        <v>11005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>111</v>
+      </c>
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
         <v>33</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E21" t="s">
         <v>33</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F21" t="s">
         <v>34</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G21" t="s">
         <v>87</v>
-      </c>
-      <c r="I18">
-        <v>9001</v>
-      </c>
-      <c r="J18">
-        <v>20000</v>
-      </c>
-      <c r="K18">
-        <v>12001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A19">
-        <v>200</v>
-      </c>
-      <c r="B19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19">
-        <v>7</v>
-      </c>
-      <c r="D19" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19">
-        <v>9001</v>
-      </c>
-      <c r="J19">
-        <v>180</v>
-      </c>
-      <c r="K19">
-        <v>12002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A20">
-        <v>201</v>
-      </c>
-      <c r="B20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20">
-        <v>7</v>
-      </c>
-      <c r="D20" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20" t="s">
-        <v>51</v>
-      </c>
-      <c r="G20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20">
-        <v>9001</v>
-      </c>
-      <c r="J20">
-        <v>180</v>
-      </c>
-      <c r="K20">
-        <v>12003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A21">
-        <v>202</v>
-      </c>
-      <c r="B21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21">
-        <v>7</v>
-      </c>
-      <c r="D21" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" t="s">
-        <v>54</v>
-      </c>
-      <c r="G21" t="s">
-        <v>47</v>
       </c>
       <c r="I21">
         <v>9001</v>
       </c>
       <c r="J21">
-        <v>180</v>
+        <v>20000</v>
       </c>
       <c r="K21">
-        <v>12004</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+        <v>12001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>339</v>
       </c>
       <c r="C22">
         <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>353</v>
       </c>
       <c r="E22" t="s">
-        <v>56</v>
+        <v>353</v>
       </c>
       <c r="F22" t="s">
-        <v>60</v>
+        <v>367</v>
       </c>
       <c r="G22" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="I22">
         <v>9001</v>
       </c>
       <c r="J22">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="K22">
-        <v>12005</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+        <v>15101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>340</v>
       </c>
       <c r="C23">
         <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>59</v>
+        <v>354</v>
       </c>
       <c r="E23" t="s">
-        <v>59</v>
+        <v>354</v>
       </c>
       <c r="F23" t="s">
-        <v>61</v>
+        <v>368</v>
       </c>
       <c r="G23" t="s">
-        <v>62</v>
+        <v>381</v>
       </c>
       <c r="I23">
         <v>9001</v>
       </c>
       <c r="J23">
-        <v>900</v>
+        <v>5000</v>
       </c>
       <c r="K23">
-        <v>12006</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+        <v>15102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>341</v>
       </c>
       <c r="C24">
         <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>64</v>
+        <v>355</v>
       </c>
       <c r="E24" t="s">
-        <v>64</v>
+        <v>355</v>
       </c>
       <c r="F24" t="s">
-        <v>65</v>
+        <v>369</v>
       </c>
       <c r="G24" t="s">
-        <v>66</v>
+        <v>331</v>
       </c>
       <c r="I24">
         <v>9001</v>
       </c>
       <c r="J24">
-        <v>1200</v>
+        <v>100</v>
       </c>
       <c r="K24">
-        <v>12007</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+        <v>15103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A25">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>342</v>
       </c>
       <c r="C25">
         <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>68</v>
+        <v>356</v>
       </c>
       <c r="E25" t="s">
-        <v>68</v>
+        <v>356</v>
       </c>
       <c r="F25" t="s">
-        <v>69</v>
+        <v>370</v>
       </c>
       <c r="G25" t="s">
-        <v>70</v>
+        <v>381</v>
       </c>
       <c r="I25">
         <v>9001</v>
       </c>
       <c r="J25">
-        <v>1800</v>
+        <v>5000</v>
       </c>
       <c r="K25">
-        <v>12008</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+        <v>15104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>343</v>
       </c>
       <c r="C26">
         <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>72</v>
+        <v>357</v>
       </c>
       <c r="E26" t="s">
-        <v>72</v>
+        <v>357</v>
       </c>
       <c r="F26" t="s">
-        <v>73</v>
+        <v>371</v>
       </c>
       <c r="G26" t="s">
-        <v>74</v>
+        <v>331</v>
       </c>
       <c r="I26">
         <v>9001</v>
       </c>
       <c r="J26">
-        <v>6000</v>
+        <v>100</v>
       </c>
       <c r="K26">
-        <v>12009</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+        <v>15105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A27">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>344</v>
       </c>
       <c r="C27">
         <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>76</v>
+        <v>358</v>
       </c>
       <c r="E27" t="s">
-        <v>76</v>
+        <v>358</v>
       </c>
       <c r="F27" t="s">
-        <v>77</v>
+        <v>372</v>
       </c>
       <c r="G27" t="s">
-        <v>78</v>
+        <v>381</v>
       </c>
       <c r="I27">
         <v>9001</v>
       </c>
       <c r="J27">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="K27">
-        <v>12010</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+        <v>15106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>345</v>
       </c>
       <c r="C28">
         <v>7</v>
       </c>
       <c r="D28" t="s">
-        <v>80</v>
+        <v>359</v>
       </c>
       <c r="E28" t="s">
-        <v>80</v>
+        <v>359</v>
       </c>
       <c r="F28" t="s">
-        <v>81</v>
+        <v>373</v>
       </c>
       <c r="G28" t="s">
-        <v>82</v>
+        <v>331</v>
       </c>
       <c r="I28">
         <v>9001</v>
       </c>
       <c r="J28">
-        <v>12000</v>
+        <v>100</v>
       </c>
       <c r="K28">
-        <v>12011</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+        <v>15107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A29">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>346</v>
       </c>
       <c r="C29">
         <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>84</v>
+        <v>360</v>
       </c>
       <c r="E29" t="s">
-        <v>84</v>
+        <v>360</v>
       </c>
       <c r="F29" t="s">
-        <v>85</v>
+        <v>374</v>
       </c>
       <c r="G29" t="s">
-        <v>86</v>
+        <v>381</v>
       </c>
       <c r="I29">
         <v>9001</v>
       </c>
       <c r="J29">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="K29">
-        <v>12012</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+        <v>15108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A30">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B30" t="s">
-        <v>88</v>
+        <v>347</v>
       </c>
       <c r="C30">
         <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>89</v>
+        <v>361</v>
       </c>
       <c r="E30" t="s">
-        <v>89</v>
+        <v>361</v>
       </c>
       <c r="F30" t="s">
-        <v>90</v>
+        <v>375</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>331</v>
       </c>
       <c r="I30">
         <v>9001</v>
       </c>
       <c r="J30">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="K30">
-        <v>12013</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+        <v>15109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A31">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B31" t="s">
-        <v>91</v>
+        <v>348</v>
       </c>
       <c r="C31">
         <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>92</v>
+        <v>362</v>
       </c>
       <c r="E31" t="s">
-        <v>92</v>
+        <v>362</v>
       </c>
       <c r="F31" t="s">
-        <v>93</v>
+        <v>376</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>381</v>
       </c>
       <c r="I31">
         <v>9001</v>
       </c>
       <c r="J31">
-        <v>180</v>
+        <v>5000</v>
       </c>
       <c r="K31">
-        <v>12014</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+        <v>15110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A32">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="B32" t="s">
-        <v>95</v>
+        <v>349</v>
       </c>
       <c r="C32">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>96</v>
+        <v>363</v>
       </c>
       <c r="E32" t="s">
-        <v>96</v>
+        <v>363</v>
       </c>
       <c r="F32" t="s">
-        <v>97</v>
+        <v>377</v>
       </c>
       <c r="G32" t="s">
-        <v>32</v>
+        <v>331</v>
       </c>
       <c r="I32">
-        <v>9000</v>
+        <v>9001</v>
       </c>
       <c r="J32">
         <v>100</v>
       </c>
-      <c r="L32">
+      <c r="K32">
+        <v>15111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>211</v>
+      </c>
+      <c r="B33" t="s">
+        <v>350</v>
+      </c>
+      <c r="C33">
+        <v>7</v>
+      </c>
+      <c r="D33" t="s">
+        <v>364</v>
+      </c>
+      <c r="E33" t="s">
+        <v>364</v>
+      </c>
+      <c r="F33" t="s">
+        <v>378</v>
+      </c>
+      <c r="G33" t="s">
+        <v>381</v>
+      </c>
+      <c r="I33">
+        <v>9001</v>
+      </c>
+      <c r="J33">
+        <v>5000</v>
+      </c>
+      <c r="K33">
+        <v>15112</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>212</v>
+      </c>
+      <c r="B34" t="s">
+        <v>351</v>
+      </c>
+      <c r="C34">
+        <v>7</v>
+      </c>
+      <c r="D34" t="s">
+        <v>365</v>
+      </c>
+      <c r="E34" t="s">
+        <v>365</v>
+      </c>
+      <c r="F34" t="s">
+        <v>379</v>
+      </c>
+      <c r="G34" t="s">
+        <v>331</v>
+      </c>
+      <c r="I34">
+        <v>9001</v>
+      </c>
+      <c r="J34">
+        <v>100</v>
+      </c>
+      <c r="K34">
+        <v>15113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>213</v>
+      </c>
+      <c r="B35" t="s">
+        <v>352</v>
+      </c>
+      <c r="C35">
+        <v>7</v>
+      </c>
+      <c r="D35" t="s">
+        <v>366</v>
+      </c>
+      <c r="E35" t="s">
+        <v>366</v>
+      </c>
+      <c r="F35" t="s">
+        <v>380</v>
+      </c>
+      <c r="G35" t="s">
+        <v>331</v>
+      </c>
+      <c r="I35">
+        <v>9001</v>
+      </c>
+      <c r="J35">
+        <v>100</v>
+      </c>
+      <c r="K35">
+        <v>15114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>214</v>
+      </c>
+      <c r="B36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36">
+        <v>7</v>
+      </c>
+      <c r="D36" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" t="s">
+        <v>45</v>
+      </c>
+      <c r="F36" t="s">
+        <v>46</v>
+      </c>
+      <c r="G36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36">
+        <v>9001</v>
+      </c>
+      <c r="J36">
+        <v>180</v>
+      </c>
+      <c r="K36">
+        <v>12002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>215</v>
+      </c>
+      <c r="B37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37">
+        <v>7</v>
+      </c>
+      <c r="D37" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" t="s">
+        <v>50</v>
+      </c>
+      <c r="F37" t="s">
+        <v>51</v>
+      </c>
+      <c r="G37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37">
+        <v>9001</v>
+      </c>
+      <c r="J37">
+        <v>180</v>
+      </c>
+      <c r="K37">
+        <v>12003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>216</v>
+      </c>
+      <c r="B38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38">
+        <v>7</v>
+      </c>
+      <c r="D38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38" t="s">
+        <v>53</v>
+      </c>
+      <c r="F38" t="s">
+        <v>54</v>
+      </c>
+      <c r="G38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38">
+        <v>9001</v>
+      </c>
+      <c r="J38">
+        <v>180</v>
+      </c>
+      <c r="K38">
+        <v>12004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>217</v>
+      </c>
+      <c r="B39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39">
+        <v>7</v>
+      </c>
+      <c r="D39" t="s">
+        <v>56</v>
+      </c>
+      <c r="E39" t="s">
+        <v>56</v>
+      </c>
+      <c r="F39" t="s">
+        <v>60</v>
+      </c>
+      <c r="G39" t="s">
+        <v>57</v>
+      </c>
+      <c r="I39">
+        <v>9001</v>
+      </c>
+      <c r="J39">
+        <v>600</v>
+      </c>
+      <c r="K39">
+        <v>12005</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>218</v>
+      </c>
+      <c r="B40" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40">
+        <v>7</v>
+      </c>
+      <c r="D40" t="s">
+        <v>59</v>
+      </c>
+      <c r="E40" t="s">
+        <v>59</v>
+      </c>
+      <c r="F40" t="s">
+        <v>61</v>
+      </c>
+      <c r="G40" t="s">
+        <v>62</v>
+      </c>
+      <c r="I40">
+        <v>9001</v>
+      </c>
+      <c r="J40">
+        <v>900</v>
+      </c>
+      <c r="K40">
+        <v>12006</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>219</v>
+      </c>
+      <c r="B41" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41">
+        <v>7</v>
+      </c>
+      <c r="D41" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41" t="s">
+        <v>64</v>
+      </c>
+      <c r="F41" t="s">
+        <v>65</v>
+      </c>
+      <c r="G41" t="s">
+        <v>66</v>
+      </c>
+      <c r="I41">
+        <v>9001</v>
+      </c>
+      <c r="J41">
+        <v>1200</v>
+      </c>
+      <c r="K41">
+        <v>12007</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>220</v>
+      </c>
+      <c r="B42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42">
+        <v>7</v>
+      </c>
+      <c r="D42" t="s">
+        <v>68</v>
+      </c>
+      <c r="E42" t="s">
+        <v>68</v>
+      </c>
+      <c r="F42" t="s">
+        <v>69</v>
+      </c>
+      <c r="G42" t="s">
+        <v>70</v>
+      </c>
+      <c r="I42">
+        <v>9001</v>
+      </c>
+      <c r="J42">
+        <v>1800</v>
+      </c>
+      <c r="K42">
+        <v>12008</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>221</v>
+      </c>
+      <c r="B43" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43">
+        <v>7</v>
+      </c>
+      <c r="D43" t="s">
+        <v>72</v>
+      </c>
+      <c r="E43" t="s">
+        <v>72</v>
+      </c>
+      <c r="F43" t="s">
+        <v>73</v>
+      </c>
+      <c r="G43" t="s">
+        <v>74</v>
+      </c>
+      <c r="I43">
+        <v>9001</v>
+      </c>
+      <c r="J43">
+        <v>6000</v>
+      </c>
+      <c r="K43">
+        <v>12009</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>222</v>
+      </c>
+      <c r="B44" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44">
+        <v>7</v>
+      </c>
+      <c r="D44" t="s">
+        <v>76</v>
+      </c>
+      <c r="E44" t="s">
+        <v>76</v>
+      </c>
+      <c r="F44" t="s">
+        <v>77</v>
+      </c>
+      <c r="G44" t="s">
+        <v>78</v>
+      </c>
+      <c r="I44">
+        <v>9001</v>
+      </c>
+      <c r="J44">
+        <v>9000</v>
+      </c>
+      <c r="K44">
+        <v>12010</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>223</v>
+      </c>
+      <c r="B45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C45">
+        <v>7</v>
+      </c>
+      <c r="D45" t="s">
+        <v>80</v>
+      </c>
+      <c r="E45" t="s">
+        <v>80</v>
+      </c>
+      <c r="F45" t="s">
+        <v>81</v>
+      </c>
+      <c r="G45" t="s">
+        <v>82</v>
+      </c>
+      <c r="I45">
+        <v>9001</v>
+      </c>
+      <c r="J45">
+        <v>12000</v>
+      </c>
+      <c r="K45">
+        <v>12011</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>224</v>
+      </c>
+      <c r="B46" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46">
+        <v>7</v>
+      </c>
+      <c r="D46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E46" t="s">
+        <v>84</v>
+      </c>
+      <c r="F46" t="s">
+        <v>85</v>
+      </c>
+      <c r="G46" t="s">
+        <v>86</v>
+      </c>
+      <c r="I46">
+        <v>9001</v>
+      </c>
+      <c r="J46">
+        <v>18000</v>
+      </c>
+      <c r="K46">
+        <v>12012</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>225</v>
+      </c>
+      <c r="B47" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47">
+        <v>7</v>
+      </c>
+      <c r="D47" t="s">
+        <v>89</v>
+      </c>
+      <c r="E47" t="s">
+        <v>89</v>
+      </c>
+      <c r="F47" t="s">
+        <v>90</v>
+      </c>
+      <c r="G47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47">
+        <v>9001</v>
+      </c>
+      <c r="J47">
+        <v>180</v>
+      </c>
+      <c r="K47">
+        <v>12013</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>226</v>
+      </c>
+      <c r="B48" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48">
+        <v>7</v>
+      </c>
+      <c r="D48" t="s">
+        <v>92</v>
+      </c>
+      <c r="E48" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" t="s">
+        <v>93</v>
+      </c>
+      <c r="G48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48">
+        <v>9001</v>
+      </c>
+      <c r="J48">
+        <v>180</v>
+      </c>
+      <c r="K48">
+        <v>12014</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>1000</v>
+      </c>
+      <c r="B49" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+      <c r="D49" t="s">
+        <v>96</v>
+      </c>
+      <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
+        <v>97</v>
+      </c>
+      <c r="G49" t="s">
+        <v>32</v>
+      </c>
+      <c r="I49">
+        <v>9000</v>
+      </c>
+      <c r="J49">
+        <v>100</v>
+      </c>
+      <c r="L49">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A33">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A50">
         <v>2000</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B50" t="s">
         <v>111</v>
       </c>
-      <c r="C33">
+      <c r="C50">
         <v>3</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E50" t="s">
         <v>112</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F50" t="s">
         <v>113</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G50" t="s">
         <v>32</v>
       </c>
-      <c r="I33">
+      <c r="I50">
         <v>9000</v>
       </c>
-      <c r="J33">
+      <c r="J50">
         <v>100</v>
       </c>
-      <c r="K33">
+      <c r="K50">
         <v>14001</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A34">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A51">
         <v>2001</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B51" t="s">
         <v>111</v>
       </c>
-      <c r="C34">
+      <c r="C51">
         <v>3</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E51" t="s">
         <v>114</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F51" t="s">
         <v>115</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G51" t="s">
         <v>37</v>
       </c>
-      <c r="I34">
+      <c r="I51">
         <v>9000</v>
-      </c>
-      <c r="J34">
-        <v>300</v>
-      </c>
-      <c r="K34">
-        <v>14002</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A35">
-        <v>2002</v>
-      </c>
-      <c r="B35" t="s">
-        <v>111</v>
-      </c>
-      <c r="C35">
-        <v>3</v>
-      </c>
-      <c r="E35" t="s">
-        <v>116</v>
-      </c>
-      <c r="F35" t="s">
-        <v>117</v>
-      </c>
-      <c r="G35" t="s">
-        <v>42</v>
-      </c>
-      <c r="I35">
-        <v>9000</v>
-      </c>
-      <c r="J35">
-        <v>500</v>
-      </c>
-      <c r="K35">
-        <v>14003</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A36">
-        <v>2003</v>
-      </c>
-      <c r="B36" t="s">
-        <v>111</v>
-      </c>
-      <c r="C36">
-        <v>3</v>
-      </c>
-      <c r="E36" t="s">
-        <v>118</v>
-      </c>
-      <c r="F36" t="s">
-        <v>119</v>
-      </c>
-      <c r="G36" t="s">
-        <v>120</v>
-      </c>
-      <c r="I36">
-        <v>9000</v>
-      </c>
-      <c r="J36">
-        <v>1000</v>
-      </c>
-      <c r="K36">
-        <v>14004</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A37">
-        <v>2004</v>
-      </c>
-      <c r="B37" t="s">
-        <v>111</v>
-      </c>
-      <c r="C37">
-        <v>3</v>
-      </c>
-      <c r="E37" t="s">
-        <v>121</v>
-      </c>
-      <c r="F37" t="s">
-        <v>122</v>
-      </c>
-      <c r="G37" t="s">
-        <v>123</v>
-      </c>
-      <c r="I37">
-        <v>9000</v>
-      </c>
-      <c r="J37">
-        <v>2000</v>
-      </c>
-      <c r="K37">
-        <v>14005</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A38">
-        <v>2005</v>
-      </c>
-      <c r="B38" t="s">
-        <v>111</v>
-      </c>
-      <c r="C38">
-        <v>3</v>
-      </c>
-      <c r="E38" t="s">
-        <v>124</v>
-      </c>
-      <c r="F38" t="s">
-        <v>125</v>
-      </c>
-      <c r="G38" t="s">
-        <v>126</v>
-      </c>
-      <c r="I38">
-        <v>9000</v>
-      </c>
-      <c r="J38">
-        <v>3500</v>
-      </c>
-      <c r="K38">
-        <v>14006</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A39">
-        <v>2006</v>
-      </c>
-      <c r="B39" t="s">
-        <v>111</v>
-      </c>
-      <c r="C39">
-        <v>3</v>
-      </c>
-      <c r="E39" t="s">
-        <v>127</v>
-      </c>
-      <c r="F39" t="s">
-        <v>128</v>
-      </c>
-      <c r="G39" t="s">
-        <v>129</v>
-      </c>
-      <c r="I39">
-        <v>9000</v>
-      </c>
-      <c r="J39">
-        <v>5500</v>
-      </c>
-      <c r="K39">
-        <v>14007</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A40">
-        <v>3000</v>
-      </c>
-      <c r="B40" t="s">
-        <v>328</v>
-      </c>
-      <c r="C40">
-        <v>8</v>
-      </c>
-      <c r="D40" t="s">
-        <v>334</v>
-      </c>
-      <c r="E40" t="s">
-        <v>335</v>
-      </c>
-      <c r="F40" t="s">
-        <v>336</v>
-      </c>
-      <c r="G40" t="s">
-        <v>158</v>
-      </c>
-      <c r="H40">
-        <v>1</v>
-      </c>
-      <c r="I40">
-        <v>9004</v>
-      </c>
-      <c r="J40">
-        <v>500000</v>
-      </c>
-      <c r="K40" s="6">
-        <v>83001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A41">
-        <v>3001</v>
-      </c>
-      <c r="B41" t="s">
-        <v>329</v>
-      </c>
-      <c r="C41">
-        <v>8</v>
-      </c>
-      <c r="D41" t="s">
-        <v>337</v>
-      </c>
-      <c r="E41" t="s">
-        <v>338</v>
-      </c>
-      <c r="F41" t="s">
-        <v>339</v>
-      </c>
-      <c r="G41" t="s">
-        <v>159</v>
-      </c>
-      <c r="H41">
-        <v>1</v>
-      </c>
-      <c r="I41">
-        <v>9004</v>
-      </c>
-      <c r="J41">
-        <v>20000</v>
-      </c>
-      <c r="K41" s="6">
-        <v>83007</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A42">
-        <v>3002</v>
-      </c>
-      <c r="B42" t="s">
-        <v>330</v>
-      </c>
-      <c r="C42">
-        <v>8</v>
-      </c>
-      <c r="D42" t="s">
-        <v>340</v>
-      </c>
-      <c r="E42" t="s">
-        <v>340</v>
-      </c>
-      <c r="F42" t="s">
-        <v>341</v>
-      </c>
-      <c r="G42" t="s">
-        <v>159</v>
-      </c>
-      <c r="H42">
-        <v>1</v>
-      </c>
-      <c r="I42">
-        <v>9004</v>
-      </c>
-      <c r="J42">
-        <v>20000</v>
-      </c>
-      <c r="K42" s="6">
-        <v>83005</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A43">
-        <v>3003</v>
-      </c>
-      <c r="B43" t="s">
-        <v>331</v>
-      </c>
-      <c r="C43">
-        <v>8</v>
-      </c>
-      <c r="D43" t="s">
-        <v>342</v>
-      </c>
-      <c r="E43" t="s">
-        <v>342</v>
-      </c>
-      <c r="F43" t="s">
-        <v>343</v>
-      </c>
-      <c r="G43" t="s">
-        <v>159</v>
-      </c>
-      <c r="H43">
-        <v>1</v>
-      </c>
-      <c r="I43">
-        <v>9004</v>
-      </c>
-      <c r="J43">
-        <v>20000</v>
-      </c>
-      <c r="K43" s="6">
-        <v>83006</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A44">
-        <v>3004</v>
-      </c>
-      <c r="B44" t="s">
-        <v>323</v>
-      </c>
-      <c r="C44">
-        <v>8</v>
-      </c>
-      <c r="D44" t="s">
-        <v>165</v>
-      </c>
-      <c r="E44" t="s">
-        <v>165</v>
-      </c>
-      <c r="F44" t="s">
-        <v>220</v>
-      </c>
-      <c r="G44" t="s">
-        <v>160</v>
-      </c>
-      <c r="H44">
-        <v>5</v>
-      </c>
-      <c r="I44">
-        <v>9004</v>
-      </c>
-      <c r="J44">
-        <v>50000</v>
-      </c>
-      <c r="K44" s="7">
-        <v>84001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A45">
-        <v>3005</v>
-      </c>
-      <c r="B45" t="s">
-        <v>324</v>
-      </c>
-      <c r="C45">
-        <v>8</v>
-      </c>
-      <c r="D45" t="s">
-        <v>166</v>
-      </c>
-      <c r="E45" t="s">
-        <v>166</v>
-      </c>
-      <c r="F45" t="s">
-        <v>221</v>
-      </c>
-      <c r="G45" t="s">
-        <v>161</v>
-      </c>
-      <c r="H45">
-        <v>10</v>
-      </c>
-      <c r="I45">
-        <v>9004</v>
-      </c>
-      <c r="J45">
-        <v>8000</v>
-      </c>
-      <c r="K45" s="7">
-        <v>84002</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A46">
-        <v>3006</v>
-      </c>
-      <c r="B46" t="s">
-        <v>346</v>
-      </c>
-      <c r="C46">
-        <v>8</v>
-      </c>
-      <c r="D46" t="s">
-        <v>167</v>
-      </c>
-      <c r="E46" t="s">
-        <v>167</v>
-      </c>
-      <c r="F46" t="s">
-        <v>332</v>
-      </c>
-      <c r="G46" t="s">
-        <v>162</v>
-      </c>
-      <c r="H46">
-        <v>3</v>
-      </c>
-      <c r="I46">
-        <v>9004</v>
-      </c>
-      <c r="J46">
-        <v>10000</v>
-      </c>
-      <c r="K46" s="7">
-        <v>84003</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A47">
-        <v>3007</v>
-      </c>
-      <c r="B47" t="s">
-        <v>325</v>
-      </c>
-      <c r="C47">
-        <v>8</v>
-      </c>
-      <c r="D47" t="s">
-        <v>168</v>
-      </c>
-      <c r="E47" t="s">
-        <v>168</v>
-      </c>
-      <c r="F47" t="s">
-        <v>222</v>
-      </c>
-      <c r="G47" t="s">
-        <v>163</v>
-      </c>
-      <c r="I47">
-        <v>9004</v>
-      </c>
-      <c r="J47">
-        <v>300</v>
-      </c>
-      <c r="K47">
-        <v>81003</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A48">
-        <v>3008</v>
-      </c>
-      <c r="B48" t="s">
-        <v>326</v>
-      </c>
-      <c r="C48">
-        <v>8</v>
-      </c>
-      <c r="D48" t="s">
-        <v>169</v>
-      </c>
-      <c r="E48" t="s">
-        <v>169</v>
-      </c>
-      <c r="F48" t="s">
-        <v>223</v>
-      </c>
-      <c r="G48" t="s">
-        <v>163</v>
-      </c>
-      <c r="I48">
-        <v>9004</v>
-      </c>
-      <c r="J48">
-        <v>300</v>
-      </c>
-      <c r="K48">
-        <v>81006</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A49">
-        <v>3009</v>
-      </c>
-      <c r="B49" t="s">
-        <v>327</v>
-      </c>
-      <c r="C49">
-        <v>8</v>
-      </c>
-      <c r="D49" t="s">
-        <v>170</v>
-      </c>
-      <c r="E49" t="s">
-        <v>170</v>
-      </c>
-      <c r="F49" t="s">
-        <v>224</v>
-      </c>
-      <c r="G49" t="s">
-        <v>163</v>
-      </c>
-      <c r="I49">
-        <v>9004</v>
-      </c>
-      <c r="J49">
-        <v>300</v>
-      </c>
-      <c r="K49">
-        <v>81009</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A50">
-        <v>3010</v>
-      </c>
-      <c r="B50" t="s">
-        <v>311</v>
-      </c>
-      <c r="C50">
-        <v>8</v>
-      </c>
-      <c r="D50" t="s">
-        <v>171</v>
-      </c>
-      <c r="E50" t="s">
-        <v>171</v>
-      </c>
-      <c r="F50" t="s">
-        <v>225</v>
-      </c>
-      <c r="G50" t="s">
-        <v>163</v>
-      </c>
-      <c r="I50">
-        <v>9004</v>
-      </c>
-      <c r="J50">
-        <v>300</v>
-      </c>
-      <c r="K50" s="7">
-        <v>84004</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A51">
-        <v>3011</v>
-      </c>
-      <c r="B51" t="s">
-        <v>312</v>
-      </c>
-      <c r="C51">
-        <v>8</v>
-      </c>
-      <c r="D51" t="s">
-        <v>172</v>
-      </c>
-      <c r="E51" t="s">
-        <v>172</v>
-      </c>
-      <c r="F51" t="s">
-        <v>226</v>
-      </c>
-      <c r="G51" t="s">
-        <v>163</v>
-      </c>
-      <c r="I51">
-        <v>9004</v>
       </c>
       <c r="J51">
         <v>300</v>
       </c>
-      <c r="K51" s="7">
-        <v>84005</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="K51">
+        <v>14002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A52">
-        <v>3012</v>
+        <v>2002</v>
       </c>
       <c r="B52" t="s">
-        <v>313</v>
+        <v>111</v>
       </c>
       <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="E52" t="s">
+        <v>116</v>
+      </c>
+      <c r="F52" t="s">
+        <v>117</v>
+      </c>
+      <c r="G52" t="s">
+        <v>42</v>
+      </c>
+      <c r="I52">
+        <v>9000</v>
+      </c>
+      <c r="J52">
+        <v>500</v>
+      </c>
+      <c r="K52">
+        <v>14003</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A53">
+        <v>2003</v>
+      </c>
+      <c r="B53" t="s">
+        <v>111</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+      <c r="E53" t="s">
+        <v>118</v>
+      </c>
+      <c r="F53" t="s">
+        <v>119</v>
+      </c>
+      <c r="G53" t="s">
+        <v>120</v>
+      </c>
+      <c r="I53">
+        <v>9000</v>
+      </c>
+      <c r="J53">
+        <v>1000</v>
+      </c>
+      <c r="K53">
+        <v>14004</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A54">
+        <v>2004</v>
+      </c>
+      <c r="B54" t="s">
+        <v>111</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="E54" t="s">
+        <v>121</v>
+      </c>
+      <c r="F54" t="s">
+        <v>122</v>
+      </c>
+      <c r="G54" t="s">
+        <v>123</v>
+      </c>
+      <c r="I54">
+        <v>9000</v>
+      </c>
+      <c r="J54">
+        <v>2000</v>
+      </c>
+      <c r="K54">
+        <v>14005</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A55">
+        <v>2005</v>
+      </c>
+      <c r="B55" t="s">
+        <v>111</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+      <c r="E55" t="s">
+        <v>124</v>
+      </c>
+      <c r="F55" t="s">
+        <v>125</v>
+      </c>
+      <c r="G55" t="s">
+        <v>126</v>
+      </c>
+      <c r="I55">
+        <v>9000</v>
+      </c>
+      <c r="J55">
+        <v>3500</v>
+      </c>
+      <c r="K55">
+        <v>14006</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A56">
+        <v>2006</v>
+      </c>
+      <c r="B56" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+      <c r="E56" t="s">
+        <v>127</v>
+      </c>
+      <c r="F56" t="s">
+        <v>128</v>
+      </c>
+      <c r="G56" t="s">
+        <v>129</v>
+      </c>
+      <c r="I56">
+        <v>9000</v>
+      </c>
+      <c r="J56">
+        <v>5500</v>
+      </c>
+      <c r="K56">
+        <v>14007</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="10">
+        <v>3001</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="C57" s="12">
         <v>8</v>
       </c>
-      <c r="D52" t="s">
-        <v>173</v>
-      </c>
-      <c r="E52" t="s">
-        <v>173</v>
-      </c>
-      <c r="F52" t="s">
-        <v>227</v>
-      </c>
-      <c r="G52" t="s">
-        <v>163</v>
-      </c>
-      <c r="I52">
+      <c r="D57" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="G57" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="H57" s="12">
+        <v>1</v>
+      </c>
+      <c r="I57" s="12">
         <v>9004</v>
       </c>
-      <c r="J52">
-        <v>300</v>
-      </c>
-      <c r="K52" s="7">
-        <v>84006</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A53">
-        <v>3013</v>
-      </c>
-      <c r="B53" t="s">
-        <v>314</v>
-      </c>
-      <c r="C53">
+      <c r="J57" s="12">
+        <v>200000</v>
+      </c>
+      <c r="K57" s="9">
+        <v>85001</v>
+      </c>
+      <c r="L57" s="13"/>
+    </row>
+    <row r="58" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="10">
+        <v>3002</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="C58" s="12">
         <v>8</v>
       </c>
-      <c r="D53" t="s">
-        <v>174</v>
-      </c>
-      <c r="E53" t="s">
-        <v>174</v>
-      </c>
-      <c r="F53" t="s">
-        <v>228</v>
-      </c>
-      <c r="G53" t="s">
-        <v>163</v>
-      </c>
-      <c r="I53">
+      <c r="D58" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="G58" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="H58" s="12">
+        <v>1</v>
+      </c>
+      <c r="I58" s="12">
         <v>9004</v>
       </c>
-      <c r="J53">
-        <v>300</v>
-      </c>
-      <c r="K53" s="7">
-        <v>84007</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A54">
-        <v>3014</v>
-      </c>
-      <c r="B54" t="s">
+      <c r="J58" s="12">
+        <v>200000</v>
+      </c>
+      <c r="K58" s="9">
+        <v>85002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="10">
+        <v>3003</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="C59" s="12">
+        <v>8</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="G59" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="H59" s="12">
+        <v>1</v>
+      </c>
+      <c r="I59" s="12">
+        <v>9004</v>
+      </c>
+      <c r="J59" s="12">
+        <v>200000</v>
+      </c>
+      <c r="K59" s="9">
+        <v>85003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="10">
+        <v>3004</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="C60" s="12">
+        <v>8</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="G60" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="H60" s="12">
+        <v>1</v>
+      </c>
+      <c r="I60" s="12">
+        <v>9004</v>
+      </c>
+      <c r="J60" s="12">
+        <v>50000</v>
+      </c>
+      <c r="K60" s="9">
+        <v>85004</v>
+      </c>
+      <c r="L60" s="13"/>
+    </row>
+    <row r="61" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="10">
+        <v>3005</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="C61" s="12">
+        <v>8</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="G61" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="H61" s="12">
+        <v>3</v>
+      </c>
+      <c r="I61" s="12">
+        <v>9004</v>
+      </c>
+      <c r="J61" s="12">
+        <v>30000</v>
+      </c>
+      <c r="K61" s="9">
+        <v>85005</v>
+      </c>
+      <c r="L61" s="13"/>
+    </row>
+    <row r="62" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="10">
+        <v>3006</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="C62" s="12">
+        <v>8</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="G62" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="H62" s="12">
+        <v>5</v>
+      </c>
+      <c r="I62" s="12">
+        <v>9004</v>
+      </c>
+      <c r="J62" s="12">
+        <v>10000</v>
+      </c>
+      <c r="K62" s="9">
+        <v>85006</v>
+      </c>
+      <c r="L62" s="13"/>
+    </row>
+    <row r="63" spans="1:12" s="9" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A63" s="10">
+        <v>3007</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="C63" s="12">
+        <v>8</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="F63" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="G63" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="H63" s="9">
+        <v>10</v>
+      </c>
+      <c r="I63" s="12">
+        <v>9004</v>
+      </c>
+      <c r="J63" s="9">
+        <v>10000</v>
+      </c>
+      <c r="K63" s="9">
+        <v>15004</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" s="9" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A64" s="10">
+        <v>3008</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="C64" s="12">
+        <v>8</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="F64" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="G64" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="H64" s="9">
+        <v>10</v>
+      </c>
+      <c r="I64" s="12">
+        <v>9004</v>
+      </c>
+      <c r="J64" s="9">
+        <v>5000</v>
+      </c>
+      <c r="K64" s="9">
+        <v>15005</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" s="9" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A65" s="10">
+        <v>3009</v>
+      </c>
+      <c r="B65" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="C65" s="17">
+        <v>8</v>
+      </c>
+      <c r="D65" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="F65" s="18" t="s">
+        <v>401</v>
+      </c>
+      <c r="G65" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="H65" s="16">
+        <v>10</v>
+      </c>
+      <c r="I65" s="17">
+        <v>9004</v>
+      </c>
+      <c r="J65" s="16">
+        <v>3000</v>
+      </c>
+      <c r="K65" s="16">
+        <v>15006</v>
+      </c>
+      <c r="L65" s="16"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A66" s="10">
+        <v>3010</v>
+      </c>
+      <c r="B66" t="s">
         <v>315</v>
-      </c>
-      <c r="C54">
-        <v>8</v>
-      </c>
-      <c r="D54" t="s">
-        <v>175</v>
-      </c>
-      <c r="E54" t="s">
-        <v>175</v>
-      </c>
-      <c r="F54" t="s">
-        <v>229</v>
-      </c>
-      <c r="G54" t="s">
-        <v>163</v>
-      </c>
-      <c r="I54">
-        <v>9004</v>
-      </c>
-      <c r="J54">
-        <v>300</v>
-      </c>
-      <c r="K54" s="7">
-        <v>84008</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A55">
-        <v>3015</v>
-      </c>
-      <c r="B55" t="s">
-        <v>316</v>
-      </c>
-      <c r="C55">
-        <v>8</v>
-      </c>
-      <c r="D55" t="s">
-        <v>176</v>
-      </c>
-      <c r="E55" t="s">
-        <v>176</v>
-      </c>
-      <c r="F55" t="s">
-        <v>230</v>
-      </c>
-      <c r="G55" t="s">
-        <v>163</v>
-      </c>
-      <c r="I55">
-        <v>9004</v>
-      </c>
-      <c r="J55">
-        <v>300</v>
-      </c>
-      <c r="K55" s="7">
-        <v>84009</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A56">
-        <v>3016</v>
-      </c>
-      <c r="B56" t="s">
-        <v>317</v>
-      </c>
-      <c r="C56">
-        <v>8</v>
-      </c>
-      <c r="D56" t="s">
-        <v>177</v>
-      </c>
-      <c r="E56" t="s">
-        <v>177</v>
-      </c>
-      <c r="F56" t="s">
-        <v>231</v>
-      </c>
-      <c r="G56" t="s">
-        <v>163</v>
-      </c>
-      <c r="I56">
-        <v>9004</v>
-      </c>
-      <c r="J56">
-        <v>300</v>
-      </c>
-      <c r="K56" s="7">
-        <v>84010</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A57">
-        <v>3017</v>
-      </c>
-      <c r="B57" t="s">
-        <v>318</v>
-      </c>
-      <c r="C57">
-        <v>8</v>
-      </c>
-      <c r="D57" t="s">
-        <v>178</v>
-      </c>
-      <c r="E57" t="s">
-        <v>178</v>
-      </c>
-      <c r="F57" t="s">
-        <v>232</v>
-      </c>
-      <c r="G57" t="s">
-        <v>163</v>
-      </c>
-      <c r="I57">
-        <v>9004</v>
-      </c>
-      <c r="J57">
-        <v>300</v>
-      </c>
-      <c r="K57">
-        <v>80003</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A58">
-        <v>3018</v>
-      </c>
-      <c r="B58" t="s">
-        <v>319</v>
-      </c>
-      <c r="C58">
-        <v>8</v>
-      </c>
-      <c r="D58" t="s">
-        <v>179</v>
-      </c>
-      <c r="E58" t="s">
-        <v>179</v>
-      </c>
-      <c r="F58" t="s">
-        <v>233</v>
-      </c>
-      <c r="G58" t="s">
-        <v>163</v>
-      </c>
-      <c r="I58">
-        <v>9004</v>
-      </c>
-      <c r="J58">
-        <v>300</v>
-      </c>
-      <c r="K58">
-        <v>80006</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A59">
-        <v>3019</v>
-      </c>
-      <c r="B59" t="s">
-        <v>320</v>
-      </c>
-      <c r="C59">
-        <v>8</v>
-      </c>
-      <c r="D59" t="s">
-        <v>180</v>
-      </c>
-      <c r="E59" t="s">
-        <v>180</v>
-      </c>
-      <c r="F59" t="s">
-        <v>234</v>
-      </c>
-      <c r="G59" t="s">
-        <v>163</v>
-      </c>
-      <c r="I59">
-        <v>9004</v>
-      </c>
-      <c r="J59">
-        <v>300</v>
-      </c>
-      <c r="K59">
-        <v>80009</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A60">
-        <v>3020</v>
-      </c>
-      <c r="B60" t="s">
-        <v>321</v>
-      </c>
-      <c r="C60">
-        <v>8</v>
-      </c>
-      <c r="D60" t="s">
-        <v>181</v>
-      </c>
-      <c r="E60" t="s">
-        <v>181</v>
-      </c>
-      <c r="F60" t="s">
-        <v>235</v>
-      </c>
-      <c r="G60" t="s">
-        <v>163</v>
-      </c>
-      <c r="I60">
-        <v>9004</v>
-      </c>
-      <c r="J60">
-        <v>300</v>
-      </c>
-      <c r="K60">
-        <v>80012</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A61">
-        <v>3021</v>
-      </c>
-      <c r="B61" t="s">
-        <v>322</v>
-      </c>
-      <c r="C61">
-        <v>8</v>
-      </c>
-      <c r="D61" t="s">
-        <v>182</v>
-      </c>
-      <c r="E61" t="s">
-        <v>182</v>
-      </c>
-      <c r="F61" t="s">
-        <v>236</v>
-      </c>
-      <c r="G61" t="s">
-        <v>163</v>
-      </c>
-      <c r="I61">
-        <v>9004</v>
-      </c>
-      <c r="J61">
-        <v>300</v>
-      </c>
-      <c r="K61">
-        <v>80015</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A62">
-        <v>3022</v>
-      </c>
-      <c r="B62" t="s">
-        <v>301</v>
-      </c>
-      <c r="C62">
-        <v>8</v>
-      </c>
-      <c r="D62" t="s">
-        <v>183</v>
-      </c>
-      <c r="E62" t="s">
-        <v>183</v>
-      </c>
-      <c r="F62" t="s">
-        <v>237</v>
-      </c>
-      <c r="G62" t="s">
-        <v>164</v>
-      </c>
-      <c r="I62">
-        <v>9004</v>
-      </c>
-      <c r="J62">
-        <v>150</v>
-      </c>
-      <c r="K62" s="7">
-        <v>84011</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A63">
-        <v>3023</v>
-      </c>
-      <c r="B63" t="s">
-        <v>302</v>
-      </c>
-      <c r="C63">
-        <v>8</v>
-      </c>
-      <c r="D63" t="s">
-        <v>184</v>
-      </c>
-      <c r="E63" t="s">
-        <v>184</v>
-      </c>
-      <c r="F63" t="s">
-        <v>238</v>
-      </c>
-      <c r="G63" t="s">
-        <v>164</v>
-      </c>
-      <c r="I63">
-        <v>9004</v>
-      </c>
-      <c r="J63">
-        <v>150</v>
-      </c>
-      <c r="K63" s="7">
-        <v>84012</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A64">
-        <v>3024</v>
-      </c>
-      <c r="B64" t="s">
-        <v>303</v>
-      </c>
-      <c r="C64">
-        <v>8</v>
-      </c>
-      <c r="D64" t="s">
-        <v>185</v>
-      </c>
-      <c r="E64" t="s">
-        <v>185</v>
-      </c>
-      <c r="F64" t="s">
-        <v>239</v>
-      </c>
-      <c r="G64" t="s">
-        <v>164</v>
-      </c>
-      <c r="I64">
-        <v>9004</v>
-      </c>
-      <c r="J64">
-        <v>150</v>
-      </c>
-      <c r="K64" s="7">
-        <v>84013</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A65">
-        <v>3025</v>
-      </c>
-      <c r="B65" t="s">
-        <v>304</v>
-      </c>
-      <c r="C65">
-        <v>8</v>
-      </c>
-      <c r="D65" t="s">
-        <v>186</v>
-      </c>
-      <c r="E65" t="s">
-        <v>186</v>
-      </c>
-      <c r="F65" t="s">
-        <v>240</v>
-      </c>
-      <c r="G65" t="s">
-        <v>164</v>
-      </c>
-      <c r="I65">
-        <v>9004</v>
-      </c>
-      <c r="J65">
-        <v>150</v>
-      </c>
-      <c r="K65" s="7">
-        <v>84014</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A66">
-        <v>3026</v>
-      </c>
-      <c r="B66" t="s">
-        <v>305</v>
       </c>
       <c r="C66">
         <v>8</v>
       </c>
       <c r="D66" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="E66" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="F66" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="G66" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="I66">
         <v>9004</v>
       </c>
       <c r="J66">
-        <v>150</v>
-      </c>
-      <c r="K66" s="7">
-        <v>84015</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A67">
-        <v>3027</v>
+        <v>300</v>
+      </c>
+      <c r="K66">
+        <v>81003</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A67" s="10">
+        <v>3011</v>
       </c>
       <c r="B67" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="C67">
         <v>8</v>
       </c>
       <c r="D67" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="E67" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="F67" t="s">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c r="G67" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="I67">
         <v>9004</v>
       </c>
       <c r="J67">
-        <v>150</v>
-      </c>
-      <c r="K67" s="7">
-        <v>84016</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A68">
-        <v>3028</v>
+        <v>300</v>
+      </c>
+      <c r="K67">
+        <v>81006</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A68" s="10">
+        <v>3012</v>
       </c>
       <c r="B68" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="C68">
         <v>8</v>
       </c>
       <c r="D68" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="E68" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="F68" t="s">
-        <v>243</v>
+        <v>216</v>
       </c>
       <c r="G68" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="I68">
         <v>9004</v>
       </c>
       <c r="J68">
-        <v>150</v>
-      </c>
-      <c r="K68" s="7">
-        <v>84017</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A69">
-        <v>3029</v>
+        <v>300</v>
+      </c>
+      <c r="K68">
+        <v>81009</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A69" s="10">
+        <v>3013</v>
       </c>
       <c r="B69" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C69">
         <v>8</v>
       </c>
       <c r="D69" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="E69" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="F69" t="s">
-        <v>244</v>
+        <v>217</v>
       </c>
       <c r="G69" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="I69">
         <v>9004</v>
       </c>
       <c r="J69">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="K69" s="7">
-        <v>84018</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A70">
-        <v>3030</v>
+        <v>84004</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A70" s="10">
+        <v>3014</v>
       </c>
       <c r="B70" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C70">
         <v>8</v>
       </c>
       <c r="D70" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="E70" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="F70" t="s">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="G70" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="I70">
         <v>9004</v>
       </c>
       <c r="J70">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="K70" s="7">
-        <v>84019</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A71">
-        <v>3031</v>
+        <v>84005</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A71" s="10">
+        <v>3015</v>
       </c>
       <c r="B71" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C71">
         <v>8</v>
       </c>
       <c r="D71" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="E71" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="F71" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="G71" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="I71">
         <v>9004</v>
       </c>
       <c r="J71">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="K71" s="7">
-        <v>84020</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A72">
-        <v>3032</v>
+        <v>84006</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A72" s="10">
+        <v>3016</v>
       </c>
       <c r="B72" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="C72">
         <v>8</v>
       </c>
       <c r="D72" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="E72" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="F72" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="G72" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="I72">
         <v>9004</v>
       </c>
       <c r="J72">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="K72" s="7">
-        <v>84021</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A73">
-        <v>3033</v>
+        <v>84007</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A73" s="10">
+        <v>3017</v>
       </c>
       <c r="B73" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="C73">
         <v>8</v>
       </c>
       <c r="D73" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="E73" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="F73" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="G73" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="I73">
         <v>9004</v>
       </c>
       <c r="J73">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="K73" s="7">
-        <v>84022</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A74">
-        <v>3034</v>
+        <v>84008</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A74" s="10">
+        <v>3018</v>
       </c>
       <c r="B74" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="C74">
         <v>8</v>
       </c>
       <c r="D74" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="E74" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="F74" t="s">
-        <v>249</v>
+        <v>222</v>
       </c>
       <c r="G74" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="I74">
         <v>9004</v>
       </c>
       <c r="J74">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="K74" s="7">
-        <v>84023</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A75">
-        <v>3035</v>
+        <v>84009</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A75" s="10">
+        <v>3019</v>
       </c>
       <c r="B75" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="C75">
         <v>8</v>
       </c>
       <c r="D75" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="E75" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="F75" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="G75" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="I75">
         <v>9004</v>
       </c>
       <c r="J75">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="K75" s="7">
-        <v>84024</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A76">
-        <v>3036</v>
+        <v>84010</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A76" s="10">
+        <v>3020</v>
       </c>
       <c r="B76" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="C76">
         <v>8</v>
       </c>
       <c r="D76" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="E76" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="F76" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="G76" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="I76">
         <v>9004</v>
       </c>
       <c r="J76">
-        <v>150</v>
-      </c>
-      <c r="K76" s="7">
-        <v>84025</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A77">
-        <v>3037</v>
+        <v>300</v>
+      </c>
+      <c r="K76">
+        <v>80003</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A77" s="10">
+        <v>3021</v>
       </c>
       <c r="B77" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="C77">
         <v>8</v>
       </c>
       <c r="D77" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="E77" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="F77" t="s">
-        <v>252</v>
+        <v>225</v>
       </c>
       <c r="G77" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="I77">
         <v>9004</v>
       </c>
       <c r="J77">
-        <v>150</v>
-      </c>
-      <c r="K77" s="7">
-        <v>84026</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A78">
-        <v>3038</v>
+        <v>300</v>
+      </c>
+      <c r="K77">
+        <v>80006</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A78" s="10">
+        <v>3022</v>
       </c>
       <c r="B78" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="C78">
         <v>8</v>
       </c>
       <c r="D78" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="E78" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="F78" t="s">
-        <v>253</v>
+        <v>226</v>
       </c>
       <c r="G78" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="I78">
         <v>9004</v>
       </c>
       <c r="J78">
-        <v>150</v>
-      </c>
-      <c r="K78" s="7">
-        <v>84027</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A79">
-        <v>3039</v>
+        <v>300</v>
+      </c>
+      <c r="K78">
+        <v>80009</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A79" s="10">
+        <v>3023</v>
       </c>
       <c r="B79" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="C79">
         <v>8</v>
       </c>
       <c r="D79" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="E79" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="F79" t="s">
-        <v>254</v>
+        <v>227</v>
       </c>
       <c r="G79" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="I79">
         <v>9004</v>
       </c>
       <c r="J79">
-        <v>150</v>
-      </c>
-      <c r="K79" s="7">
-        <v>84028</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A80">
-        <v>3040</v>
+        <v>300</v>
+      </c>
+      <c r="K79">
+        <v>80012</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A80" s="10">
+        <v>3024</v>
       </c>
       <c r="B80" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="C80">
         <v>8</v>
       </c>
       <c r="D80" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="E80" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="F80" t="s">
-        <v>255</v>
+        <v>228</v>
       </c>
       <c r="G80" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="I80">
         <v>9004</v>
       </c>
       <c r="J80">
-        <v>150</v>
-      </c>
-      <c r="K80" s="7">
-        <v>84029</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A81">
-        <v>3041</v>
+        <v>300</v>
+      </c>
+      <c r="K80">
+        <v>80015</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A81" s="10">
+        <v>3025</v>
       </c>
       <c r="B81" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="C81">
         <v>8</v>
       </c>
       <c r="D81" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="E81" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="F81" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="G81" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I81">
         <v>9004</v>
@@ -4908,30 +5477,30 @@
         <v>150</v>
       </c>
       <c r="K81" s="7">
-        <v>84030</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A82">
-        <v>3042</v>
+        <v>84011</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A82" s="10">
+        <v>3026</v>
       </c>
       <c r="B82" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="C82">
         <v>8</v>
       </c>
       <c r="D82" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="E82" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="F82" t="s">
-        <v>257</v>
+        <v>230</v>
       </c>
       <c r="G82" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I82">
         <v>9004</v>
@@ -4940,30 +5509,30 @@
         <v>150</v>
       </c>
       <c r="K82" s="7">
-        <v>84031</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A83">
-        <v>3043</v>
+        <v>84012</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A83" s="10">
+        <v>3027</v>
       </c>
       <c r="B83" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="C83">
         <v>8</v>
       </c>
       <c r="D83" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="E83" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="F83" t="s">
-        <v>258</v>
+        <v>231</v>
       </c>
       <c r="G83" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I83">
         <v>9004</v>
@@ -4972,30 +5541,30 @@
         <v>150</v>
       </c>
       <c r="K83" s="7">
-        <v>84032</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A84">
-        <v>3044</v>
+        <v>84013</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A84" s="10">
+        <v>3028</v>
       </c>
       <c r="B84" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="C84">
         <v>8</v>
       </c>
       <c r="D84" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="E84" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="F84" t="s">
-        <v>259</v>
+        <v>232</v>
       </c>
       <c r="G84" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I84">
         <v>9004</v>
@@ -5004,30 +5573,30 @@
         <v>150</v>
       </c>
       <c r="K84" s="7">
-        <v>84033</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A85">
-        <v>3045</v>
+        <v>84014</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A85" s="10">
+        <v>3029</v>
       </c>
       <c r="B85" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="C85">
         <v>8</v>
       </c>
       <c r="D85" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="E85" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="F85" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="G85" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I85">
         <v>9004</v>
@@ -5036,30 +5605,30 @@
         <v>150</v>
       </c>
       <c r="K85" s="7">
-        <v>84034</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A86">
-        <v>3046</v>
+        <v>84015</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A86" s="10">
+        <v>3030</v>
       </c>
       <c r="B86" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="C86">
         <v>8</v>
       </c>
       <c r="D86" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="E86" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="F86" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="G86" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I86">
         <v>9004</v>
@@ -5068,30 +5637,30 @@
         <v>150</v>
       </c>
       <c r="K86" s="7">
-        <v>84035</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A87">
-        <v>3047</v>
+        <v>84016</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A87" s="10">
+        <v>3031</v>
       </c>
       <c r="B87" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="C87">
         <v>8</v>
       </c>
       <c r="D87" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="E87" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="F87" t="s">
-        <v>262</v>
+        <v>235</v>
       </c>
       <c r="G87" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I87">
         <v>9004</v>
@@ -5100,30 +5669,30 @@
         <v>150</v>
       </c>
       <c r="K87" s="7">
-        <v>84036</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A88">
-        <v>3048</v>
+        <v>84017</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A88" s="10">
+        <v>3032</v>
       </c>
       <c r="B88" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="C88">
         <v>8</v>
       </c>
       <c r="D88" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="E88" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="F88" t="s">
-        <v>263</v>
+        <v>236</v>
       </c>
       <c r="G88" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I88">
         <v>9004</v>
@@ -5132,30 +5701,30 @@
         <v>150</v>
       </c>
       <c r="K88" s="7">
-        <v>84037</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A89">
-        <v>3049</v>
+        <v>84018</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A89" s="10">
+        <v>3033</v>
       </c>
       <c r="B89" t="s">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="C89">
         <v>8</v>
       </c>
       <c r="D89" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="E89" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="F89" t="s">
-        <v>264</v>
+        <v>237</v>
       </c>
       <c r="G89" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I89">
         <v>9004</v>
@@ -5163,31 +5732,31 @@
       <c r="J89">
         <v>150</v>
       </c>
-      <c r="K89" s="6">
-        <v>83306</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A90">
-        <v>3050</v>
+      <c r="K89" s="7">
+        <v>84019</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A90" s="10">
+        <v>3034</v>
       </c>
       <c r="B90" t="s">
-        <v>275</v>
+        <v>301</v>
       </c>
       <c r="C90">
         <v>8</v>
       </c>
       <c r="D90" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="E90" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="F90" t="s">
-        <v>265</v>
+        <v>238</v>
       </c>
       <c r="G90" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I90">
         <v>9004</v>
@@ -5195,31 +5764,31 @@
       <c r="J90">
         <v>150</v>
       </c>
-      <c r="K90" s="6">
-        <v>83307</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A91">
-        <v>3051</v>
+      <c r="K90" s="7">
+        <v>84020</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A91" s="10">
+        <v>3035</v>
       </c>
       <c r="B91" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="C91">
         <v>8</v>
       </c>
       <c r="D91" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="E91" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="F91" t="s">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="G91" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I91">
         <v>9004</v>
@@ -5227,31 +5796,31 @@
       <c r="J91">
         <v>150</v>
       </c>
-      <c r="K91" s="6">
-        <v>83308</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A92">
-        <v>3052</v>
+      <c r="K91" s="7">
+        <v>84021</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A92" s="10">
+        <v>3036</v>
       </c>
       <c r="B92" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="C92">
         <v>8</v>
       </c>
       <c r="D92" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="E92" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="F92" t="s">
-        <v>267</v>
+        <v>240</v>
       </c>
       <c r="G92" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I92">
         <v>9004</v>
@@ -5259,31 +5828,31 @@
       <c r="J92">
         <v>150</v>
       </c>
-      <c r="K92" s="6">
-        <v>83309</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A93">
-        <v>3053</v>
+      <c r="K92" s="7">
+        <v>84022</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A93" s="10">
+        <v>3037</v>
       </c>
       <c r="B93" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="C93">
         <v>8</v>
       </c>
       <c r="D93" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="E93" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="F93" t="s">
-        <v>268</v>
+        <v>241</v>
       </c>
       <c r="G93" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I93">
         <v>9004</v>
@@ -5291,31 +5860,31 @@
       <c r="J93">
         <v>150</v>
       </c>
-      <c r="K93" s="6">
-        <v>83310</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A94">
-        <v>3054</v>
+      <c r="K93" s="7">
+        <v>84023</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A94" s="10">
+        <v>3038</v>
       </c>
       <c r="B94" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="C94">
         <v>8</v>
       </c>
       <c r="D94" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="E94" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="F94" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="G94" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I94">
         <v>9004</v>
@@ -5323,31 +5892,31 @@
       <c r="J94">
         <v>150</v>
       </c>
-      <c r="K94" s="6">
-        <v>83311</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A95">
-        <v>3055</v>
+      <c r="K94" s="7">
+        <v>84024</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A95" s="10">
+        <v>3039</v>
       </c>
       <c r="B95" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="C95">
         <v>8</v>
       </c>
       <c r="D95" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="E95" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="F95" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="G95" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I95">
         <v>9004</v>
@@ -5355,31 +5924,31 @@
       <c r="J95">
         <v>150</v>
       </c>
-      <c r="K95" s="6">
-        <v>83312</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A96">
-        <v>3056</v>
+      <c r="K95" s="7">
+        <v>84025</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A96" s="10">
+        <v>3040</v>
       </c>
       <c r="B96" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C96">
         <v>8</v>
       </c>
       <c r="D96" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="E96" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="F96" t="s">
-        <v>271</v>
+        <v>244</v>
       </c>
       <c r="G96" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I96">
         <v>9004</v>
@@ -5387,31 +5956,31 @@
       <c r="J96">
         <v>150</v>
       </c>
-      <c r="K96" s="6">
-        <v>83313</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A97">
-        <v>3057</v>
+      <c r="K96" s="7">
+        <v>84026</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A97" s="10">
+        <v>3041</v>
       </c>
       <c r="B97" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="C97">
         <v>8</v>
       </c>
       <c r="D97" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="E97" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="F97" t="s">
-        <v>272</v>
+        <v>245</v>
       </c>
       <c r="G97" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I97">
         <v>9004</v>
@@ -5419,31 +5988,31 @@
       <c r="J97">
         <v>150</v>
       </c>
-      <c r="K97" s="6">
-        <v>83314</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A98">
-        <v>3058</v>
+      <c r="K97" s="7">
+        <v>84027</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A98" s="10">
+        <v>3042</v>
       </c>
       <c r="B98" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C98">
         <v>8</v>
       </c>
       <c r="D98" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="E98" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="F98" t="s">
-        <v>273</v>
+        <v>246</v>
       </c>
       <c r="G98" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I98">
         <v>9004</v>
@@ -5451,7 +6020,615 @@
       <c r="J98">
         <v>150</v>
       </c>
-      <c r="K98" s="6">
+      <c r="K98" s="7">
+        <v>84028</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A99" s="10">
+        <v>3043</v>
+      </c>
+      <c r="B99" t="s">
+        <v>290</v>
+      </c>
+      <c r="C99">
+        <v>8</v>
+      </c>
+      <c r="D99" t="s">
+        <v>195</v>
+      </c>
+      <c r="E99" t="s">
+        <v>195</v>
+      </c>
+      <c r="F99" t="s">
+        <v>247</v>
+      </c>
+      <c r="G99" t="s">
+        <v>160</v>
+      </c>
+      <c r="I99">
+        <v>9004</v>
+      </c>
+      <c r="J99">
+        <v>150</v>
+      </c>
+      <c r="K99" s="7">
+        <v>84029</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A100" s="10">
+        <v>3044</v>
+      </c>
+      <c r="B100" t="s">
+        <v>291</v>
+      </c>
+      <c r="C100">
+        <v>8</v>
+      </c>
+      <c r="D100" t="s">
+        <v>196</v>
+      </c>
+      <c r="E100" t="s">
+        <v>196</v>
+      </c>
+      <c r="F100" t="s">
+        <v>248</v>
+      </c>
+      <c r="G100" t="s">
+        <v>160</v>
+      </c>
+      <c r="I100">
+        <v>9004</v>
+      </c>
+      <c r="J100">
+        <v>150</v>
+      </c>
+      <c r="K100" s="7">
+        <v>84030</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A101" s="10">
+        <v>3045</v>
+      </c>
+      <c r="B101" t="s">
+        <v>275</v>
+      </c>
+      <c r="C101">
+        <v>8</v>
+      </c>
+      <c r="D101" t="s">
+        <v>197</v>
+      </c>
+      <c r="E101" t="s">
+        <v>197</v>
+      </c>
+      <c r="F101" t="s">
+        <v>249</v>
+      </c>
+      <c r="G101" t="s">
+        <v>160</v>
+      </c>
+      <c r="I101">
+        <v>9004</v>
+      </c>
+      <c r="J101">
+        <v>150</v>
+      </c>
+      <c r="K101" s="7">
+        <v>84031</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A102" s="10">
+        <v>3046</v>
+      </c>
+      <c r="B102" t="s">
+        <v>276</v>
+      </c>
+      <c r="C102">
+        <v>8</v>
+      </c>
+      <c r="D102" t="s">
+        <v>198</v>
+      </c>
+      <c r="E102" t="s">
+        <v>198</v>
+      </c>
+      <c r="F102" t="s">
+        <v>250</v>
+      </c>
+      <c r="G102" t="s">
+        <v>160</v>
+      </c>
+      <c r="I102">
+        <v>9004</v>
+      </c>
+      <c r="J102">
+        <v>150</v>
+      </c>
+      <c r="K102" s="7">
+        <v>84032</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A103" s="10">
+        <v>3047</v>
+      </c>
+      <c r="B103" t="s">
+        <v>277</v>
+      </c>
+      <c r="C103">
+        <v>8</v>
+      </c>
+      <c r="D103" t="s">
+        <v>199</v>
+      </c>
+      <c r="E103" t="s">
+        <v>199</v>
+      </c>
+      <c r="F103" t="s">
+        <v>251</v>
+      </c>
+      <c r="G103" t="s">
+        <v>160</v>
+      </c>
+      <c r="I103">
+        <v>9004</v>
+      </c>
+      <c r="J103">
+        <v>150</v>
+      </c>
+      <c r="K103" s="7">
+        <v>84033</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A104" s="10">
+        <v>3048</v>
+      </c>
+      <c r="B104" t="s">
+        <v>278</v>
+      </c>
+      <c r="C104">
+        <v>8</v>
+      </c>
+      <c r="D104" t="s">
+        <v>200</v>
+      </c>
+      <c r="E104" t="s">
+        <v>200</v>
+      </c>
+      <c r="F104" t="s">
+        <v>252</v>
+      </c>
+      <c r="G104" t="s">
+        <v>160</v>
+      </c>
+      <c r="I104">
+        <v>9004</v>
+      </c>
+      <c r="J104">
+        <v>150</v>
+      </c>
+      <c r="K104" s="7">
+        <v>84034</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A105" s="10">
+        <v>3049</v>
+      </c>
+      <c r="B105" t="s">
+        <v>279</v>
+      </c>
+      <c r="C105">
+        <v>8</v>
+      </c>
+      <c r="D105" t="s">
+        <v>201</v>
+      </c>
+      <c r="E105" t="s">
+        <v>201</v>
+      </c>
+      <c r="F105" t="s">
+        <v>253</v>
+      </c>
+      <c r="G105" t="s">
+        <v>160</v>
+      </c>
+      <c r="I105">
+        <v>9004</v>
+      </c>
+      <c r="J105">
+        <v>150</v>
+      </c>
+      <c r="K105" s="7">
+        <v>84035</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A106" s="10">
+        <v>3050</v>
+      </c>
+      <c r="B106" t="s">
+        <v>280</v>
+      </c>
+      <c r="C106">
+        <v>8</v>
+      </c>
+      <c r="D106" t="s">
+        <v>202</v>
+      </c>
+      <c r="E106" t="s">
+        <v>202</v>
+      </c>
+      <c r="F106" t="s">
+        <v>254</v>
+      </c>
+      <c r="G106" t="s">
+        <v>160</v>
+      </c>
+      <c r="I106">
+        <v>9004</v>
+      </c>
+      <c r="J106">
+        <v>150</v>
+      </c>
+      <c r="K106" s="7">
+        <v>84036</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A107" s="10">
+        <v>3051</v>
+      </c>
+      <c r="B107" t="s">
+        <v>281</v>
+      </c>
+      <c r="C107">
+        <v>8</v>
+      </c>
+      <c r="D107" t="s">
+        <v>203</v>
+      </c>
+      <c r="E107" t="s">
+        <v>203</v>
+      </c>
+      <c r="F107" t="s">
+        <v>255</v>
+      </c>
+      <c r="G107" t="s">
+        <v>160</v>
+      </c>
+      <c r="I107">
+        <v>9004</v>
+      </c>
+      <c r="J107">
+        <v>150</v>
+      </c>
+      <c r="K107" s="7">
+        <v>84037</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A108" s="10">
+        <v>3052</v>
+      </c>
+      <c r="B108" t="s">
+        <v>265</v>
+      </c>
+      <c r="C108">
+        <v>8</v>
+      </c>
+      <c r="D108" t="s">
+        <v>204</v>
+      </c>
+      <c r="E108" t="s">
+        <v>204</v>
+      </c>
+      <c r="F108" t="s">
+        <v>256</v>
+      </c>
+      <c r="G108" t="s">
+        <v>160</v>
+      </c>
+      <c r="I108">
+        <v>9004</v>
+      </c>
+      <c r="J108">
+        <v>150</v>
+      </c>
+      <c r="K108" s="6">
+        <v>83306</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A109" s="10">
+        <v>3053</v>
+      </c>
+      <c r="B109" t="s">
+        <v>266</v>
+      </c>
+      <c r="C109">
+        <v>8</v>
+      </c>
+      <c r="D109" t="s">
+        <v>205</v>
+      </c>
+      <c r="E109" t="s">
+        <v>205</v>
+      </c>
+      <c r="F109" t="s">
+        <v>257</v>
+      </c>
+      <c r="G109" t="s">
+        <v>160</v>
+      </c>
+      <c r="I109">
+        <v>9004</v>
+      </c>
+      <c r="J109">
+        <v>150</v>
+      </c>
+      <c r="K109" s="6">
+        <v>83307</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A110" s="10">
+        <v>3054</v>
+      </c>
+      <c r="B110" t="s">
+        <v>267</v>
+      </c>
+      <c r="C110">
+        <v>8</v>
+      </c>
+      <c r="D110" t="s">
+        <v>206</v>
+      </c>
+      <c r="E110" t="s">
+        <v>206</v>
+      </c>
+      <c r="F110" t="s">
+        <v>258</v>
+      </c>
+      <c r="G110" t="s">
+        <v>160</v>
+      </c>
+      <c r="I110">
+        <v>9004</v>
+      </c>
+      <c r="J110">
+        <v>150</v>
+      </c>
+      <c r="K110" s="6">
+        <v>83308</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A111" s="10">
+        <v>3055</v>
+      </c>
+      <c r="B111" t="s">
+        <v>268</v>
+      </c>
+      <c r="C111">
+        <v>8</v>
+      </c>
+      <c r="D111" t="s">
+        <v>207</v>
+      </c>
+      <c r="E111" t="s">
+        <v>207</v>
+      </c>
+      <c r="F111" t="s">
+        <v>259</v>
+      </c>
+      <c r="G111" t="s">
+        <v>160</v>
+      </c>
+      <c r="I111">
+        <v>9004</v>
+      </c>
+      <c r="J111">
+        <v>150</v>
+      </c>
+      <c r="K111" s="6">
+        <v>83309</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A112" s="10">
+        <v>3056</v>
+      </c>
+      <c r="B112" t="s">
+        <v>269</v>
+      </c>
+      <c r="C112">
+        <v>8</v>
+      </c>
+      <c r="D112" t="s">
+        <v>208</v>
+      </c>
+      <c r="E112" t="s">
+        <v>208</v>
+      </c>
+      <c r="F112" t="s">
+        <v>260</v>
+      </c>
+      <c r="G112" t="s">
+        <v>160</v>
+      </c>
+      <c r="I112">
+        <v>9004</v>
+      </c>
+      <c r="J112">
+        <v>150</v>
+      </c>
+      <c r="K112" s="6">
+        <v>83310</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A113" s="10">
+        <v>3057</v>
+      </c>
+      <c r="B113" t="s">
+        <v>270</v>
+      </c>
+      <c r="C113">
+        <v>8</v>
+      </c>
+      <c r="D113" t="s">
+        <v>209</v>
+      </c>
+      <c r="E113" t="s">
+        <v>209</v>
+      </c>
+      <c r="F113" t="s">
+        <v>261</v>
+      </c>
+      <c r="G113" t="s">
+        <v>160</v>
+      </c>
+      <c r="I113">
+        <v>9004</v>
+      </c>
+      <c r="J113">
+        <v>150</v>
+      </c>
+      <c r="K113" s="6">
+        <v>83311</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A114" s="10">
+        <v>3058</v>
+      </c>
+      <c r="B114" t="s">
+        <v>271</v>
+      </c>
+      <c r="C114">
+        <v>8</v>
+      </c>
+      <c r="D114" t="s">
+        <v>210</v>
+      </c>
+      <c r="E114" t="s">
+        <v>210</v>
+      </c>
+      <c r="F114" t="s">
+        <v>262</v>
+      </c>
+      <c r="G114" t="s">
+        <v>160</v>
+      </c>
+      <c r="I114">
+        <v>9004</v>
+      </c>
+      <c r="J114">
+        <v>150</v>
+      </c>
+      <c r="K114" s="6">
+        <v>83312</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A115" s="10">
+        <v>3059</v>
+      </c>
+      <c r="B115" t="s">
+        <v>272</v>
+      </c>
+      <c r="C115">
+        <v>8</v>
+      </c>
+      <c r="D115" t="s">
+        <v>211</v>
+      </c>
+      <c r="E115" t="s">
+        <v>211</v>
+      </c>
+      <c r="F115" t="s">
+        <v>263</v>
+      </c>
+      <c r="G115" t="s">
+        <v>160</v>
+      </c>
+      <c r="I115">
+        <v>9004</v>
+      </c>
+      <c r="J115">
+        <v>150</v>
+      </c>
+      <c r="K115" s="6">
+        <v>83313</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A116" s="10">
+        <v>3060</v>
+      </c>
+      <c r="B116" t="s">
+        <v>273</v>
+      </c>
+      <c r="C116">
+        <v>8</v>
+      </c>
+      <c r="D116" t="s">
+        <v>212</v>
+      </c>
+      <c r="E116" t="s">
+        <v>212</v>
+      </c>
+      <c r="F116" t="s">
+        <v>264</v>
+      </c>
+      <c r="G116" t="s">
+        <v>160</v>
+      </c>
+      <c r="I116">
+        <v>9004</v>
+      </c>
+      <c r="J116">
+        <v>150</v>
+      </c>
+      <c r="K116" s="6">
+        <v>83314</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A117" s="10">
+        <v>3061</v>
+      </c>
+      <c r="B117" t="s">
+        <v>274</v>
+      </c>
+      <c r="C117">
+        <v>8</v>
+      </c>
+      <c r="D117" t="s">
+        <v>213</v>
+      </c>
+      <c r="E117" t="s">
+        <v>213</v>
+      </c>
+      <c r="F117" t="s">
+        <v>332</v>
+      </c>
+      <c r="G117" t="s">
+        <v>160</v>
+      </c>
+      <c r="I117">
+        <v>9004</v>
+      </c>
+      <c r="J117">
+        <v>150</v>
+      </c>
+      <c r="K117" s="6">
         <v>83315</v>
       </c>
     </row>
@@ -5473,132 +6650,132 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.19921875" customWidth="1"/>
+    <col min="1" max="1" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>142</v>
       </c>
@@ -5612,20 +6789,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC2DF1F8-1852-4E6C-BEBB-8DF7E83C72E9}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -5633,7 +6808,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5641,7 +6816,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -5649,7 +6824,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -5657,7 +6832,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -5665,7 +6840,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
@@ -5673,7 +6848,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>6</v>
       </c>
@@ -5681,12 +6856,20 @@
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>382</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Shop.xlsx
+++ b/Config/Excel/Shop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186AD6E6-E983-4389-9DC2-423148AD8DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180EC283-C738-43F4-9A7F-7BE0708C7BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DE9042F4-05E2-4CBA-95A7-AC962596AF59}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="411">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -2061,6 +2061,14 @@
   </si>
   <si>
     <t>ジングルソードを1個獲得することができます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/itemcoin_2d_010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/itemcoin_2d_011</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2868,10 +2876,10 @@
   <dimension ref="A1:L117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E59" sqref="E59"/>
+      <selection pane="bottomRight" activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4759,7 +4767,7 @@
         <v>3004</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>322</v>
+        <v>409</v>
       </c>
       <c r="C60" s="12">
         <v>8</v>
@@ -4831,7 +4839,7 @@
         <v>3006</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>322</v>
+        <v>410</v>
       </c>
       <c r="C62" s="12">
         <v>8</v>

--- a/Config/Excel/Shop.xlsx
+++ b/Config/Excel/Shop.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180EC283-C738-43F4-9A7F-7BE0708C7BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A5BECF-D894-4917-A8E1-7649B4C38839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DE9042F4-05E2-4CBA-95A7-AC962596AF59}"/>
+    <workbookView xWindow="1368" yWindow="324" windowWidth="17316" windowHeight="10968" xr2:uid="{DE9042F4-05E2-4CBA-95A7-AC962596AF59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1772,36 +1772,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>爆弾10を20個、爆弾10・花火を20個獲得することができます。</t>
-    <rPh sb="7" eb="8">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>爆弾10を10個、爆弾10・花火を10個獲得することができます。</t>
-    <rPh sb="7" eb="8">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>爆弾5を10個、爆弾5・花火を10個獲得することができます。</t>
-    <rPh sb="6" eb="7">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Textures/shop_2d_102</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2009,7 +1979,114 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>爆弾3を10個、爆弾3・花火を10個獲得することができます。</t>
+    <t>ポイントセット（大）</t>
+  </si>
+  <si>
+    <t>ポイントセット（中）</t>
+  </si>
+  <si>
+    <t>ポイントセット（小）</t>
+  </si>
+  <si>
+    <t>ポイントを500個獲得することができます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポイントを100個獲得することができます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジングルソード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジングルソードを1個獲得することができます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/itemcoin_2d_010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textures/itemcoin_2d_011</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>爆弾10を10個、爆弾10・花火を10個獲得することができます。
+爆弾を使うと、一気にたくさんのブロックを破壊することができます。
+※破壊されたブロックは、消費されず手持ちに追加されます。</t>
+    <rPh sb="7" eb="8">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>バクダン</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>イッキ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ハカイ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ハカイ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ショウヒ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>テモ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>爆弾5を5個、爆弾5・花火を5個獲得することができます。
+爆弾を使うと、一気にたくさんのブロックを破壊することができます。
+※破壊されたブロックは、消費されず手持ちに追加されます。</t>
+    <rPh sb="5" eb="6">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>爆弾3を5個、爆弾3・花火を5個獲得することができます。
+爆弾を使うと、一気にたくさんのブロックを破壊することができます。
+※破壊されたブロックは、消費されず手持ちに追加されます。</t>
+    <rPh sb="5" eb="6">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>爆弾10を20個、爆弾10・花火を20個獲得することができます。
+爆弾を使うと、一気にたくさんのブロックを破壊することができます。
+※破壊されたブロックは、消費されず手持ちに追加されます。</t>
+    <rPh sb="7" eb="8">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>爆弾5を10個、爆弾5・花火を10個獲得することができます。
+爆弾を使うと、一気にたくさんのブロックを破壊することができます。
+※破壊されたブロックは、消費されず手持ちに追加されます。</t>
     <rPh sb="6" eb="7">
       <t>コ</t>
     </rPh>
@@ -2019,56 +2096,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>爆弾5を5個、爆弾5・花火を5個獲得することができます。</t>
-    <rPh sb="5" eb="6">
+    <t>爆弾3を10個、爆弾3・花火を10個獲得することができます。
+爆弾を使うと、一気にたくさんのブロックを破壊することができます。
+※破壊されたブロックは、消費されず手持ちに追加されます。</t>
+    <rPh sb="6" eb="7">
       <t>コ</t>
     </rPh>
-    <rPh sb="15" eb="16">
+    <rPh sb="17" eb="18">
       <t>コ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>爆弾3を5個、爆弾3・花火を5個獲得することができます。</t>
-    <rPh sb="5" eb="6">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ポイントセット（大）</t>
-  </si>
-  <si>
-    <t>ポイントセット（中）</t>
-  </si>
-  <si>
-    <t>ポイントセット（小）</t>
-  </si>
-  <si>
-    <t>ポイントを500個獲得することができます。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ポイントを100個獲得することができます。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ジングルソード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ジングルソードを1個獲得することができます。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Textures/itemcoin_2d_010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Textures/itemcoin_2d_011</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2876,25 +2912,25 @@
   <dimension ref="A1:L117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F59" sqref="F59"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="25.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.625" customWidth="1"/>
-    <col min="4" max="4" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.59765625" customWidth="1"/>
+    <col min="4" max="4" width="19.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.8984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
-    <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.09765625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.5" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2932,7 +2968,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2961,7 +2997,7 @@
         <v>10001</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2990,7 +3026,7 @@
         <v>10002</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3019,7 +3055,7 @@
         <v>10003</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3048,7 +3084,7 @@
         <v>10004</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3077,7 +3113,7 @@
         <v>10005</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>80</v>
       </c>
@@ -3106,7 +3142,7 @@
         <v>10080</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>81</v>
       </c>
@@ -3135,7 +3171,7 @@
         <v>10081</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>82</v>
       </c>
@@ -3164,12 +3200,12 @@
         <v>10082</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" ht="108" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>100</v>
       </c>
       <c r="B10" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -3181,7 +3217,7 @@
         <v>326</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>333</v>
+        <v>408</v>
       </c>
       <c r="G10" t="s">
         <v>329</v>
@@ -3199,12 +3235,12 @@
         <v>15001</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" ht="108" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>101</v>
       </c>
       <c r="B11" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -3216,7 +3252,7 @@
         <v>327</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>335</v>
+        <v>409</v>
       </c>
       <c r="G11" t="s">
         <v>330</v>
@@ -3234,12 +3270,12 @@
         <v>15002</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" ht="108" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>102</v>
       </c>
       <c r="B12" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -3251,7 +3287,7 @@
         <v>328</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="G12" t="s">
         <v>17</v>
@@ -3269,7 +3305,7 @@
         <v>15003</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" ht="54" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>103</v>
       </c>
@@ -3301,7 +3337,7 @@
         <v>84002</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" ht="54" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>104</v>
       </c>
@@ -3333,7 +3369,7 @@
         <v>84038</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" ht="54" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>105</v>
       </c>
@@ -3365,7 +3401,7 @@
         <v>84039</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>106</v>
       </c>
@@ -3397,7 +3433,7 @@
         <v>11001</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>107</v>
       </c>
@@ -3429,7 +3465,7 @@
         <v>11002</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>108</v>
       </c>
@@ -3461,7 +3497,7 @@
         <v>11003</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>109</v>
       </c>
@@ -3493,7 +3529,7 @@
         <v>11004</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>110</v>
       </c>
@@ -3525,7 +3561,7 @@
         <v>11005</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>111</v>
       </c>
@@ -3557,24 +3593,24 @@
         <v>12001</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>200</v>
       </c>
       <c r="B22" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C22">
         <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E22" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F22" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="G22" t="s">
         <v>17</v>
@@ -3589,27 +3625,27 @@
         <v>15101</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>201</v>
       </c>
       <c r="B23" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C23">
         <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E23" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F23" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G23" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="I23">
         <v>9001</v>
@@ -3621,24 +3657,24 @@
         <v>15102</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>202</v>
       </c>
       <c r="B24" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C24">
         <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E24" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F24" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="G24" t="s">
         <v>331</v>
@@ -3653,27 +3689,27 @@
         <v>15103</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>203</v>
       </c>
       <c r="B25" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C25">
         <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E25" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F25" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G25" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="I25">
         <v>9001</v>
@@ -3685,24 +3721,24 @@
         <v>15104</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>204</v>
       </c>
       <c r="B26" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C26">
         <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E26" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F26" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G26" t="s">
         <v>331</v>
@@ -3717,27 +3753,27 @@
         <v>15105</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>205</v>
       </c>
       <c r="B27" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C27">
         <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E27" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F27" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G27" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="I27">
         <v>9001</v>
@@ -3749,24 +3785,24 @@
         <v>15106</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>206</v>
       </c>
       <c r="B28" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C28">
         <v>7</v>
       </c>
       <c r="D28" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E28" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F28" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="G28" t="s">
         <v>331</v>
@@ -3781,27 +3817,27 @@
         <v>15107</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>207</v>
       </c>
       <c r="B29" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C29">
         <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E29" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F29" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G29" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="I29">
         <v>9001</v>
@@ -3813,24 +3849,24 @@
         <v>15108</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>208</v>
       </c>
       <c r="B30" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C30">
         <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E30" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F30" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G30" t="s">
         <v>331</v>
@@ -3845,27 +3881,27 @@
         <v>15109</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>209</v>
       </c>
       <c r="B31" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C31">
         <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E31" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F31" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G31" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="I31">
         <v>9001</v>
@@ -3877,24 +3913,24 @@
         <v>15110</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>210</v>
       </c>
       <c r="B32" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C32">
         <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E32" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F32" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G32" t="s">
         <v>331</v>
@@ -3909,27 +3945,27 @@
         <v>15111</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>211</v>
       </c>
       <c r="B33" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C33">
         <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E33" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="F33" t="s">
+        <v>375</v>
+      </c>
+      <c r="G33" t="s">
         <v>378</v>
-      </c>
-      <c r="G33" t="s">
-        <v>381</v>
       </c>
       <c r="I33">
         <v>9001</v>
@@ -3941,24 +3977,24 @@
         <v>15112</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>212</v>
       </c>
       <c r="B34" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C34">
         <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E34" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F34" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G34" t="s">
         <v>331</v>
@@ -3973,24 +4009,24 @@
         <v>15113</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>213</v>
       </c>
       <c r="B35" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C35">
         <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E35" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F35" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G35" t="s">
         <v>331</v>
@@ -4005,7 +4041,7 @@
         <v>15114</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>214</v>
       </c>
@@ -4037,7 +4073,7 @@
         <v>12002</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>215</v>
       </c>
@@ -4069,7 +4105,7 @@
         <v>12003</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>216</v>
       </c>
@@ -4101,7 +4137,7 @@
         <v>12004</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>217</v>
       </c>
@@ -4133,7 +4169,7 @@
         <v>12005</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>218</v>
       </c>
@@ -4165,7 +4201,7 @@
         <v>12006</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>219</v>
       </c>
@@ -4197,7 +4233,7 @@
         <v>12007</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>220</v>
       </c>
@@ -4229,7 +4265,7 @@
         <v>12008</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>221</v>
       </c>
@@ -4261,7 +4297,7 @@
         <v>12009</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>222</v>
       </c>
@@ -4293,7 +4329,7 @@
         <v>12010</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>223</v>
       </c>
@@ -4325,7 +4361,7 @@
         <v>12011</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>224</v>
       </c>
@@ -4357,7 +4393,7 @@
         <v>12012</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>225</v>
       </c>
@@ -4389,7 +4425,7 @@
         <v>12013</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>226</v>
       </c>
@@ -4421,7 +4457,7 @@
         <v>12014</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>1000</v>
       </c>
@@ -4453,7 +4489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>2000</v>
       </c>
@@ -4482,7 +4518,7 @@
         <v>14001</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>2001</v>
       </c>
@@ -4511,7 +4547,7 @@
         <v>14002</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>2002</v>
       </c>
@@ -4540,7 +4576,7 @@
         <v>14003</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>2003</v>
       </c>
@@ -4569,7 +4605,7 @@
         <v>14004</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>2004</v>
       </c>
@@ -4598,7 +4634,7 @@
         <v>14005</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>2005</v>
       </c>
@@ -4627,7 +4663,7 @@
         <v>14006</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>2006</v>
       </c>
@@ -4656,27 +4692,27 @@
         <v>14007</v>
       </c>
     </row>
-    <row r="57" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A57" s="10">
         <v>3001</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C57" s="12">
         <v>8</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="G57" s="12" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H57" s="12">
         <v>1</v>
@@ -4692,27 +4728,27 @@
       </c>
       <c r="L57" s="13"/>
     </row>
-    <row r="58" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A58" s="10">
         <v>3002</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C58" s="12">
         <v>8</v>
       </c>
       <c r="D58" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="F58" s="12" t="s">
         <v>385</v>
       </c>
-      <c r="E58" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="F58" s="12" t="s">
-        <v>388</v>
-      </c>
       <c r="G58" s="12" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H58" s="12">
         <v>1</v>
@@ -4727,27 +4763,27 @@
         <v>85002</v>
       </c>
     </row>
-    <row r="59" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A59" s="10">
         <v>3003</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C59" s="12">
         <v>8</v>
       </c>
       <c r="D59" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="E59" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="E59" s="9" t="s">
-        <v>389</v>
-      </c>
       <c r="F59" s="12" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G59" s="12" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H59" s="12">
         <v>1</v>
@@ -4762,27 +4798,27 @@
         <v>85003</v>
       </c>
     </row>
-    <row r="60" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A60" s="10">
         <v>3004</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="C60" s="12">
         <v>8</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="G60" s="12" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="H60" s="12">
         <v>1</v>
@@ -4798,7 +4834,7 @@
       </c>
       <c r="L60" s="13"/>
     </row>
-    <row r="61" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A61" s="10">
         <v>3005</v>
       </c>
@@ -4809,16 +4845,16 @@
         <v>8</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="F61" s="12" t="s">
         <v>318</v>
       </c>
       <c r="G61" s="12" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="H61" s="12">
         <v>3</v>
@@ -4834,24 +4870,24 @@
       </c>
       <c r="L61" s="13"/>
     </row>
-    <row r="62" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A62" s="10">
         <v>3006</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="C62" s="12">
         <v>8</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="G62" s="12" t="s">
         <v>158</v>
@@ -4870,12 +4906,12 @@
       </c>
       <c r="L62" s="13"/>
     </row>
-    <row r="63" spans="1:12" s="9" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:12" s="9" customFormat="1" ht="108" x14ac:dyDescent="0.45">
       <c r="A63" s="10">
         <v>3007</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C63" s="12">
         <v>8</v>
@@ -4887,10 +4923,10 @@
         <v>326</v>
       </c>
       <c r="F63" s="15" t="s">
-        <v>334</v>
+        <v>405</v>
       </c>
       <c r="G63" s="12" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="H63" s="9">
         <v>10</v>
@@ -4905,12 +4941,12 @@
         <v>15004</v>
       </c>
     </row>
-    <row r="64" spans="1:12" s="9" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:12" s="9" customFormat="1" ht="108" x14ac:dyDescent="0.45">
       <c r="A64" s="10">
         <v>3008</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C64" s="12">
         <v>8</v>
@@ -4922,10 +4958,10 @@
         <v>327</v>
       </c>
       <c r="F64" s="15" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="G64" s="12" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="H64" s="9">
         <v>10</v>
@@ -4940,12 +4976,12 @@
         <v>15005</v>
       </c>
     </row>
-    <row r="65" spans="1:12" s="9" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:12" s="9" customFormat="1" ht="108" x14ac:dyDescent="0.45">
       <c r="A65" s="10">
         <v>3009</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C65" s="17">
         <v>8</v>
@@ -4957,10 +4993,10 @@
         <v>328</v>
       </c>
       <c r="F65" s="18" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="G65" s="17" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H65" s="16">
         <v>10</v>
@@ -4976,7 +5012,7 @@
       </c>
       <c r="L65" s="16"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A66" s="10">
         <v>3010</v>
       </c>
@@ -5008,7 +5044,7 @@
         <v>81003</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A67" s="10">
         <v>3011</v>
       </c>
@@ -5040,7 +5076,7 @@
         <v>81006</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A68" s="10">
         <v>3012</v>
       </c>
@@ -5072,7 +5108,7 @@
         <v>81009</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A69" s="10">
         <v>3013</v>
       </c>
@@ -5104,7 +5140,7 @@
         <v>84004</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A70" s="10">
         <v>3014</v>
       </c>
@@ -5136,7 +5172,7 @@
         <v>84005</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A71" s="10">
         <v>3015</v>
       </c>
@@ -5168,7 +5204,7 @@
         <v>84006</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A72" s="10">
         <v>3016</v>
       </c>
@@ -5200,7 +5236,7 @@
         <v>84007</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A73" s="10">
         <v>3017</v>
       </c>
@@ -5232,7 +5268,7 @@
         <v>84008</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A74" s="10">
         <v>3018</v>
       </c>
@@ -5264,7 +5300,7 @@
         <v>84009</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A75" s="10">
         <v>3019</v>
       </c>
@@ -5296,7 +5332,7 @@
         <v>84010</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A76" s="10">
         <v>3020</v>
       </c>
@@ -5328,7 +5364,7 @@
         <v>80003</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A77" s="10">
         <v>3021</v>
       </c>
@@ -5360,7 +5396,7 @@
         <v>80006</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A78" s="10">
         <v>3022</v>
       </c>
@@ -5392,7 +5428,7 @@
         <v>80009</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A79" s="10">
         <v>3023</v>
       </c>
@@ -5424,7 +5460,7 @@
         <v>80012</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A80" s="10">
         <v>3024</v>
       </c>
@@ -5456,7 +5492,7 @@
         <v>80015</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A81" s="10">
         <v>3025</v>
       </c>
@@ -5488,7 +5524,7 @@
         <v>84011</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A82" s="10">
         <v>3026</v>
       </c>
@@ -5520,7 +5556,7 @@
         <v>84012</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A83" s="10">
         <v>3027</v>
       </c>
@@ -5552,7 +5588,7 @@
         <v>84013</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A84" s="10">
         <v>3028</v>
       </c>
@@ -5584,7 +5620,7 @@
         <v>84014</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A85" s="10">
         <v>3029</v>
       </c>
@@ -5616,7 +5652,7 @@
         <v>84015</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A86" s="10">
         <v>3030</v>
       </c>
@@ -5648,7 +5684,7 @@
         <v>84016</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A87" s="10">
         <v>3031</v>
       </c>
@@ -5680,7 +5716,7 @@
         <v>84017</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A88" s="10">
         <v>3032</v>
       </c>
@@ -5712,7 +5748,7 @@
         <v>84018</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A89" s="10">
         <v>3033</v>
       </c>
@@ -5744,7 +5780,7 @@
         <v>84019</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A90" s="10">
         <v>3034</v>
       </c>
@@ -5776,7 +5812,7 @@
         <v>84020</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A91" s="10">
         <v>3035</v>
       </c>
@@ -5808,7 +5844,7 @@
         <v>84021</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A92" s="10">
         <v>3036</v>
       </c>
@@ -5840,7 +5876,7 @@
         <v>84022</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A93" s="10">
         <v>3037</v>
       </c>
@@ -5872,7 +5908,7 @@
         <v>84023</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A94" s="10">
         <v>3038</v>
       </c>
@@ -5904,7 +5940,7 @@
         <v>84024</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A95" s="10">
         <v>3039</v>
       </c>
@@ -5936,7 +5972,7 @@
         <v>84025</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A96" s="10">
         <v>3040</v>
       </c>
@@ -5968,7 +6004,7 @@
         <v>84026</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A97" s="10">
         <v>3041</v>
       </c>
@@ -6000,7 +6036,7 @@
         <v>84027</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A98" s="10">
         <v>3042</v>
       </c>
@@ -6032,7 +6068,7 @@
         <v>84028</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A99" s="10">
         <v>3043</v>
       </c>
@@ -6064,7 +6100,7 @@
         <v>84029</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A100" s="10">
         <v>3044</v>
       </c>
@@ -6096,7 +6132,7 @@
         <v>84030</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A101" s="10">
         <v>3045</v>
       </c>
@@ -6128,7 +6164,7 @@
         <v>84031</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A102" s="10">
         <v>3046</v>
       </c>
@@ -6160,7 +6196,7 @@
         <v>84032</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A103" s="10">
         <v>3047</v>
       </c>
@@ -6192,7 +6228,7 @@
         <v>84033</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A104" s="10">
         <v>3048</v>
       </c>
@@ -6224,7 +6260,7 @@
         <v>84034</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A105" s="10">
         <v>3049</v>
       </c>
@@ -6256,7 +6292,7 @@
         <v>84035</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A106" s="10">
         <v>3050</v>
       </c>
@@ -6288,7 +6324,7 @@
         <v>84036</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A107" s="10">
         <v>3051</v>
       </c>
@@ -6320,7 +6356,7 @@
         <v>84037</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A108" s="10">
         <v>3052</v>
       </c>
@@ -6352,7 +6388,7 @@
         <v>83306</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A109" s="10">
         <v>3053</v>
       </c>
@@ -6384,7 +6420,7 @@
         <v>83307</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A110" s="10">
         <v>3054</v>
       </c>
@@ -6416,7 +6452,7 @@
         <v>83308</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A111" s="10">
         <v>3055</v>
       </c>
@@ -6448,7 +6484,7 @@
         <v>83309</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A112" s="10">
         <v>3056</v>
       </c>
@@ -6480,7 +6516,7 @@
         <v>83310</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A113" s="10">
         <v>3057</v>
       </c>
@@ -6512,7 +6548,7 @@
         <v>83311</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A114" s="10">
         <v>3058</v>
       </c>
@@ -6544,7 +6580,7 @@
         <v>83312</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A115" s="10">
         <v>3059</v>
       </c>
@@ -6576,7 +6612,7 @@
         <v>83313</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A116" s="10">
         <v>3060</v>
       </c>
@@ -6608,7 +6644,7 @@
         <v>83314</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A117" s="10">
         <v>3061</v>
       </c>
@@ -6658,132 +6694,132 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.25" customWidth="1"/>
+    <col min="1" max="1" width="15.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>142</v>
       </c>
@@ -6801,14 +6837,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
@@ -6816,7 +6852,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6824,7 +6860,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2</v>
       </c>
@@ -6832,7 +6868,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>3</v>
       </c>
@@ -6840,7 +6876,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>4</v>
       </c>
@@ -6848,7 +6884,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>5</v>
       </c>
@@ -6856,7 +6892,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>6</v>
       </c>
@@ -6864,7 +6900,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>7</v>
       </c>
@@ -6872,12 +6908,12 @@
         <v>157</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
   </sheetData>
